--- a/Piwik-Analyse/Seitenaufrufe.xlsx
+++ b/Piwik-Analyse/Seitenaufrufe.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26101"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dominik\Documents\redesign-ur-rz\Piwik-Analyse\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikbauer/Documents/redesign-ur-rz/Piwik-Analyse/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985"/>
+    <workbookView xWindow="13800" yWindow="560" windowWidth="24600" windowHeight="21140"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="271">
   <si>
     <t xml:space="preserve">Ebene </t>
   </si>
@@ -668,9 +671,6 @@
     <t xml:space="preserve">Seitenaufrufe </t>
   </si>
   <si>
-    <t>Keine Informationen</t>
-  </si>
-  <si>
     <t>Keine Information</t>
   </si>
   <si>
@@ -720,13 +720,133 @@
   </si>
   <si>
     <t>2 Minuten 13s</t>
+  </si>
+  <si>
+    <t>1 Minute 5s</t>
+  </si>
+  <si>
+    <t>1 Minuten 18s</t>
+  </si>
+  <si>
+    <t>1 Minuten 53s</t>
+  </si>
+  <si>
+    <t>2 Minuten 26s</t>
+  </si>
+  <si>
+    <t>1 Minuten 48s</t>
+  </si>
+  <si>
+    <t>52s</t>
+  </si>
+  <si>
+    <t>2 Minuten 0s</t>
+  </si>
+  <si>
+    <t>1 Minuten 22s</t>
+  </si>
+  <si>
+    <t>1 Minuten 38s</t>
+  </si>
+  <si>
+    <t>2 Minuten 40s</t>
+  </si>
+  <si>
+    <t>1 Minuten 9s</t>
+  </si>
+  <si>
+    <t>2 Minuten 7s</t>
+  </si>
+  <si>
+    <t>1 Minuten 4s</t>
+  </si>
+  <si>
+    <t>1 Minuten 20s</t>
+  </si>
+  <si>
+    <t>2 Minuten 19s</t>
+  </si>
+  <si>
+    <t>43s</t>
+  </si>
+  <si>
+    <t>1 Minuten 3s</t>
+  </si>
+  <si>
+    <t>1 Minuten 15s</t>
+  </si>
+  <si>
+    <t>2 Minuten 1s</t>
+  </si>
+  <si>
+    <t>41s</t>
+  </si>
+  <si>
+    <t>56s</t>
+  </si>
+  <si>
+    <t>1 Minuten 23s</t>
+  </si>
+  <si>
+    <t>34s</t>
+  </si>
+  <si>
+    <t>23s</t>
+  </si>
+  <si>
+    <t>1 Minuten 29s</t>
+  </si>
+  <si>
+    <t>1 Minuten 0s</t>
+  </si>
+  <si>
+    <t>1 Minuten 36s</t>
+  </si>
+  <si>
+    <t>1 Minuten 8s</t>
+  </si>
+  <si>
+    <t>1 Minuten 50s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keine Information </t>
+  </si>
+  <si>
+    <t>1 Minuten 44s</t>
+  </si>
+  <si>
+    <t>16s</t>
+  </si>
+  <si>
+    <t>1 Minuten 43s</t>
+  </si>
+  <si>
+    <t>1 Minuten 32s</t>
+  </si>
+  <si>
+    <t>3 Minuten 5s</t>
+  </si>
+  <si>
+    <t>5 Minuten 33s</t>
+  </si>
+  <si>
+    <t>1 Minuten 33s</t>
+  </si>
+  <si>
+    <t>54s</t>
+  </si>
+  <si>
+    <t>46s</t>
+  </si>
+  <si>
+    <t>1 Minuten 13s</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -738,6 +858,29 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -790,7 +933,7 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -800,7 +943,7 @@
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -808,12 +951,12 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -822,31 +965,31 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -854,33 +997,33 @@
       <left/>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -888,21 +1031,21 @@
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
         <color auto="1"/>
@@ -911,7 +1054,7 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
@@ -922,33 +1065,51 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -1069,9 +1230,36 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+  <cellStyles count="19">
+    <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Stand." xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1087,7 +1275,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-Design">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1351,31 +1539,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:Q224"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F19" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="K51" sqref="K51"/>
+    <sheetView tabSelected="1" topLeftCell="F171" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="J206" sqref="J206"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="17.86328125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="22.59765625" style="5" customWidth="1"/>
-    <col min="4" max="6" width="46.73046875" style="5" customWidth="1"/>
-    <col min="7" max="8" width="11.3984375" style="5"/>
-    <col min="9" max="11" width="35.86328125" style="5" customWidth="1"/>
-    <col min="12" max="12" width="25.3984375" style="5" customWidth="1"/>
-    <col min="13" max="13" width="10.6640625" style="5"/>
-    <col min="14" max="15" width="11.3984375" style="5"/>
-    <col min="16" max="16" width="38.1328125" style="5" customWidth="1"/>
-    <col min="17" max="17" width="37.265625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="17.83203125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" style="5" customWidth="1"/>
+    <col min="4" max="6" width="46.6640625" style="5" customWidth="1"/>
+    <col min="7" max="8" width="10.83203125" style="5"/>
+    <col min="9" max="11" width="35.83203125" style="5" customWidth="1"/>
+    <col min="12" max="12" width="25.33203125" style="5" customWidth="1"/>
+    <col min="13" max="15" width="10.83203125" style="5"/>
+    <col min="16" max="16" width="38.1640625" style="5" customWidth="1"/>
+    <col min="17" max="17" width="37.33203125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C2" s="6" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="4" spans="2:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="5" spans="2:17" s="4" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="2:17" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="2:17" s="4" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
         <v>0</v>
       </c>
@@ -1419,7 +1606,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B6" s="10">
         <v>1</v>
       </c>
@@ -1447,7 +1634,7 @@
       <c r="P6" s="11"/>
       <c r="Q6" s="12"/>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B7" s="13">
         <v>1</v>
       </c>
@@ -1475,7 +1662,7 @@
       <c r="P7" s="3"/>
       <c r="Q7" s="14"/>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B8" s="10"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
@@ -1507,7 +1694,7 @@
       </c>
       <c r="Q8" s="14"/>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B9" s="10"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
@@ -1529,7 +1716,7 @@
       </c>
       <c r="Q9" s="12"/>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -1551,7 +1738,7 @@
       </c>
       <c r="Q10" s="12"/>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B11" s="10"/>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
@@ -1565,13 +1752,13 @@
         <v>13</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K11" s="11" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L11" s="12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="M11" s="11"/>
       <c r="N11" s="11"/>
@@ -1579,7 +1766,7 @@
       <c r="P11" s="11"/>
       <c r="Q11" s="12"/>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B12" s="10"/>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
@@ -1596,7 +1783,7 @@
         <v>24448</v>
       </c>
       <c r="K12" s="11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L12" s="39">
         <v>0.3</v>
@@ -1607,7 +1794,7 @@
       <c r="P12" s="11"/>
       <c r="Q12" s="12"/>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B13" s="10"/>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
@@ -1624,7 +1811,7 @@
         <v>5565</v>
       </c>
       <c r="K13" s="11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="L13" s="39">
         <v>0.2</v>
@@ -1635,7 +1822,7 @@
       <c r="P13" s="11"/>
       <c r="Q13" s="12"/>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B14" s="10"/>
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
@@ -1652,7 +1839,7 @@
         <v>13653</v>
       </c>
       <c r="K14" s="11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="L14" s="39">
         <v>0.18</v>
@@ -1663,7 +1850,7 @@
       <c r="P14" s="11"/>
       <c r="Q14" s="12"/>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B15" s="10"/>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
@@ -1680,7 +1867,7 @@
         <v>116378</v>
       </c>
       <c r="K15" s="11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L15" s="39">
         <v>0.43</v>
@@ -1691,7 +1878,7 @@
       <c r="P15" s="11"/>
       <c r="Q15" s="12"/>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B16" s="10"/>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
@@ -1705,13 +1892,13 @@
         <v>18</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K16" s="11" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L16" s="12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="M16" s="11"/>
       <c r="N16" s="11"/>
@@ -1719,7 +1906,7 @@
       <c r="P16" s="11"/>
       <c r="Q16" s="12"/>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B17" s="10"/>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
@@ -1736,7 +1923,7 @@
         <v>4796</v>
       </c>
       <c r="K17" s="11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="L17" s="39">
         <v>0.24</v>
@@ -1747,7 +1934,7 @@
       <c r="P17" s="16"/>
       <c r="Q17" s="17"/>
     </row>
-    <row r="18" spans="2:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="13">
         <v>1</v>
       </c>
@@ -1775,7 +1962,7 @@
       <c r="P18" s="11"/>
       <c r="Q18" s="12"/>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B19" s="10"/>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
@@ -1792,7 +1979,7 @@
         <v>23785</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L19" s="38">
         <v>0.45</v>
@@ -1807,7 +1994,7 @@
       </c>
       <c r="Q19" s="14"/>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B20" s="10"/>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
@@ -1829,7 +2016,7 @@
       </c>
       <c r="Q20" s="12"/>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B21" s="10"/>
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
@@ -1851,7 +2038,7 @@
       </c>
       <c r="Q21" s="17"/>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B22" s="10"/>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
@@ -1868,7 +2055,7 @@
         <v>3476</v>
       </c>
       <c r="K22" s="18" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L22" s="38">
         <v>0.24</v>
@@ -1883,7 +2070,7 @@
       </c>
       <c r="Q22" s="14"/>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B23" s="10"/>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
@@ -1905,7 +2092,7 @@
       </c>
       <c r="Q23" s="12"/>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B24" s="10"/>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
@@ -1927,7 +2114,7 @@
       </c>
       <c r="Q24" s="12"/>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B25" s="10"/>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
@@ -1949,7 +2136,7 @@
       </c>
       <c r="Q25" s="12"/>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B26" s="10"/>
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
@@ -1971,7 +2158,7 @@
       </c>
       <c r="Q26" s="12"/>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B27" s="10"/>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
@@ -1993,7 +2180,7 @@
       </c>
       <c r="Q27" s="17"/>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B28" s="10"/>
       <c r="C28" s="11"/>
       <c r="D28" s="11"/>
@@ -2010,7 +2197,7 @@
         <v>2535</v>
       </c>
       <c r="K28" s="19" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L28" s="39">
         <v>0.17</v>
@@ -2021,7 +2208,7 @@
       <c r="P28" s="11"/>
       <c r="Q28" s="12"/>
     </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B29" s="10"/>
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
@@ -2038,7 +2225,7 @@
         <v>13713</v>
       </c>
       <c r="K29" s="18" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L29" s="38">
         <v>0.21</v>
@@ -2053,7 +2240,7 @@
       </c>
       <c r="Q29" s="14"/>
     </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B30" s="10"/>
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
@@ -2075,7 +2262,7 @@
       </c>
       <c r="Q30" s="12"/>
     </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B31" s="10"/>
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
@@ -2097,7 +2284,7 @@
       </c>
       <c r="Q31" s="12"/>
     </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B32" s="10"/>
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
@@ -2114,7 +2301,7 @@
         <v>81041</v>
       </c>
       <c r="K32" s="18" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="L32" s="38">
         <v>0.31</v>
@@ -2129,7 +2316,7 @@
       </c>
       <c r="Q32" s="14"/>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B33" s="10"/>
       <c r="C33" s="11"/>
       <c r="D33" s="11"/>
@@ -2151,7 +2338,7 @@
       </c>
       <c r="Q33" s="12"/>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B34" s="10"/>
       <c r="C34" s="11"/>
       <c r="D34" s="11"/>
@@ -2173,7 +2360,7 @@
       </c>
       <c r="Q34" s="12"/>
     </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B35" s="10"/>
       <c r="C35" s="11"/>
       <c r="D35" s="11"/>
@@ -2195,7 +2382,7 @@
       </c>
       <c r="Q35" s="12"/>
     </row>
-    <row r="36" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B36" s="10"/>
       <c r="C36" s="11"/>
       <c r="D36" s="11"/>
@@ -2217,7 +2404,7 @@
       </c>
       <c r="Q36" s="12"/>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="10"/>
       <c r="C37" s="11"/>
       <c r="D37" s="11"/>
@@ -2234,7 +2421,7 @@
         <v>14319</v>
       </c>
       <c r="K37" s="18" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L37" s="38">
         <v>0.17</v>
@@ -2245,7 +2432,7 @@
       <c r="P37" s="3"/>
       <c r="Q37" s="14"/>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B38" s="10"/>
       <c r="C38" s="11"/>
       <c r="D38" s="11"/>
@@ -2262,7 +2449,7 @@
         <v>2433</v>
       </c>
       <c r="K38" s="18" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L38" s="38">
         <v>0.26</v>
@@ -2273,7 +2460,7 @@
       <c r="P38" s="3"/>
       <c r="Q38" s="14"/>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B39" s="10"/>
       <c r="C39" s="11"/>
       <c r="D39" s="11"/>
@@ -2290,7 +2477,7 @@
         <v>10354</v>
       </c>
       <c r="K39" s="18" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L39" s="38">
         <v>0.42</v>
@@ -2305,7 +2492,7 @@
       </c>
       <c r="Q39" s="14"/>
     </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B40" s="10"/>
       <c r="C40" s="11"/>
       <c r="D40" s="11"/>
@@ -2327,7 +2514,7 @@
       </c>
       <c r="Q40" s="12"/>
     </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B41" s="10"/>
       <c r="C41" s="11"/>
       <c r="D41" s="11"/>
@@ -2349,7 +2536,7 @@
       </c>
       <c r="Q41" s="12"/>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B42" s="10"/>
       <c r="C42" s="11"/>
       <c r="D42" s="11"/>
@@ -2371,7 +2558,7 @@
       </c>
       <c r="Q42" s="12"/>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B43" s="10"/>
       <c r="C43" s="11"/>
       <c r="D43" s="11"/>
@@ -2388,7 +2575,7 @@
         <v>8534</v>
       </c>
       <c r="K43" s="18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="L43" s="38">
         <v>0.36</v>
@@ -2399,7 +2586,7 @@
       <c r="P43" s="3"/>
       <c r="Q43" s="14"/>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B44" s="10"/>
       <c r="C44" s="11"/>
       <c r="D44" s="11"/>
@@ -2416,7 +2603,7 @@
         <v>1025</v>
       </c>
       <c r="K44" s="18" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L44" s="38">
         <v>0.26</v>
@@ -2427,7 +2614,7 @@
       <c r="P44" s="3"/>
       <c r="Q44" s="14"/>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B45" s="10"/>
       <c r="C45" s="11"/>
       <c r="D45" s="11"/>
@@ -2444,7 +2631,7 @@
         <v>16644</v>
       </c>
       <c r="K45" s="18" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="L45" s="38">
         <v>0.23</v>
@@ -2459,7 +2646,7 @@
       </c>
       <c r="Q45" s="14"/>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B46" s="10"/>
       <c r="C46" s="11"/>
       <c r="D46" s="11"/>
@@ -2481,7 +2668,7 @@
       </c>
       <c r="Q46" s="12"/>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B47" s="10"/>
       <c r="C47" s="11"/>
       <c r="D47" s="11"/>
@@ -2503,7 +2690,7 @@
       </c>
       <c r="Q47" s="12"/>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B48" s="10"/>
       <c r="C48" s="11"/>
       <c r="D48" s="11"/>
@@ -2525,7 +2712,7 @@
       </c>
       <c r="Q48" s="12"/>
     </row>
-    <row r="49" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="49" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B49" s="10"/>
       <c r="C49" s="11"/>
       <c r="D49" s="11"/>
@@ -2547,7 +2734,7 @@
       </c>
       <c r="Q49" s="12"/>
     </row>
-    <row r="50" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="50" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B50" s="10"/>
       <c r="C50" s="11"/>
       <c r="D50" s="11"/>
@@ -2564,7 +2751,7 @@
         <v>25218</v>
       </c>
       <c r="K50" s="18" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L50" s="38">
         <v>0.69</v>
@@ -2575,7 +2762,7 @@
       <c r="P50" s="3"/>
       <c r="Q50" s="14"/>
     </row>
-    <row r="51" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="51" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B51" s="10"/>
       <c r="C51" s="11"/>
       <c r="D51" s="11"/>
@@ -2591,8 +2778,12 @@
       <c r="J51" s="40">
         <v>15135</v>
       </c>
-      <c r="K51" s="18"/>
-      <c r="L51" s="14"/>
+      <c r="K51" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="L51" s="38">
+        <v>0.32</v>
+      </c>
       <c r="M51" s="3"/>
       <c r="N51" s="3"/>
       <c r="O51" s="3">
@@ -2603,7 +2794,7 @@
       </c>
       <c r="Q51" s="14"/>
     </row>
-    <row r="52" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="52" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B52" s="10"/>
       <c r="C52" s="11"/>
       <c r="D52" s="11"/>
@@ -2625,7 +2816,7 @@
       </c>
       <c r="Q52" s="12"/>
     </row>
-    <row r="53" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="53" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B53" s="10"/>
       <c r="C53" s="11"/>
       <c r="D53" s="11"/>
@@ -2647,7 +2838,7 @@
       </c>
       <c r="Q53" s="12"/>
     </row>
-    <row r="54" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="54" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B54" s="10"/>
       <c r="C54" s="11"/>
       <c r="D54" s="11"/>
@@ -2669,7 +2860,7 @@
       </c>
       <c r="Q54" s="12"/>
     </row>
-    <row r="55" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="55" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B55" s="10"/>
       <c r="C55" s="11"/>
       <c r="D55" s="11"/>
@@ -2682,9 +2873,15 @@
       <c r="I55" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="J55" s="18"/>
-      <c r="K55" s="18"/>
-      <c r="L55" s="14"/>
+      <c r="J55" s="40">
+        <v>21293</v>
+      </c>
+      <c r="K55" s="18" t="s">
+        <v>231</v>
+      </c>
+      <c r="L55" s="38">
+        <v>0.28999999999999998</v>
+      </c>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="18">
@@ -2695,7 +2892,7 @@
       </c>
       <c r="Q55" s="14"/>
     </row>
-    <row r="56" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="56" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B56" s="10"/>
       <c r="C56" s="11"/>
       <c r="D56" s="11"/>
@@ -2717,7 +2914,7 @@
       </c>
       <c r="Q56" s="12"/>
     </row>
-    <row r="57" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="57" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B57" s="10"/>
       <c r="C57" s="11"/>
       <c r="D57" s="11"/>
@@ -2739,7 +2936,7 @@
       </c>
       <c r="Q57" s="12"/>
     </row>
-    <row r="58" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="58" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B58" s="10"/>
       <c r="C58" s="11"/>
       <c r="D58" s="11"/>
@@ -2761,7 +2958,7 @@
       </c>
       <c r="Q58" s="12"/>
     </row>
-    <row r="59" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="59" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B59" s="10"/>
       <c r="C59" s="11"/>
       <c r="D59" s="11"/>
@@ -2774,9 +2971,15 @@
       <c r="I59" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="J59" s="18"/>
-      <c r="K59" s="18"/>
-      <c r="L59" s="14"/>
+      <c r="J59" s="40">
+        <v>22193</v>
+      </c>
+      <c r="K59" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="L59" s="38">
+        <v>0.39</v>
+      </c>
       <c r="M59" s="3"/>
       <c r="N59" s="3"/>
       <c r="O59" s="18">
@@ -2787,7 +2990,7 @@
       </c>
       <c r="Q59" s="14"/>
     </row>
-    <row r="60" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="60" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B60" s="10"/>
       <c r="C60" s="11"/>
       <c r="D60" s="11"/>
@@ -2809,7 +3012,7 @@
       </c>
       <c r="Q60" s="12"/>
     </row>
-    <row r="61" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="61" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B61" s="10"/>
       <c r="C61" s="11"/>
       <c r="D61" s="11"/>
@@ -2831,7 +3034,7 @@
       </c>
       <c r="Q61" s="12"/>
     </row>
-    <row r="62" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="62" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B62" s="10"/>
       <c r="C62" s="11"/>
       <c r="D62" s="11"/>
@@ -2853,7 +3056,7 @@
       </c>
       <c r="Q62" s="12"/>
     </row>
-    <row r="63" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="63" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B63" s="10"/>
       <c r="C63" s="11"/>
       <c r="D63" s="11"/>
@@ -2866,9 +3069,15 @@
       <c r="I63" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="J63" s="18"/>
-      <c r="K63" s="18"/>
-      <c r="L63" s="14"/>
+      <c r="J63" s="40">
+        <v>26926</v>
+      </c>
+      <c r="K63" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="L63" s="38">
+        <v>0.34</v>
+      </c>
       <c r="M63" s="3"/>
       <c r="N63" s="3"/>
       <c r="O63" s="3">
@@ -2879,7 +3088,7 @@
       </c>
       <c r="Q63" s="14"/>
     </row>
-    <row r="64" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="64" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B64" s="10"/>
       <c r="C64" s="11"/>
       <c r="D64" s="11"/>
@@ -2901,7 +3110,7 @@
       </c>
       <c r="Q64" s="12"/>
     </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B65" s="10"/>
       <c r="C65" s="11"/>
       <c r="D65" s="11"/>
@@ -2923,7 +3132,7 @@
       </c>
       <c r="Q65" s="12"/>
     </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B66" s="10"/>
       <c r="C66" s="11"/>
       <c r="D66" s="11"/>
@@ -2945,7 +3154,7 @@
       </c>
       <c r="Q66" s="12"/>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B67" s="10"/>
       <c r="C67" s="11"/>
       <c r="D67" s="11"/>
@@ -2967,7 +3176,7 @@
       </c>
       <c r="Q67" s="12"/>
     </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B68" s="10"/>
       <c r="C68" s="11"/>
       <c r="D68" s="11"/>
@@ -2989,7 +3198,7 @@
       </c>
       <c r="Q68" s="12"/>
     </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B69" s="10"/>
       <c r="C69" s="11"/>
       <c r="D69" s="11"/>
@@ -3011,7 +3220,7 @@
       </c>
       <c r="Q69" s="12"/>
     </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B70" s="10"/>
       <c r="C70" s="11"/>
       <c r="D70" s="11"/>
@@ -3033,7 +3242,7 @@
       </c>
       <c r="Q70" s="12"/>
     </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B71" s="10"/>
       <c r="C71" s="11"/>
       <c r="D71" s="11"/>
@@ -3046,9 +3255,15 @@
       <c r="I71" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="J71" s="18"/>
-      <c r="K71" s="18"/>
-      <c r="L71" s="14"/>
+      <c r="J71" s="40">
+        <v>9457</v>
+      </c>
+      <c r="K71" s="18" t="s">
+        <v>234</v>
+      </c>
+      <c r="L71" s="38">
+        <v>0.27</v>
+      </c>
       <c r="M71" s="3"/>
       <c r="N71" s="3"/>
       <c r="O71" s="18">
@@ -3059,7 +3274,7 @@
       </c>
       <c r="Q71" s="14"/>
     </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B72" s="10"/>
       <c r="C72" s="11"/>
       <c r="D72" s="11"/>
@@ -3081,7 +3296,7 @@
       </c>
       <c r="Q72" s="12"/>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B73" s="13">
         <v>1</v>
       </c>
@@ -3109,7 +3324,7 @@
       <c r="P73" s="3"/>
       <c r="Q73" s="14"/>
     </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B74" s="10"/>
       <c r="C74" s="11"/>
       <c r="D74" s="11"/>
@@ -3122,16 +3337,22 @@
       <c r="I74" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="J74" s="3"/>
-      <c r="K74" s="3"/>
-      <c r="L74" s="14"/>
+      <c r="J74" s="32">
+        <v>3660</v>
+      </c>
+      <c r="K74" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="L74" s="38">
+        <v>0.13</v>
+      </c>
       <c r="M74" s="3"/>
       <c r="N74" s="3"/>
       <c r="O74" s="3"/>
       <c r="P74" s="3"/>
       <c r="Q74" s="14"/>
     </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B75" s="10"/>
       <c r="C75" s="11"/>
       <c r="D75" s="11"/>
@@ -3144,16 +3365,22 @@
       <c r="I75" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="J75" s="18"/>
-      <c r="K75" s="18"/>
-      <c r="L75" s="14"/>
+      <c r="J75" s="40">
+        <v>7724</v>
+      </c>
+      <c r="K75" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="L75" s="38">
+        <v>0.15</v>
+      </c>
       <c r="M75" s="3"/>
       <c r="N75" s="3"/>
       <c r="O75" s="3"/>
       <c r="P75" s="3"/>
       <c r="Q75" s="14"/>
     </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B76" s="10"/>
       <c r="C76" s="11"/>
       <c r="D76" s="11"/>
@@ -3175,7 +3402,7 @@
       <c r="P76" s="3"/>
       <c r="Q76" s="14"/>
     </row>
-    <row r="77" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B77" s="13"/>
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
@@ -3188,9 +3415,15 @@
       <c r="I77" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="J77" s="18"/>
-      <c r="K77" s="18"/>
-      <c r="L77" s="14"/>
+      <c r="J77" s="40">
+        <v>3276</v>
+      </c>
+      <c r="K77" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="L77" s="38">
+        <v>0.28000000000000003</v>
+      </c>
       <c r="M77" s="3"/>
       <c r="N77" s="3"/>
       <c r="O77" s="18">
@@ -3201,7 +3434,7 @@
       </c>
       <c r="Q77" s="14"/>
     </row>
-    <row r="78" spans="2:17" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="2:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B78" s="10"/>
       <c r="C78" s="11"/>
       <c r="D78" s="11"/>
@@ -3223,7 +3456,7 @@
       </c>
       <c r="Q78" s="12"/>
     </row>
-    <row r="79" spans="2:17" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="2:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B79" s="10"/>
       <c r="C79" s="11"/>
       <c r="D79" s="11"/>
@@ -3245,7 +3478,7 @@
       </c>
       <c r="Q79" s="12"/>
     </row>
-    <row r="80" spans="2:17" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="2:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B80" s="10"/>
       <c r="C80" s="11"/>
       <c r="D80" s="11"/>
@@ -3267,7 +3500,7 @@
       </c>
       <c r="Q80" s="12"/>
     </row>
-    <row r="81" spans="2:17" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="2:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B81" s="10"/>
       <c r="C81" s="11"/>
       <c r="D81" s="11"/>
@@ -3289,7 +3522,7 @@
       </c>
       <c r="Q81" s="12"/>
     </row>
-    <row r="82" spans="2:17" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="2:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B82" s="10"/>
       <c r="C82" s="11"/>
       <c r="D82" s="11"/>
@@ -3311,7 +3544,7 @@
       </c>
       <c r="Q82" s="12"/>
     </row>
-    <row r="83" spans="2:17" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="2:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B83" s="10"/>
       <c r="C83" s="11"/>
       <c r="D83" s="11"/>
@@ -3333,7 +3566,7 @@
       </c>
       <c r="Q83" s="12"/>
     </row>
-    <row r="84" spans="2:17" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="2:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B84" s="10"/>
       <c r="C84" s="11"/>
       <c r="D84" s="11"/>
@@ -3355,7 +3588,7 @@
       </c>
       <c r="Q84" s="12"/>
     </row>
-    <row r="85" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="85" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B85" s="10"/>
       <c r="C85" s="11"/>
       <c r="D85" s="11"/>
@@ -3368,16 +3601,22 @@
       <c r="I85" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="J85" s="18"/>
-      <c r="K85" s="18"/>
-      <c r="L85" s="14"/>
+      <c r="J85" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="K85" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="L85" s="14" t="s">
+        <v>214</v>
+      </c>
       <c r="M85" s="3"/>
       <c r="N85" s="3"/>
       <c r="O85" s="3"/>
       <c r="P85" s="3"/>
       <c r="Q85" s="14"/>
     </row>
-    <row r="86" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="86" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B86" s="10"/>
       <c r="C86" s="11"/>
       <c r="D86" s="11"/>
@@ -3390,9 +3629,15 @@
       <c r="I86" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="J86" s="18"/>
-      <c r="K86" s="18"/>
-      <c r="L86" s="14"/>
+      <c r="J86" s="40">
+        <v>24603</v>
+      </c>
+      <c r="K86" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="L86" s="38">
+        <v>0.22</v>
+      </c>
       <c r="M86" s="3"/>
       <c r="N86" s="3"/>
       <c r="O86" s="3">
@@ -3403,7 +3648,7 @@
       </c>
       <c r="Q86" s="14"/>
     </row>
-    <row r="87" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="87" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B87" s="10"/>
       <c r="C87" s="11"/>
       <c r="D87" s="11"/>
@@ -3425,7 +3670,7 @@
       </c>
       <c r="Q87" s="12"/>
     </row>
-    <row r="88" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="88" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B88" s="10"/>
       <c r="C88" s="11"/>
       <c r="D88" s="11"/>
@@ -3447,7 +3692,7 @@
       </c>
       <c r="Q88" s="12"/>
     </row>
-    <row r="89" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="89" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B89" s="10"/>
       <c r="C89" s="11"/>
       <c r="D89" s="11"/>
@@ -3469,7 +3714,7 @@
       </c>
       <c r="Q89" s="12"/>
     </row>
-    <row r="90" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="90" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B90" s="10"/>
       <c r="C90" s="11"/>
       <c r="D90" s="11"/>
@@ -3491,7 +3736,7 @@
       </c>
       <c r="Q90" s="12"/>
     </row>
-    <row r="91" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="91" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B91" s="10"/>
       <c r="C91" s="11"/>
       <c r="D91" s="11"/>
@@ -3504,9 +3749,15 @@
       <c r="I91" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="J91" s="18"/>
-      <c r="K91" s="18"/>
-      <c r="L91" s="14"/>
+      <c r="J91" s="40">
+        <v>47040</v>
+      </c>
+      <c r="K91" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="L91" s="38">
+        <v>0.18</v>
+      </c>
       <c r="M91" s="3"/>
       <c r="N91" s="3"/>
       <c r="O91" s="3">
@@ -3517,7 +3768,7 @@
       </c>
       <c r="Q91" s="14"/>
     </row>
-    <row r="92" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="92" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B92" s="10"/>
       <c r="C92" s="11"/>
       <c r="D92" s="11"/>
@@ -3539,7 +3790,7 @@
       </c>
       <c r="Q92" s="12"/>
     </row>
-    <row r="93" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="93" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B93" s="10"/>
       <c r="C93" s="11"/>
       <c r="D93" s="11"/>
@@ -3561,7 +3812,7 @@
       </c>
       <c r="Q93" s="12"/>
     </row>
-    <row r="94" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="94" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B94" s="10"/>
       <c r="C94" s="11"/>
       <c r="D94" s="11"/>
@@ -3583,7 +3834,7 @@
       </c>
       <c r="Q94" s="12"/>
     </row>
-    <row r="95" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="95" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B95" s="10"/>
       <c r="C95" s="11"/>
       <c r="D95" s="11"/>
@@ -3605,7 +3856,7 @@
       </c>
       <c r="Q95" s="12"/>
     </row>
-    <row r="96" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="96" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B96" s="10"/>
       <c r="C96" s="11"/>
       <c r="D96" s="11"/>
@@ -3627,7 +3878,7 @@
       </c>
       <c r="Q96" s="12"/>
     </row>
-    <row r="97" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="97" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B97" s="10"/>
       <c r="C97" s="11"/>
       <c r="D97" s="11"/>
@@ -3640,9 +3891,15 @@
       <c r="I97" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="J97" s="18"/>
-      <c r="K97" s="18"/>
-      <c r="L97" s="14"/>
+      <c r="J97" s="40">
+        <v>2992</v>
+      </c>
+      <c r="K97" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="L97" s="38">
+        <v>0.37</v>
+      </c>
       <c r="M97" s="3"/>
       <c r="N97" s="3"/>
       <c r="O97" s="3">
@@ -3653,7 +3910,7 @@
       </c>
       <c r="Q97" s="14"/>
     </row>
-    <row r="98" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="98" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B98" s="10"/>
       <c r="C98" s="11"/>
       <c r="D98" s="11"/>
@@ -3675,7 +3932,7 @@
       </c>
       <c r="Q98" s="12"/>
     </row>
-    <row r="99" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="99" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B99" s="10"/>
       <c r="C99" s="11"/>
       <c r="D99" s="11"/>
@@ -3697,7 +3954,7 @@
       </c>
       <c r="Q99" s="12"/>
     </row>
-    <row r="100" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="100" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B100" s="10"/>
       <c r="C100" s="11"/>
       <c r="D100" s="11"/>
@@ -3719,7 +3976,7 @@
       </c>
       <c r="Q100" s="12"/>
     </row>
-    <row r="101" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="101" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B101" s="10"/>
       <c r="C101" s="11"/>
       <c r="D101" s="11"/>
@@ -3741,7 +3998,7 @@
       </c>
       <c r="Q101" s="12"/>
     </row>
-    <row r="102" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="102" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B102" s="10"/>
       <c r="C102" s="11"/>
       <c r="D102" s="11"/>
@@ -3763,7 +4020,7 @@
       </c>
       <c r="Q102" s="12"/>
     </row>
-    <row r="103" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="103" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B103" s="10"/>
       <c r="C103" s="11"/>
       <c r="D103" s="11"/>
@@ -3785,7 +4042,7 @@
       </c>
       <c r="Q103" s="12"/>
     </row>
-    <row r="104" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="104" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B104" s="10"/>
       <c r="C104" s="11"/>
       <c r="D104" s="11"/>
@@ -3807,7 +4064,7 @@
       </c>
       <c r="Q104" s="12"/>
     </row>
-    <row r="105" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="105" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B105" s="10"/>
       <c r="C105" s="11"/>
       <c r="D105" s="11"/>
@@ -3820,16 +4077,22 @@
       <c r="I105" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="J105" s="18"/>
-      <c r="K105" s="18"/>
-      <c r="L105" s="14"/>
+      <c r="J105" s="40">
+        <v>1663</v>
+      </c>
+      <c r="K105" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="L105" s="38">
+        <v>0.39</v>
+      </c>
       <c r="M105" s="3"/>
       <c r="N105" s="3"/>
       <c r="O105" s="3"/>
       <c r="P105" s="3"/>
       <c r="Q105" s="14"/>
     </row>
-    <row r="106" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="106" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B106" s="10"/>
       <c r="C106" s="11"/>
       <c r="D106" s="11"/>
@@ -3842,16 +4105,22 @@
       <c r="I106" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="J106" s="18"/>
-      <c r="K106" s="18"/>
-      <c r="L106" s="14"/>
+      <c r="J106" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="K106" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="L106" s="18" t="s">
+        <v>214</v>
+      </c>
       <c r="M106" s="3"/>
       <c r="N106" s="3"/>
       <c r="O106" s="3"/>
       <c r="P106" s="3"/>
       <c r="Q106" s="14"/>
     </row>
-    <row r="107" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="107" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B107" s="13">
         <v>1</v>
       </c>
@@ -3879,7 +4148,7 @@
       <c r="P107" s="3"/>
       <c r="Q107" s="14"/>
     </row>
-    <row r="108" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="108" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B108" s="10"/>
       <c r="C108" s="11"/>
       <c r="D108" s="11"/>
@@ -3892,16 +4161,22 @@
       <c r="I108" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="J108" s="18"/>
-      <c r="K108" s="18"/>
-      <c r="L108" s="14"/>
+      <c r="J108" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="K108" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="L108" s="18" t="s">
+        <v>214</v>
+      </c>
       <c r="M108" s="3"/>
       <c r="N108" s="3"/>
       <c r="O108" s="3"/>
       <c r="P108" s="3"/>
       <c r="Q108" s="14"/>
     </row>
-    <row r="109" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="109" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B109" s="10"/>
       <c r="C109" s="11"/>
       <c r="D109" s="11"/>
@@ -3914,9 +4189,15 @@
       <c r="I109" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="J109" s="18"/>
-      <c r="K109" s="18"/>
-      <c r="L109" s="14"/>
+      <c r="J109" s="40">
+        <v>20312</v>
+      </c>
+      <c r="K109" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="L109" s="38">
+        <v>0.28999999999999998</v>
+      </c>
       <c r="M109" s="3"/>
       <c r="N109" s="3"/>
       <c r="O109" s="3">
@@ -3927,7 +4208,7 @@
       </c>
       <c r="Q109" s="14"/>
     </row>
-    <row r="110" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="110" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B110" s="10"/>
       <c r="C110" s="11"/>
       <c r="D110" s="11"/>
@@ -3949,7 +4230,7 @@
       </c>
       <c r="Q110" s="12"/>
     </row>
-    <row r="111" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="111" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B111" s="10"/>
       <c r="C111" s="11"/>
       <c r="D111" s="11"/>
@@ -3971,7 +4252,7 @@
       </c>
       <c r="Q111" s="12"/>
     </row>
-    <row r="112" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="112" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B112" s="10"/>
       <c r="C112" s="11"/>
       <c r="D112" s="11"/>
@@ -3993,7 +4274,7 @@
       </c>
       <c r="Q112" s="12"/>
     </row>
-    <row r="113" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="113" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B113" s="10"/>
       <c r="C113" s="11"/>
       <c r="D113" s="11"/>
@@ -4015,7 +4296,7 @@
       </c>
       <c r="Q113" s="12"/>
     </row>
-    <row r="114" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="114" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B114" s="10"/>
       <c r="C114" s="11"/>
       <c r="D114" s="11"/>
@@ -4037,7 +4318,7 @@
       </c>
       <c r="Q114" s="12"/>
     </row>
-    <row r="115" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="115" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B115" s="10"/>
       <c r="C115" s="11"/>
       <c r="D115" s="11"/>
@@ -4059,7 +4340,7 @@
       </c>
       <c r="Q115" s="12"/>
     </row>
-    <row r="116" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="116" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B116" s="10"/>
       <c r="C116" s="11"/>
       <c r="D116" s="11"/>
@@ -4072,16 +4353,22 @@
       <c r="I116" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="J116" s="18"/>
-      <c r="K116" s="18"/>
-      <c r="L116" s="14"/>
+      <c r="J116" s="18">
+        <v>681</v>
+      </c>
+      <c r="K116" s="18" t="s">
+        <v>241</v>
+      </c>
+      <c r="L116" s="38">
+        <v>0.14000000000000001</v>
+      </c>
       <c r="M116" s="3"/>
       <c r="N116" s="3"/>
       <c r="O116" s="3"/>
       <c r="P116" s="3"/>
       <c r="Q116" s="14"/>
     </row>
-    <row r="117" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="117" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B117" s="10"/>
       <c r="C117" s="11"/>
       <c r="D117" s="11"/>
@@ -4094,16 +4381,22 @@
       <c r="I117" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="J117" s="18"/>
-      <c r="K117" s="18"/>
-      <c r="L117" s="14"/>
+      <c r="J117" s="40">
+        <v>1086</v>
+      </c>
+      <c r="K117" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="L117" s="38">
+        <v>0.3</v>
+      </c>
       <c r="M117" s="3"/>
       <c r="N117" s="3"/>
       <c r="O117" s="3"/>
       <c r="P117" s="3"/>
       <c r="Q117" s="14"/>
     </row>
-    <row r="118" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="118" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B118" s="10"/>
       <c r="C118" s="11"/>
       <c r="D118" s="11"/>
@@ -4116,9 +4409,15 @@
       <c r="I118" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="J118" s="18"/>
-      <c r="K118" s="18"/>
-      <c r="L118" s="14"/>
+      <c r="J118" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="K118" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="L118" s="18" t="s">
+        <v>214</v>
+      </c>
       <c r="M118" s="3"/>
       <c r="N118" s="3"/>
       <c r="O118" s="3">
@@ -4129,7 +4428,7 @@
       </c>
       <c r="Q118" s="14"/>
     </row>
-    <row r="119" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="119" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B119" s="10"/>
       <c r="C119" s="11"/>
       <c r="D119" s="11"/>
@@ -4151,7 +4450,7 @@
       </c>
       <c r="Q119" s="12"/>
     </row>
-    <row r="120" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="120" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B120" s="10"/>
       <c r="C120" s="11"/>
       <c r="D120" s="11"/>
@@ -4173,7 +4472,7 @@
       </c>
       <c r="Q120" s="12"/>
     </row>
-    <row r="121" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="121" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B121" s="10"/>
       <c r="C121" s="11"/>
       <c r="D121" s="11"/>
@@ -4186,16 +4485,22 @@
       <c r="I121" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="J121" s="18"/>
-      <c r="K121" s="18"/>
-      <c r="L121" s="14"/>
+      <c r="J121" s="18">
+        <v>328</v>
+      </c>
+      <c r="K121" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="L121" s="38">
+        <v>0.15</v>
+      </c>
       <c r="M121" s="3"/>
       <c r="N121" s="3"/>
       <c r="O121" s="3"/>
       <c r="P121" s="3"/>
       <c r="Q121" s="14"/>
     </row>
-    <row r="122" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="122" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B122" s="13">
         <v>1</v>
       </c>
@@ -4223,7 +4528,7 @@
       <c r="P122" s="3"/>
       <c r="Q122" s="14"/>
     </row>
-    <row r="123" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="123" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B123" s="10"/>
       <c r="C123" s="11"/>
       <c r="D123" s="11"/>
@@ -4236,16 +4541,22 @@
       <c r="I123" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="J123" s="18"/>
-      <c r="K123" s="18"/>
-      <c r="L123" s="14"/>
+      <c r="J123" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="K123" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="L123" s="14" t="s">
+        <v>214</v>
+      </c>
       <c r="M123" s="3"/>
       <c r="N123" s="3"/>
       <c r="O123" s="3"/>
       <c r="P123" s="3"/>
       <c r="Q123" s="14"/>
     </row>
-    <row r="124" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="124" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B124" s="10"/>
       <c r="C124" s="11"/>
       <c r="D124" s="11"/>
@@ -4258,16 +4569,22 @@
       <c r="I124" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="J124" s="18"/>
-      <c r="K124" s="18"/>
-      <c r="L124" s="14"/>
+      <c r="J124" s="18">
+        <v>741</v>
+      </c>
+      <c r="K124" s="18" t="s">
+        <v>243</v>
+      </c>
+      <c r="L124" s="38">
+        <v>0.35</v>
+      </c>
       <c r="M124" s="3"/>
       <c r="N124" s="3"/>
       <c r="O124" s="3"/>
       <c r="P124" s="3"/>
       <c r="Q124" s="14"/>
     </row>
-    <row r="125" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="125" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B125" s="10"/>
       <c r="C125" s="11"/>
       <c r="D125" s="11"/>
@@ -4280,16 +4597,22 @@
       <c r="I125" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="J125" s="18"/>
-      <c r="K125" s="18"/>
-      <c r="L125" s="14"/>
+      <c r="J125" s="40">
+        <v>5572</v>
+      </c>
+      <c r="K125" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="L125" s="38">
+        <v>0.46</v>
+      </c>
       <c r="M125" s="3"/>
       <c r="N125" s="3"/>
       <c r="O125" s="3"/>
       <c r="P125" s="3"/>
       <c r="Q125" s="14"/>
     </row>
-    <row r="126" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="126" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B126" s="10"/>
       <c r="C126" s="11"/>
       <c r="D126" s="11"/>
@@ -4302,16 +4625,22 @@
       <c r="I126" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="J126" s="18"/>
-      <c r="K126" s="18"/>
-      <c r="L126" s="14"/>
+      <c r="J126" s="40">
+        <v>2575</v>
+      </c>
+      <c r="K126" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="L126" s="38">
+        <v>0.34</v>
+      </c>
       <c r="M126" s="3"/>
       <c r="N126" s="3"/>
       <c r="O126" s="3"/>
       <c r="P126" s="3"/>
       <c r="Q126" s="14"/>
     </row>
-    <row r="127" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="127" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B127" s="10"/>
       <c r="C127" s="11"/>
       <c r="D127" s="11"/>
@@ -4324,16 +4653,22 @@
       <c r="I127" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="J127" s="18"/>
-      <c r="K127" s="18"/>
-      <c r="L127" s="14"/>
+      <c r="J127" s="18">
+        <v>757</v>
+      </c>
+      <c r="K127" s="18" t="s">
+        <v>246</v>
+      </c>
+      <c r="L127" s="38">
+        <v>0.23</v>
+      </c>
       <c r="M127" s="3"/>
       <c r="N127" s="3"/>
       <c r="O127" s="3"/>
       <c r="P127" s="3"/>
       <c r="Q127" s="14"/>
     </row>
-    <row r="128" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="128" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B128" s="10"/>
       <c r="C128" s="11"/>
       <c r="D128" s="11"/>
@@ -4346,9 +4681,15 @@
       <c r="I128" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="J128" s="18"/>
-      <c r="K128" s="18"/>
-      <c r="L128" s="14"/>
+      <c r="J128" s="42">
+        <v>23290</v>
+      </c>
+      <c r="K128" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="L128" s="38">
+        <v>0.38</v>
+      </c>
       <c r="M128" s="3"/>
       <c r="N128" s="3"/>
       <c r="O128" s="3">
@@ -4359,7 +4700,7 @@
       </c>
       <c r="Q128" s="14"/>
     </row>
-    <row r="129" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="129" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B129" s="10"/>
       <c r="C129" s="11"/>
       <c r="D129" s="11"/>
@@ -4381,7 +4722,7 @@
       </c>
       <c r="Q129" s="12"/>
     </row>
-    <row r="130" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="130" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B130" s="10"/>
       <c r="C130" s="11"/>
       <c r="D130" s="11"/>
@@ -4403,7 +4744,7 @@
       </c>
       <c r="Q130" s="12"/>
     </row>
-    <row r="131" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="131" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B131" s="10"/>
       <c r="C131" s="11"/>
       <c r="D131" s="11"/>
@@ -4425,7 +4766,7 @@
       </c>
       <c r="Q131" s="12"/>
     </row>
-    <row r="132" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="132" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B132" s="10"/>
       <c r="C132" s="11"/>
       <c r="D132" s="11"/>
@@ -4447,7 +4788,7 @@
       </c>
       <c r="Q132" s="12"/>
     </row>
-    <row r="133" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="133" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B133" s="10"/>
       <c r="C133" s="11"/>
       <c r="D133" s="11"/>
@@ -4460,16 +4801,22 @@
       <c r="I133" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="J133" s="18"/>
-      <c r="K133" s="18"/>
-      <c r="L133" s="14"/>
+      <c r="J133" s="18">
+        <v>938</v>
+      </c>
+      <c r="K133" s="18" t="s">
+        <v>247</v>
+      </c>
+      <c r="L133" s="38">
+        <v>0.28000000000000003</v>
+      </c>
       <c r="M133" s="3"/>
       <c r="N133" s="3"/>
       <c r="O133" s="3"/>
       <c r="P133" s="3"/>
       <c r="Q133" s="14"/>
     </row>
-    <row r="134" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="134" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B134" s="10"/>
       <c r="C134" s="11"/>
       <c r="D134" s="11"/>
@@ -4482,16 +4829,22 @@
       <c r="I134" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="J134" s="18"/>
-      <c r="K134" s="18"/>
-      <c r="L134" s="14"/>
+      <c r="J134" s="18">
+        <v>409</v>
+      </c>
+      <c r="K134" s="18" t="s">
+        <v>248</v>
+      </c>
+      <c r="L134" s="38">
+        <v>0.36</v>
+      </c>
       <c r="M134" s="3"/>
       <c r="N134" s="3"/>
       <c r="O134" s="3"/>
       <c r="P134" s="3"/>
       <c r="Q134" s="14"/>
     </row>
-    <row r="135" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="135" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B135" s="13">
         <v>1</v>
       </c>
@@ -4519,7 +4872,7 @@
       <c r="P135" s="3"/>
       <c r="Q135" s="14"/>
     </row>
-    <row r="136" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="136" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B136" s="10"/>
       <c r="C136" s="11"/>
       <c r="D136" s="11"/>
@@ -4532,9 +4885,15 @@
       <c r="I136" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="J136" s="18"/>
-      <c r="K136" s="18"/>
-      <c r="L136" s="14"/>
+      <c r="J136" s="18">
+        <v>9789</v>
+      </c>
+      <c r="K136" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="L136" s="38">
+        <v>0.45</v>
+      </c>
       <c r="M136" s="3"/>
       <c r="N136" s="3"/>
       <c r="O136" s="3">
@@ -4545,7 +4904,7 @@
       </c>
       <c r="Q136" s="14"/>
     </row>
-    <row r="137" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="137" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B137" s="10"/>
       <c r="C137" s="11"/>
       <c r="D137" s="11"/>
@@ -4567,7 +4926,7 @@
       </c>
       <c r="Q137" s="12"/>
     </row>
-    <row r="138" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="138" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B138" s="10"/>
       <c r="C138" s="11"/>
       <c r="D138" s="11"/>
@@ -4589,7 +4948,7 @@
       </c>
       <c r="Q138" s="12"/>
     </row>
-    <row r="139" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="139" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B139" s="10"/>
       <c r="C139" s="11"/>
       <c r="D139" s="11"/>
@@ -4611,7 +4970,7 @@
       </c>
       <c r="Q139" s="12"/>
     </row>
-    <row r="140" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="140" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B140" s="10"/>
       <c r="C140" s="11"/>
       <c r="D140" s="11"/>
@@ -4633,7 +4992,7 @@
       </c>
       <c r="Q140" s="12"/>
     </row>
-    <row r="141" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="141" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B141" s="10"/>
       <c r="C141" s="11"/>
       <c r="D141" s="11"/>
@@ -4655,7 +5014,7 @@
       </c>
       <c r="Q141" s="12"/>
     </row>
-    <row r="142" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="142" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B142" s="10"/>
       <c r="C142" s="11"/>
       <c r="D142" s="11"/>
@@ -4677,7 +5036,7 @@
       </c>
       <c r="Q142" s="12"/>
     </row>
-    <row r="143" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="143" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B143" s="10"/>
       <c r="C143" s="11"/>
       <c r="D143" s="11"/>
@@ -4690,9 +5049,15 @@
       <c r="I143" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="J143" s="18"/>
-      <c r="K143" s="18"/>
-      <c r="L143" s="14"/>
+      <c r="J143" s="40">
+        <v>22076</v>
+      </c>
+      <c r="K143" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="L143" s="38">
+        <v>0.37</v>
+      </c>
       <c r="M143" s="3"/>
       <c r="N143" s="3"/>
       <c r="O143" s="3">
@@ -4703,7 +5068,7 @@
       </c>
       <c r="Q143" s="14"/>
     </row>
-    <row r="144" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="144" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B144" s="10"/>
       <c r="C144" s="11"/>
       <c r="D144" s="11"/>
@@ -4725,7 +5090,7 @@
       </c>
       <c r="Q144" s="12"/>
     </row>
-    <row r="145" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="145" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B145" s="10"/>
       <c r="C145" s="11"/>
       <c r="D145" s="11"/>
@@ -4747,7 +5112,7 @@
       </c>
       <c r="Q145" s="12"/>
     </row>
-    <row r="146" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="146" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B146" s="10"/>
       <c r="C146" s="11"/>
       <c r="D146" s="11"/>
@@ -4769,7 +5134,7 @@
       </c>
       <c r="Q146" s="12"/>
     </row>
-    <row r="147" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="147" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B147" s="10"/>
       <c r="C147" s="11"/>
       <c r="D147" s="11"/>
@@ -4791,7 +5156,7 @@
       </c>
       <c r="Q147" s="12"/>
     </row>
-    <row r="148" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="148" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B148" s="10"/>
       <c r="C148" s="11"/>
       <c r="D148" s="11"/>
@@ -4813,7 +5178,7 @@
       </c>
       <c r="Q148" s="12"/>
     </row>
-    <row r="149" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="149" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B149" s="10"/>
       <c r="C149" s="11"/>
       <c r="D149" s="11"/>
@@ -4826,9 +5191,15 @@
       <c r="I149" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="J149" s="18"/>
-      <c r="K149" s="18"/>
-      <c r="L149" s="14"/>
+      <c r="J149" s="40">
+        <v>4215</v>
+      </c>
+      <c r="K149" s="18" t="s">
+        <v>249</v>
+      </c>
+      <c r="L149" s="38">
+        <v>0.33</v>
+      </c>
       <c r="M149" s="3"/>
       <c r="N149" s="3"/>
       <c r="O149" s="3">
@@ -4839,7 +5210,7 @@
       </c>
       <c r="Q149" s="14"/>
     </row>
-    <row r="150" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="150" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B150" s="10"/>
       <c r="C150" s="11"/>
       <c r="D150" s="11"/>
@@ -4861,7 +5232,7 @@
       </c>
       <c r="Q150" s="12"/>
     </row>
-    <row r="151" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="151" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B151" s="10"/>
       <c r="C151" s="11"/>
       <c r="D151" s="11"/>
@@ -4883,7 +5254,7 @@
       </c>
       <c r="Q151" s="12"/>
     </row>
-    <row r="152" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="152" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B152" s="10"/>
       <c r="C152" s="11"/>
       <c r="D152" s="11"/>
@@ -4905,7 +5276,7 @@
       </c>
       <c r="Q152" s="12"/>
     </row>
-    <row r="153" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="153" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B153" s="10"/>
       <c r="C153" s="11"/>
       <c r="D153" s="11"/>
@@ -4927,7 +5298,7 @@
       </c>
       <c r="Q153" s="12"/>
     </row>
-    <row r="154" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="154" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B154" s="10"/>
       <c r="C154" s="11"/>
       <c r="D154" s="11"/>
@@ -4949,7 +5320,7 @@
       </c>
       <c r="Q154" s="12"/>
     </row>
-    <row r="155" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="155" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B155" s="10"/>
       <c r="C155" s="11"/>
       <c r="D155" s="11"/>
@@ -4971,7 +5342,7 @@
       </c>
       <c r="Q155" s="12"/>
     </row>
-    <row r="156" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="156" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B156" s="10"/>
       <c r="C156" s="11"/>
       <c r="D156" s="11"/>
@@ -4991,7 +5362,7 @@
       <c r="P156" s="11"/>
       <c r="Q156" s="12"/>
     </row>
-    <row r="157" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="157" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B157" s="10"/>
       <c r="C157" s="11"/>
       <c r="D157" s="11"/>
@@ -5004,16 +5375,22 @@
       <c r="I157" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="J157" s="18"/>
-      <c r="K157" s="18"/>
-      <c r="L157" s="14"/>
+      <c r="J157" s="40">
+        <v>1203</v>
+      </c>
+      <c r="K157" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="L157" s="38">
+        <v>0.41</v>
+      </c>
       <c r="M157" s="3"/>
       <c r="N157" s="3"/>
       <c r="O157" s="3"/>
       <c r="P157" s="3"/>
       <c r="Q157" s="14"/>
     </row>
-    <row r="158" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="158" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B158" s="10"/>
       <c r="C158" s="11"/>
       <c r="D158" s="11"/>
@@ -5026,9 +5403,15 @@
       <c r="I158" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="J158" s="18"/>
-      <c r="K158" s="18"/>
-      <c r="L158" s="14"/>
+      <c r="J158" s="40">
+        <v>12554</v>
+      </c>
+      <c r="K158" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="L158" s="38">
+        <v>0.19</v>
+      </c>
       <c r="M158" s="3"/>
       <c r="N158" s="3"/>
       <c r="O158" s="3">
@@ -5039,7 +5422,7 @@
       </c>
       <c r="Q158" s="14"/>
     </row>
-    <row r="159" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="159" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B159" s="10"/>
       <c r="C159" s="11"/>
       <c r="D159" s="11"/>
@@ -5061,7 +5444,7 @@
       </c>
       <c r="Q159" s="12"/>
     </row>
-    <row r="160" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="160" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B160" s="10"/>
       <c r="C160" s="11"/>
       <c r="D160" s="11"/>
@@ -5083,7 +5466,7 @@
       </c>
       <c r="Q160" s="12"/>
     </row>
-    <row r="161" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="161" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B161" s="10"/>
       <c r="C161" s="11"/>
       <c r="D161" s="11"/>
@@ -5105,7 +5488,7 @@
       </c>
       <c r="Q161" s="12"/>
     </row>
-    <row r="162" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="162" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B162" s="10"/>
       <c r="C162" s="11"/>
       <c r="D162" s="11"/>
@@ -5118,9 +5501,15 @@
       <c r="I162" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="J162" s="18"/>
-      <c r="K162" s="18"/>
-      <c r="L162" s="14"/>
+      <c r="J162" s="40">
+        <v>24358</v>
+      </c>
+      <c r="K162" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="L162" s="38">
+        <v>0.22</v>
+      </c>
       <c r="M162" s="3"/>
       <c r="N162" s="3"/>
       <c r="O162" s="3">
@@ -5131,7 +5520,7 @@
       </c>
       <c r="Q162" s="14"/>
     </row>
-    <row r="163" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="163" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B163" s="10"/>
       <c r="C163" s="11"/>
       <c r="D163" s="11"/>
@@ -5153,7 +5542,7 @@
       </c>
       <c r="Q163" s="12"/>
     </row>
-    <row r="164" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="164" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B164" s="10"/>
       <c r="C164" s="11"/>
       <c r="D164" s="11"/>
@@ -5175,7 +5564,7 @@
       </c>
       <c r="Q164" s="12"/>
     </row>
-    <row r="165" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="165" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B165" s="10"/>
       <c r="C165" s="11"/>
       <c r="D165" s="11"/>
@@ -5197,7 +5586,7 @@
       </c>
       <c r="Q165" s="12"/>
     </row>
-    <row r="166" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="166" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B166" s="10"/>
       <c r="C166" s="11"/>
       <c r="D166" s="11"/>
@@ -5219,7 +5608,7 @@
       </c>
       <c r="Q166" s="12"/>
     </row>
-    <row r="167" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="167" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B167" s="10"/>
       <c r="C167" s="11"/>
       <c r="D167" s="11"/>
@@ -5232,16 +5621,22 @@
       <c r="I167" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="J167" s="18"/>
-      <c r="K167" s="18"/>
-      <c r="L167" s="14"/>
+      <c r="J167" s="40">
+        <v>15758</v>
+      </c>
+      <c r="K167" s="18" t="s">
+        <v>251</v>
+      </c>
+      <c r="L167" s="38">
+        <v>0.28000000000000003</v>
+      </c>
       <c r="M167" s="3"/>
       <c r="N167" s="3"/>
       <c r="O167" s="3"/>
       <c r="P167" s="3"/>
       <c r="Q167" s="14"/>
     </row>
-    <row r="168" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="168" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B168" s="10"/>
       <c r="C168" s="11"/>
       <c r="D168" s="11"/>
@@ -5254,16 +5649,22 @@
       <c r="I168" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="J168" s="18"/>
-      <c r="K168" s="18"/>
-      <c r="L168" s="14"/>
+      <c r="J168" s="18">
+        <v>361</v>
+      </c>
+      <c r="K168" s="18" t="s">
+        <v>252</v>
+      </c>
+      <c r="L168" s="38">
+        <v>0.42</v>
+      </c>
       <c r="M168" s="3"/>
       <c r="N168" s="3"/>
       <c r="O168" s="3"/>
       <c r="P168" s="3"/>
       <c r="Q168" s="14"/>
     </row>
-    <row r="169" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="169" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B169" s="10"/>
       <c r="C169" s="11"/>
       <c r="D169" s="11"/>
@@ -5276,16 +5677,22 @@
       <c r="I169" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="J169" s="18"/>
-      <c r="K169" s="18"/>
-      <c r="L169" s="14"/>
+      <c r="J169" s="18">
+        <v>875</v>
+      </c>
+      <c r="K169" s="18" t="s">
+        <v>253</v>
+      </c>
+      <c r="L169" s="38">
+        <v>0.59</v>
+      </c>
       <c r="M169" s="3"/>
       <c r="N169" s="3"/>
       <c r="O169" s="3"/>
       <c r="P169" s="3"/>
       <c r="Q169" s="14"/>
     </row>
-    <row r="170" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="170" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B170" s="10"/>
       <c r="C170" s="11"/>
       <c r="D170" s="11"/>
@@ -5298,16 +5705,22 @@
       <c r="I170" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="J170" s="18"/>
-      <c r="K170" s="18"/>
-      <c r="L170" s="14"/>
+      <c r="J170" s="18">
+        <v>512</v>
+      </c>
+      <c r="K170" s="18" t="s">
+        <v>251</v>
+      </c>
+      <c r="L170" s="38">
+        <v>0.24</v>
+      </c>
       <c r="M170" s="3"/>
       <c r="N170" s="3"/>
       <c r="O170" s="3"/>
       <c r="P170" s="3"/>
       <c r="Q170" s="14"/>
     </row>
-    <row r="171" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="171" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B171" s="10"/>
       <c r="C171" s="11"/>
       <c r="D171" s="11"/>
@@ -5320,16 +5733,22 @@
       <c r="I171" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="J171" s="18"/>
-      <c r="K171" s="18"/>
-      <c r="L171" s="14"/>
+      <c r="J171" s="40">
+        <v>21202</v>
+      </c>
+      <c r="K171" s="18" t="s">
+        <v>254</v>
+      </c>
+      <c r="L171" s="38">
+        <v>0.91</v>
+      </c>
       <c r="M171" s="3"/>
       <c r="N171" s="3"/>
       <c r="O171" s="3"/>
       <c r="P171" s="3"/>
       <c r="Q171" s="14"/>
     </row>
-    <row r="172" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="172" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B172" s="10"/>
       <c r="C172" s="11"/>
       <c r="D172" s="11"/>
@@ -5342,16 +5761,22 @@
       <c r="I172" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="J172" s="18"/>
-      <c r="K172" s="18"/>
-      <c r="L172" s="14"/>
+      <c r="J172" s="18">
+        <v>618</v>
+      </c>
+      <c r="K172" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="L172" s="38">
+        <v>0.28999999999999998</v>
+      </c>
       <c r="M172" s="3"/>
       <c r="N172" s="3"/>
       <c r="O172" s="3"/>
       <c r="P172" s="3"/>
       <c r="Q172" s="14"/>
     </row>
-    <row r="173" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="173" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B173" s="10"/>
       <c r="C173" s="11"/>
       <c r="D173" s="11"/>
@@ -5364,9 +5789,15 @@
       <c r="I173" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="J173" s="18"/>
-      <c r="K173" s="18"/>
-      <c r="L173" s="14"/>
+      <c r="J173" s="18">
+        <v>449</v>
+      </c>
+      <c r="K173" s="18" t="s">
+        <v>256</v>
+      </c>
+      <c r="L173" s="38">
+        <v>0.59</v>
+      </c>
       <c r="M173" s="3"/>
       <c r="N173" s="3"/>
       <c r="O173" s="3">
@@ -5377,7 +5808,7 @@
       </c>
       <c r="Q173" s="14"/>
     </row>
-    <row r="174" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="174" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B174" s="10"/>
       <c r="C174" s="11"/>
       <c r="D174" s="11"/>
@@ -5399,7 +5830,7 @@
       </c>
       <c r="Q174" s="12"/>
     </row>
-    <row r="175" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="175" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B175" s="10"/>
       <c r="C175" s="11"/>
       <c r="D175" s="11"/>
@@ -5412,16 +5843,22 @@
       <c r="I175" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="J175" s="18"/>
-      <c r="K175" s="18"/>
-      <c r="L175" s="14"/>
+      <c r="J175" s="18">
+        <v>2011</v>
+      </c>
+      <c r="K175" s="18" t="s">
+        <v>257</v>
+      </c>
+      <c r="L175" s="38">
+        <v>0.54</v>
+      </c>
       <c r="M175" s="3"/>
       <c r="N175" s="3"/>
       <c r="O175" s="3"/>
       <c r="P175" s="3"/>
       <c r="Q175" s="14"/>
     </row>
-    <row r="176" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="176" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B176" s="10"/>
       <c r="C176" s="11"/>
       <c r="D176" s="11"/>
@@ -5434,16 +5871,22 @@
       <c r="I176" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="J176" s="18"/>
-      <c r="K176" s="18"/>
-      <c r="L176" s="14"/>
+      <c r="J176" s="18">
+        <v>550</v>
+      </c>
+      <c r="K176" s="18" t="s">
+        <v>258</v>
+      </c>
+      <c r="L176" s="38">
+        <v>0.52</v>
+      </c>
       <c r="M176" s="3"/>
       <c r="N176" s="3"/>
       <c r="O176" s="3"/>
       <c r="P176" s="3"/>
       <c r="Q176" s="14"/>
     </row>
-    <row r="177" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="177" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B177" s="10"/>
       <c r="C177" s="11"/>
       <c r="D177" s="11"/>
@@ -5456,9 +5899,15 @@
       <c r="I177" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="J177" s="18"/>
-      <c r="K177" s="18"/>
-      <c r="L177" s="14"/>
+      <c r="J177" s="18">
+        <v>6250</v>
+      </c>
+      <c r="K177" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="L177" s="38">
+        <v>0.27</v>
+      </c>
       <c r="M177" s="3"/>
       <c r="N177" s="3"/>
       <c r="O177" s="3">
@@ -5469,7 +5918,7 @@
       </c>
       <c r="Q177" s="14"/>
     </row>
-    <row r="178" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="178" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B178" s="10"/>
       <c r="C178" s="11"/>
       <c r="D178" s="11"/>
@@ -5491,7 +5940,7 @@
       </c>
       <c r="Q178" s="12"/>
     </row>
-    <row r="179" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="179" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B179" s="10"/>
       <c r="C179" s="11"/>
       <c r="D179" s="11"/>
@@ -5513,7 +5962,7 @@
       </c>
       <c r="Q179" s="12"/>
     </row>
-    <row r="180" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="180" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B180" s="10"/>
       <c r="C180" s="11"/>
       <c r="D180" s="11"/>
@@ -5535,7 +5984,7 @@
       </c>
       <c r="Q180" s="12"/>
     </row>
-    <row r="181" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="181" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B181" s="10"/>
       <c r="C181" s="11"/>
       <c r="D181" s="11"/>
@@ -5557,7 +6006,7 @@
       </c>
       <c r="Q181" s="12"/>
     </row>
-    <row r="182" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="182" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B182" s="10"/>
       <c r="C182" s="11"/>
       <c r="D182" s="11"/>
@@ -5579,7 +6028,7 @@
       </c>
       <c r="Q182" s="12"/>
     </row>
-    <row r="183" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="183" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B183" s="10"/>
       <c r="C183" s="11"/>
       <c r="D183" s="11"/>
@@ -5601,7 +6050,7 @@
       </c>
       <c r="Q183" s="12"/>
     </row>
-    <row r="184" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="184" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B184" s="10"/>
       <c r="C184" s="11"/>
       <c r="D184" s="11"/>
@@ -5623,7 +6072,7 @@
       </c>
       <c r="Q184" s="12"/>
     </row>
-    <row r="185" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="185" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B185" s="10"/>
       <c r="C185" s="11"/>
       <c r="D185" s="11"/>
@@ -5636,16 +6085,22 @@
       <c r="I185" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="J185" s="18"/>
-      <c r="K185" s="18"/>
-      <c r="L185" s="14"/>
+      <c r="J185" s="18">
+        <v>501</v>
+      </c>
+      <c r="K185" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="L185" s="38">
+        <v>0.41</v>
+      </c>
       <c r="M185" s="3"/>
       <c r="N185" s="3"/>
       <c r="O185" s="3"/>
       <c r="P185" s="3"/>
       <c r="Q185" s="14"/>
     </row>
-    <row r="186" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="186" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B186" s="10"/>
       <c r="C186" s="11"/>
       <c r="D186" s="11"/>
@@ -5658,16 +6113,22 @@
       <c r="I186" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="J186" s="18"/>
-      <c r="K186" s="18"/>
-      <c r="L186" s="14"/>
+      <c r="J186" s="18" t="s">
+        <v>260</v>
+      </c>
+      <c r="K186" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="L186" s="14" t="s">
+        <v>214</v>
+      </c>
       <c r="M186" s="3"/>
       <c r="N186" s="3"/>
       <c r="O186" s="3"/>
       <c r="P186" s="3"/>
       <c r="Q186" s="14"/>
     </row>
-    <row r="187" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="187" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B187" s="10"/>
       <c r="C187" s="11"/>
       <c r="D187" s="11"/>
@@ -5680,9 +6141,15 @@
       <c r="I187" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="J187" s="18"/>
-      <c r="K187" s="18"/>
-      <c r="L187" s="14"/>
+      <c r="J187" s="18">
+        <v>664</v>
+      </c>
+      <c r="K187" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="L187" s="38">
+        <v>0.26</v>
+      </c>
       <c r="M187" s="3"/>
       <c r="N187" s="3"/>
       <c r="O187" s="3">
@@ -5693,7 +6160,7 @@
       </c>
       <c r="Q187" s="14"/>
     </row>
-    <row r="188" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="188" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B188" s="10"/>
       <c r="C188" s="11"/>
       <c r="D188" s="11"/>
@@ -5715,7 +6182,7 @@
       </c>
       <c r="Q188" s="12"/>
     </row>
-    <row r="189" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="189" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B189" s="10"/>
       <c r="C189" s="11"/>
       <c r="D189" s="11"/>
@@ -5737,7 +6204,7 @@
       </c>
       <c r="Q189" s="12"/>
     </row>
-    <row r="190" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="190" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B190" s="10"/>
       <c r="C190" s="11"/>
       <c r="D190" s="11"/>
@@ -5750,9 +6217,15 @@
       <c r="I190" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="J190" s="18"/>
-      <c r="K190" s="18"/>
-      <c r="L190" s="14"/>
+      <c r="J190" s="18">
+        <v>37</v>
+      </c>
+      <c r="K190" s="18" t="s">
+        <v>262</v>
+      </c>
+      <c r="L190" s="38">
+        <v>0.11</v>
+      </c>
       <c r="M190" s="3"/>
       <c r="N190" s="3"/>
       <c r="O190" s="18">
@@ -5763,7 +6236,7 @@
       </c>
       <c r="Q190" s="14"/>
     </row>
-    <row r="191" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="191" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B191" s="10"/>
       <c r="C191" s="11"/>
       <c r="D191" s="11"/>
@@ -5785,7 +6258,7 @@
       </c>
       <c r="Q191" s="12"/>
     </row>
-    <row r="192" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="192" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B192" s="13">
         <v>1</v>
       </c>
@@ -5813,7 +6286,7 @@
       <c r="P192" s="3"/>
       <c r="Q192" s="14"/>
     </row>
-    <row r="193" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="193" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B193" s="10"/>
       <c r="C193" s="11"/>
       <c r="D193" s="11"/>
@@ -5826,16 +6299,22 @@
       <c r="I193" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="J193" s="18"/>
-      <c r="K193" s="18"/>
-      <c r="L193" s="14"/>
+      <c r="J193" s="40">
+        <v>9948</v>
+      </c>
+      <c r="K193" s="18" t="s">
+        <v>263</v>
+      </c>
+      <c r="L193" s="38">
+        <v>0.43</v>
+      </c>
       <c r="M193" s="3"/>
       <c r="N193" s="3"/>
       <c r="O193" s="3"/>
       <c r="P193" s="3"/>
       <c r="Q193" s="14"/>
     </row>
-    <row r="194" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="194" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B194" s="10"/>
       <c r="C194" s="11"/>
       <c r="D194" s="11"/>
@@ -5848,9 +6327,15 @@
       <c r="I194" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="J194" s="18"/>
-      <c r="K194" s="18"/>
-      <c r="L194" s="14"/>
+      <c r="J194" s="18">
+        <v>731</v>
+      </c>
+      <c r="K194" s="18" t="s">
+        <v>264</v>
+      </c>
+      <c r="L194" s="38">
+        <v>0.25</v>
+      </c>
       <c r="M194" s="3"/>
       <c r="N194" s="3"/>
       <c r="O194" s="3">
@@ -5861,7 +6346,7 @@
       </c>
       <c r="Q194" s="14"/>
     </row>
-    <row r="195" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="195" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B195" s="10"/>
       <c r="C195" s="11"/>
       <c r="D195" s="11"/>
@@ -5883,7 +6368,7 @@
       </c>
       <c r="Q195" s="12"/>
     </row>
-    <row r="196" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="196" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B196" s="10"/>
       <c r="C196" s="11"/>
       <c r="D196" s="11"/>
@@ -5905,7 +6390,7 @@
       </c>
       <c r="Q196" s="12"/>
     </row>
-    <row r="197" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="197" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B197" s="10"/>
       <c r="C197" s="11"/>
       <c r="D197" s="11"/>
@@ -5918,16 +6403,22 @@
       <c r="I197" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="J197" s="22"/>
-      <c r="K197" s="22"/>
-      <c r="L197" s="23"/>
+      <c r="J197" s="43">
+        <v>12108</v>
+      </c>
+      <c r="K197" s="22" t="s">
+        <v>265</v>
+      </c>
+      <c r="L197" s="44">
+        <v>0.55000000000000004</v>
+      </c>
       <c r="M197" s="24"/>
       <c r="N197" s="24"/>
       <c r="O197" s="24"/>
       <c r="P197" s="24"/>
       <c r="Q197" s="23"/>
     </row>
-    <row r="198" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="198" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B198" s="10"/>
       <c r="C198" s="11"/>
       <c r="D198" s="11"/>
@@ -5940,16 +6431,22 @@
       <c r="I198" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="J198" s="22"/>
-      <c r="K198" s="22"/>
-      <c r="L198" s="23"/>
+      <c r="J198" s="43">
+        <v>2220</v>
+      </c>
+      <c r="K198" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="L198" s="44">
+        <v>0.46</v>
+      </c>
       <c r="M198" s="24"/>
       <c r="N198" s="24"/>
       <c r="O198" s="24"/>
       <c r="P198" s="24"/>
       <c r="Q198" s="23"/>
     </row>
-    <row r="199" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="199" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B199" s="10"/>
       <c r="C199" s="11"/>
       <c r="D199" s="11"/>
@@ -5962,16 +6459,22 @@
       <c r="I199" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="J199" s="22"/>
-      <c r="K199" s="22"/>
-      <c r="L199" s="23"/>
+      <c r="J199" s="43">
+        <v>17696</v>
+      </c>
+      <c r="K199" s="22" t="s">
+        <v>266</v>
+      </c>
+      <c r="L199" s="44">
+        <v>0.6</v>
+      </c>
       <c r="M199" s="24"/>
       <c r="N199" s="24"/>
       <c r="O199" s="24"/>
       <c r="P199" s="24"/>
       <c r="Q199" s="23"/>
     </row>
-    <row r="200" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="200" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B200" s="10"/>
       <c r="C200" s="11"/>
       <c r="D200" s="11"/>
@@ -5984,16 +6487,22 @@
       <c r="I200" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="J200" s="22"/>
-      <c r="K200" s="22"/>
-      <c r="L200" s="23"/>
+      <c r="J200" s="22">
+        <v>287</v>
+      </c>
+      <c r="K200" s="22" t="s">
+        <v>267</v>
+      </c>
+      <c r="L200" s="44">
+        <v>0.24</v>
+      </c>
       <c r="M200" s="24"/>
       <c r="N200" s="24"/>
       <c r="O200" s="24"/>
       <c r="P200" s="24"/>
       <c r="Q200" s="23"/>
     </row>
-    <row r="201" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="201" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B201" s="10"/>
       <c r="C201" s="11"/>
       <c r="D201" s="11"/>
@@ -6006,16 +6515,22 @@
       <c r="I201" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="J201" s="22"/>
-      <c r="K201" s="22"/>
-      <c r="L201" s="23"/>
+      <c r="J201" s="43">
+        <v>2017</v>
+      </c>
+      <c r="K201" s="22" t="s">
+        <v>268</v>
+      </c>
+      <c r="L201" s="44">
+        <v>0.56000000000000005</v>
+      </c>
       <c r="M201" s="24"/>
       <c r="N201" s="24"/>
       <c r="O201" s="24"/>
       <c r="P201" s="24"/>
       <c r="Q201" s="23"/>
     </row>
-    <row r="202" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="202" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B202" s="10"/>
       <c r="C202" s="11"/>
       <c r="D202" s="11"/>
@@ -6028,16 +6543,22 @@
       <c r="I202" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="J202" s="22"/>
-      <c r="K202" s="22"/>
-      <c r="L202" s="23"/>
+      <c r="J202" s="22">
+        <v>139</v>
+      </c>
+      <c r="K202" s="22" t="s">
+        <v>250</v>
+      </c>
+      <c r="L202" s="44">
+        <v>0.11</v>
+      </c>
       <c r="M202" s="24"/>
       <c r="N202" s="24"/>
       <c r="O202" s="24"/>
       <c r="P202" s="24"/>
       <c r="Q202" s="23"/>
     </row>
-    <row r="203" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="203" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B203" s="10"/>
       <c r="C203" s="11"/>
       <c r="D203" s="11"/>
@@ -6050,16 +6571,22 @@
       <c r="I203" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="J203" s="22"/>
-      <c r="K203" s="22"/>
-      <c r="L203" s="23"/>
+      <c r="J203" s="22">
+        <v>134</v>
+      </c>
+      <c r="K203" s="22" t="s">
+        <v>269</v>
+      </c>
+      <c r="L203" s="44">
+        <v>0.28000000000000003</v>
+      </c>
       <c r="M203" s="24"/>
       <c r="N203" s="24"/>
       <c r="O203" s="24"/>
       <c r="P203" s="24"/>
       <c r="Q203" s="23"/>
     </row>
-    <row r="204" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="204" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B204" s="10"/>
       <c r="C204" s="11"/>
       <c r="D204" s="11"/>
@@ -6072,16 +6599,22 @@
       <c r="I204" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="J204" s="22"/>
-      <c r="K204" s="22"/>
-      <c r="L204" s="23"/>
+      <c r="J204" s="22">
+        <v>177</v>
+      </c>
+      <c r="K204" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="L204" s="44">
+        <v>0.2</v>
+      </c>
       <c r="M204" s="24"/>
       <c r="N204" s="24"/>
       <c r="O204" s="24"/>
       <c r="P204" s="24"/>
       <c r="Q204" s="23"/>
     </row>
-    <row r="205" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="205" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B205" s="13">
         <v>1</v>
       </c>
@@ -6109,7 +6642,7 @@
       <c r="P205" s="11"/>
       <c r="Q205" s="12"/>
     </row>
-    <row r="206" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="206" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B206" s="10"/>
       <c r="C206" s="11"/>
       <c r="D206" s="11"/>
@@ -6135,7 +6668,7 @@
       </c>
       <c r="Q206" s="14"/>
     </row>
-    <row r="207" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="207" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B207" s="10"/>
       <c r="C207" s="11"/>
       <c r="D207" s="11"/>
@@ -6157,7 +6690,7 @@
       </c>
       <c r="Q207" s="12"/>
     </row>
-    <row r="208" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="208" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B208" s="10"/>
       <c r="C208" s="11"/>
       <c r="D208" s="11"/>
@@ -6179,7 +6712,7 @@
       </c>
       <c r="Q208" s="12"/>
     </row>
-    <row r="209" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="209" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B209" s="10"/>
       <c r="C209" s="11"/>
       <c r="D209" s="11"/>
@@ -6201,7 +6734,7 @@
       </c>
       <c r="Q209" s="12"/>
     </row>
-    <row r="210" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="210" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B210" s="10"/>
       <c r="C210" s="11"/>
       <c r="D210" s="11"/>
@@ -6223,7 +6756,7 @@
       </c>
       <c r="Q210" s="12"/>
     </row>
-    <row r="211" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="211" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B211" s="10"/>
       <c r="C211" s="11"/>
       <c r="D211" s="11"/>
@@ -6245,7 +6778,7 @@
       </c>
       <c r="Q211" s="12"/>
     </row>
-    <row r="212" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="212" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B212" s="10"/>
       <c r="C212" s="11"/>
       <c r="D212" s="11"/>
@@ -6267,7 +6800,7 @@
       </c>
       <c r="Q212" s="12"/>
     </row>
-    <row r="213" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="213" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B213" s="10"/>
       <c r="C213" s="11"/>
       <c r="D213" s="11"/>
@@ -6289,7 +6822,7 @@
       </c>
       <c r="Q213" s="12"/>
     </row>
-    <row r="214" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="214" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B214" s="10"/>
       <c r="C214" s="11"/>
       <c r="D214" s="11"/>
@@ -6311,7 +6844,7 @@
       </c>
       <c r="Q214" s="12"/>
     </row>
-    <row r="215" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="215" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B215" s="10"/>
       <c r="C215" s="11"/>
       <c r="D215" s="11"/>
@@ -6333,7 +6866,7 @@
       </c>
       <c r="Q215" s="12"/>
     </row>
-    <row r="216" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="216" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B216" s="10"/>
       <c r="C216" s="11"/>
       <c r="D216" s="11"/>
@@ -6355,7 +6888,7 @@
       </c>
       <c r="Q216" s="12"/>
     </row>
-    <row r="217" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="217" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B217" s="10"/>
       <c r="C217" s="11"/>
       <c r="D217" s="11"/>
@@ -6377,7 +6910,7 @@
       </c>
       <c r="Q217" s="12"/>
     </row>
-    <row r="218" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="218" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B218" s="10"/>
       <c r="C218" s="11"/>
       <c r="D218" s="11"/>
@@ -6399,7 +6932,7 @@
       </c>
       <c r="Q218" s="12"/>
     </row>
-    <row r="219" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="219" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B219" s="10"/>
       <c r="C219" s="11"/>
       <c r="D219" s="11"/>
@@ -6421,7 +6954,7 @@
       </c>
       <c r="Q219" s="12"/>
     </row>
-    <row r="220" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="220" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B220" s="10"/>
       <c r="C220" s="11"/>
       <c r="D220" s="11"/>
@@ -6443,7 +6976,7 @@
       </c>
       <c r="Q220" s="12"/>
     </row>
-    <row r="221" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="221" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B221" s="10"/>
       <c r="C221" s="11"/>
       <c r="D221" s="11"/>
@@ -6465,7 +6998,7 @@
       </c>
       <c r="Q221" s="12"/>
     </row>
-    <row r="222" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="222" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B222" s="10"/>
       <c r="C222" s="11"/>
       <c r="D222" s="11"/>
@@ -6487,7 +7020,7 @@
       </c>
       <c r="Q222" s="12"/>
     </row>
-    <row r="223" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="223" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B223" s="10"/>
       <c r="C223" s="11"/>
       <c r="D223" s="11"/>
@@ -6509,7 +7042,7 @@
       </c>
       <c r="Q223" s="12"/>
     </row>
-    <row r="224" spans="2:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="224" spans="2:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B224" s="25"/>
       <c r="C224" s="26"/>
       <c r="D224" s="26"/>

--- a/Piwik-Analyse/Seitenaufrufe.xlsx
+++ b/Piwik-Analyse/Seitenaufrufe.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="13800" yWindow="560" windowWidth="24600" windowHeight="21140"/>
+    <workbookView xWindow="14660" yWindow="460" windowWidth="23740" windowHeight="21140"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="271">
   <si>
     <t xml:space="preserve">Ebene </t>
   </si>
@@ -1539,8 +1539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:Q224"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F171" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="J206" sqref="J206"/>
+    <sheetView tabSelected="1" topLeftCell="AT1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="L218" sqref="L218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6655,9 +6655,15 @@
       <c r="I206" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="J206" s="3"/>
-      <c r="K206" s="3"/>
-      <c r="L206" s="14"/>
+      <c r="J206" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="K206" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="L206" s="14" t="s">
+        <v>214</v>
+      </c>
       <c r="M206" s="3"/>
       <c r="N206" s="3"/>
       <c r="O206" s="3">

--- a/Piwik-Analyse/Seitenaufrufe.xlsx
+++ b/Piwik-Analyse/Seitenaufrufe.xlsx
@@ -1,33 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26101"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikbauer/Documents/redesign-ur-rz/Piwik-Analyse/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dominik\Documents\redesign-ur-rz\Piwik-Analyse\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="14660" yWindow="460" windowWidth="23740" windowHeight="21140"/>
+    <workbookView xWindow="14664" yWindow="456" windowWidth="23736" windowHeight="21144"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="317">
   <si>
     <t xml:space="preserve">Ebene </t>
   </si>
@@ -35,9 +35,6 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Content</t>
-  </si>
-  <si>
     <t>Startseite</t>
   </si>
   <si>
@@ -635,33 +632,15 @@
     <t>Aussiegsrate</t>
   </si>
   <si>
-    <t xml:space="preserve">1 Minute 28s </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 Minute 59s </t>
-  </si>
-  <si>
-    <t>1 Minute 19s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 Minute 19s </t>
-  </si>
-  <si>
     <t>2 Minuten 3s</t>
   </si>
   <si>
-    <t>1 Minute 30s</t>
-  </si>
-  <si>
     <t>59s</t>
   </si>
   <si>
     <t xml:space="preserve">2 Minuten 43s </t>
   </si>
   <si>
-    <t>1 Minute 1s</t>
-  </si>
-  <si>
     <t>Durchschnittzeit pro Seite</t>
   </si>
   <si>
@@ -704,9 +683,6 @@
     <t>44s</t>
   </si>
   <si>
-    <t>1 Minute 7s</t>
-  </si>
-  <si>
     <t>1 Minuten 30s</t>
   </si>
   <si>
@@ -840,6 +816,168 @@
   </si>
   <si>
     <t>1 Minuten 13s</t>
+  </si>
+  <si>
+    <t>Seitenansichten</t>
+  </si>
+  <si>
+    <t>5 Minuten 5s</t>
+  </si>
+  <si>
+    <t>1 Minuten 5s</t>
+  </si>
+  <si>
+    <t>1 Minuten 52s</t>
+  </si>
+  <si>
+    <t>53s</t>
+  </si>
+  <si>
+    <t>2 Minuten 4s</t>
+  </si>
+  <si>
+    <t>1 Minuten 46s</t>
+  </si>
+  <si>
+    <t>1 Minuten 59s</t>
+  </si>
+  <si>
+    <t>37s</t>
+  </si>
+  <si>
+    <t>55s</t>
+  </si>
+  <si>
+    <t>1 Minuten 38</t>
+  </si>
+  <si>
+    <t>1 Minuten 17s</t>
+  </si>
+  <si>
+    <t>2 Minuten 6s</t>
+  </si>
+  <si>
+    <t>33s</t>
+  </si>
+  <si>
+    <t>1 Minuten 25s</t>
+  </si>
+  <si>
+    <t>1 Minuten 42s</t>
+  </si>
+  <si>
+    <t>1 Minuten 49s</t>
+  </si>
+  <si>
+    <t>1 Minuten 35s</t>
+  </si>
+  <si>
+    <t>3 Minuten 17s</t>
+  </si>
+  <si>
+    <t>2 Minuten 42s</t>
+  </si>
+  <si>
+    <t>2 Minuten 5s</t>
+  </si>
+  <si>
+    <t>3 Minuten 25s</t>
+  </si>
+  <si>
+    <t>1 Minuten 34s</t>
+  </si>
+  <si>
+    <t>1 Minuten 24s</t>
+  </si>
+  <si>
+    <t>3 Minuten 4s</t>
+  </si>
+  <si>
+    <t>2 Minuten 28s</t>
+  </si>
+  <si>
+    <t>50s</t>
+  </si>
+  <si>
+    <t>35s</t>
+  </si>
+  <si>
+    <t>2 Minuten 9s</t>
+  </si>
+  <si>
+    <t>28s</t>
+  </si>
+  <si>
+    <t>2 Minuten 52s</t>
+  </si>
+  <si>
+    <t>3 Minuten 30s</t>
+  </si>
+  <si>
+    <t>3 Minuten 0s</t>
+  </si>
+  <si>
+    <t>3 Minuten 48s</t>
+  </si>
+  <si>
+    <t>1 Minuten 54s</t>
+  </si>
+  <si>
+    <t>2 Minuten 47s</t>
+  </si>
+  <si>
+    <t>1 Minuten 14s</t>
+  </si>
+  <si>
+    <t>1 Minuten 55s</t>
+  </si>
+  <si>
+    <t>1 Minuten 51s</t>
+  </si>
+  <si>
+    <t>3 Minuten 2s</t>
+  </si>
+  <si>
+    <t>Zeitraum: 01.07.14 - 01.07.15</t>
+  </si>
+  <si>
+    <t>2 Minuten 29s</t>
+  </si>
+  <si>
+    <t>1 Minuten 31s</t>
+  </si>
+  <si>
+    <t>3 Minuten 22s</t>
+  </si>
+  <si>
+    <t>47s</t>
+  </si>
+  <si>
+    <t>58s</t>
+  </si>
+  <si>
+    <t>2 Minuten 27s</t>
+  </si>
+  <si>
+    <t>2 Minuten 33s</t>
+  </si>
+  <si>
+    <t>1 Minuten 56s</t>
+  </si>
+  <si>
+    <t>2 Minuten 12s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 Minuten 28s </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 Minuten 59s </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 Minuten 19s </t>
+  </si>
+  <si>
+    <t>1 Minuten 1s</t>
   </si>
 </sst>
 </file>
@@ -1109,7 +1247,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -1239,27 +1377,45 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="19">
-    <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Stand." xfId="0" builtinId="0"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1537,32 +1693,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:Q224"/>
+  <dimension ref="B2:BC224"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AT1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="L218" sqref="L218"/>
+    <sheetView tabSelected="1" topLeftCell="J202" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="J44" sqref="J44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17.83203125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="17.77734375" style="5" customWidth="1"/>
     <col min="3" max="3" width="22.6640625" style="5" customWidth="1"/>
     <col min="4" max="6" width="46.6640625" style="5" customWidth="1"/>
-    <col min="7" max="8" width="10.83203125" style="5"/>
-    <col min="9" max="11" width="35.83203125" style="5" customWidth="1"/>
+    <col min="7" max="8" width="10.77734375" style="5"/>
+    <col min="9" max="11" width="35.77734375" style="5" customWidth="1"/>
     <col min="12" max="12" width="25.33203125" style="5" customWidth="1"/>
-    <col min="13" max="15" width="10.83203125" style="5"/>
-    <col min="16" max="16" width="38.1640625" style="5" customWidth="1"/>
-    <col min="17" max="17" width="37.33203125" style="5" customWidth="1"/>
+    <col min="13" max="15" width="10.77734375" style="5"/>
+    <col min="16" max="18" width="38.109375" style="5" customWidth="1"/>
+    <col min="19" max="19" width="37.33203125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:19" x14ac:dyDescent="0.3">
       <c r="C2" s="6" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="4" spans="2:17" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="2:17" s="4" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="4" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="2:19" s="4" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="7" t="s">
         <v>0</v>
       </c>
@@ -1570,13 +1729,13 @@
         <v>1</v>
       </c>
       <c r="D5" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="E5" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="F5" s="8" t="s">
         <v>200</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>201</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="8" t="s">
@@ -1586,13 +1745,13 @@
         <v>1</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="M5" s="8"/>
       <c r="N5" s="8"/>
@@ -1602,22 +1761,28 @@
       <c r="P5" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="Q5" s="9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q5" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="R5" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="S5" s="9" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B6" s="10">
         <v>1</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" s="30">
         <v>1542108</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>202</v>
+        <v>313</v>
       </c>
       <c r="F6" s="31">
         <v>0.34</v>
@@ -1632,20 +1797,22 @@
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
       <c r="P6" s="11"/>
-      <c r="Q6" s="12"/>
-    </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="12"/>
+    </row>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B7" s="13">
         <v>1</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" s="32">
         <v>432201</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>203</v>
+        <v>314</v>
       </c>
       <c r="F7" s="33">
         <v>0.49</v>
@@ -1660,9 +1827,11 @@
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
-      <c r="Q7" s="14"/>
-    </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="14"/>
+    </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B8" s="10"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
@@ -1673,16 +1842,16 @@
         <v>2</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="L8" s="14" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
@@ -1690,11 +1859,13 @@
         <v>3</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q8" s="14"/>
-    </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="14"/>
+    </row>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B9" s="10"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
@@ -1712,11 +1883,19 @@
         <v>3</v>
       </c>
       <c r="P9" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q9" s="12"/>
-    </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+      <c r="Q9" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="R9" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="S9" s="12" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -1734,11 +1913,19 @@
         <v>3</v>
       </c>
       <c r="P10" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q10" s="12"/>
-    </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+      <c r="Q10" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="R10" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="S10" s="12" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B11" s="10"/>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
@@ -1749,24 +1936,26 @@
         <v>2</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="K11" s="11" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="L11" s="12" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="M11" s="11"/>
       <c r="N11" s="11"/>
       <c r="O11" s="11"/>
       <c r="P11" s="11"/>
-      <c r="Q11" s="12"/>
-    </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="12"/>
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B12" s="10"/>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
@@ -1777,13 +1966,13 @@
         <v>2</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J12" s="30">
         <v>24448</v>
       </c>
       <c r="K12" s="11" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="L12" s="39">
         <v>0.3</v>
@@ -1792,9 +1981,11 @@
       <c r="N12" s="11"/>
       <c r="O12" s="11"/>
       <c r="P12" s="11"/>
-      <c r="Q12" s="12"/>
-    </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="12"/>
+    </row>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B13" s="10"/>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
@@ -1805,13 +1996,13 @@
         <v>2</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J13" s="30">
         <v>5565</v>
       </c>
       <c r="K13" s="11" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="L13" s="39">
         <v>0.2</v>
@@ -1820,9 +2011,11 @@
       <c r="N13" s="11"/>
       <c r="O13" s="11"/>
       <c r="P13" s="11"/>
-      <c r="Q13" s="12"/>
-    </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="12"/>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B14" s="10"/>
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
@@ -1833,13 +2026,13 @@
         <v>2</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J14" s="30">
         <v>13653</v>
       </c>
       <c r="K14" s="11" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="L14" s="39">
         <v>0.18</v>
@@ -1848,9 +2041,11 @@
       <c r="N14" s="11"/>
       <c r="O14" s="11"/>
       <c r="P14" s="11"/>
-      <c r="Q14" s="12"/>
-    </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="12"/>
+    </row>
+    <row r="15" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B15" s="10"/>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
@@ -1861,13 +2056,13 @@
         <v>2</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J15" s="30">
         <v>116378</v>
       </c>
       <c r="K15" s="11" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="L15" s="39">
         <v>0.43</v>
@@ -1876,9 +2071,11 @@
       <c r="N15" s="11"/>
       <c r="O15" s="11"/>
       <c r="P15" s="11"/>
-      <c r="Q15" s="12"/>
-    </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="12"/>
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B16" s="10"/>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
@@ -1889,24 +2086,26 @@
         <v>2</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="K16" s="11" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="L16" s="12" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="M16" s="11"/>
       <c r="N16" s="11"/>
       <c r="O16" s="11"/>
       <c r="P16" s="11"/>
-      <c r="Q16" s="12"/>
-    </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="12"/>
+    </row>
+    <row r="17" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B17" s="10"/>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
@@ -1917,35 +2116,37 @@
         <v>2</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J17" s="30">
         <v>4796</v>
       </c>
       <c r="K17" s="11" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="L17" s="39">
         <v>0.24</v>
       </c>
-      <c r="M17" s="11"/>
-      <c r="N17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="16"/>
       <c r="O17" s="16"/>
       <c r="P17" s="16"/>
-      <c r="Q17" s="17"/>
-    </row>
-    <row r="18" spans="2:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q17" s="16"/>
+      <c r="R17" s="16"/>
+      <c r="S17" s="17"/>
+    </row>
+    <row r="18" spans="2:19" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="13">
         <v>1</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18" s="34">
         <v>337714</v>
       </c>
       <c r="E18" s="34" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="F18" s="37">
         <v>0.33</v>
@@ -1960,9 +2161,11 @@
       <c r="N18" s="11"/>
       <c r="O18" s="11"/>
       <c r="P18" s="11"/>
-      <c r="Q18" s="12"/>
-    </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="12"/>
+    </row>
+    <row r="19" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B19" s="10"/>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
@@ -1973,13 +2176,13 @@
         <v>2</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J19" s="32">
         <v>23785</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="L19" s="38">
         <v>0.45</v>
@@ -1990,11 +2193,13 @@
         <v>3</v>
       </c>
       <c r="P19" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q19" s="14"/>
-    </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="14"/>
+    </row>
+    <row r="20" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B20" s="10"/>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
@@ -2012,11 +2217,19 @@
         <v>3</v>
       </c>
       <c r="P20" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q20" s="12"/>
-    </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+      <c r="Q20" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="R20" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="S20" s="12" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="21" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B21" s="10"/>
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
@@ -2034,11 +2247,19 @@
         <v>3</v>
       </c>
       <c r="P21" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q21" s="17"/>
-    </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+      <c r="Q21" s="45">
+        <v>16210</v>
+      </c>
+      <c r="R21" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="S21" s="46">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="22" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B22" s="10"/>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
@@ -2049,13 +2270,13 @@
         <v>2</v>
       </c>
       <c r="I22" s="18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J22" s="40">
         <v>3476</v>
       </c>
       <c r="K22" s="18" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="L22" s="38">
         <v>0.24</v>
@@ -2066,11 +2287,13 @@
         <v>3</v>
       </c>
       <c r="P22" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q22" s="14"/>
-    </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="Q22" s="18"/>
+      <c r="R22" s="18"/>
+      <c r="S22" s="14"/>
+    </row>
+    <row r="23" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B23" s="10"/>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
@@ -2088,11 +2311,19 @@
         <v>3</v>
       </c>
       <c r="P23" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q23" s="12"/>
-    </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+      <c r="Q23" s="19">
+        <v>265</v>
+      </c>
+      <c r="R23" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="S23" s="39">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="24" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B24" s="10"/>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
@@ -2110,11 +2341,19 @@
         <v>3</v>
       </c>
       <c r="P24" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q24" s="12"/>
-    </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+      <c r="Q24" s="19">
+        <v>168</v>
+      </c>
+      <c r="R24" s="19" t="s">
+        <v>260</v>
+      </c>
+      <c r="S24" s="39">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="25" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B25" s="10"/>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
@@ -2132,11 +2371,19 @@
         <v>3</v>
       </c>
       <c r="P25" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q25" s="12"/>
-    </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+      <c r="Q25" s="19">
+        <v>621</v>
+      </c>
+      <c r="R25" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="S25" s="39">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="26" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B26" s="10"/>
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
@@ -2154,11 +2401,19 @@
         <v>3</v>
       </c>
       <c r="P26" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q26" s="12"/>
-    </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+      <c r="Q26" s="19">
+        <v>490</v>
+      </c>
+      <c r="R26" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="S26" s="39">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="27" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B27" s="10"/>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
@@ -2176,11 +2431,19 @@
         <v>3</v>
       </c>
       <c r="P27" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q27" s="17"/>
-    </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+      <c r="Q27" s="20">
+        <v>140</v>
+      </c>
+      <c r="R27" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="S27" s="46">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="28" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B28" s="10"/>
       <c r="C28" s="11"/>
       <c r="D28" s="11"/>
@@ -2191,13 +2454,13 @@
         <v>2</v>
       </c>
       <c r="I28" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J28" s="41">
         <v>2535</v>
       </c>
       <c r="K28" s="19" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="L28" s="39">
         <v>0.17</v>
@@ -2206,9 +2469,11 @@
       <c r="N28" s="11"/>
       <c r="O28" s="11"/>
       <c r="P28" s="11"/>
-      <c r="Q28" s="12"/>
-    </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q28" s="11"/>
+      <c r="R28" s="11"/>
+      <c r="S28" s="12"/>
+    </row>
+    <row r="29" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B29" s="10"/>
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
@@ -2219,13 +2484,13 @@
         <v>2</v>
       </c>
       <c r="I29" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J29" s="40">
         <v>13713</v>
       </c>
       <c r="K29" s="18" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="L29" s="38">
         <v>0.21</v>
@@ -2236,11 +2501,13 @@
         <v>3</v>
       </c>
       <c r="P29" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q29" s="14"/>
-    </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+      <c r="Q29" s="18"/>
+      <c r="R29" s="18"/>
+      <c r="S29" s="14"/>
+    </row>
+    <row r="30" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B30" s="10"/>
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
@@ -2258,11 +2525,19 @@
         <v>3</v>
       </c>
       <c r="P30" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q30" s="12"/>
-    </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="Q30" s="41">
+        <v>1215</v>
+      </c>
+      <c r="R30" s="19" t="s">
+        <v>267</v>
+      </c>
+      <c r="S30" s="39">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="31" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B31" s="10"/>
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
@@ -2280,11 +2555,19 @@
         <v>3</v>
       </c>
       <c r="P31" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q31" s="12"/>
-    </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+      <c r="Q31" s="41">
+        <v>1588</v>
+      </c>
+      <c r="R31" s="19" t="s">
+        <v>255</v>
+      </c>
+      <c r="S31" s="39">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="32" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B32" s="10"/>
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
@@ -2295,13 +2578,13 @@
         <v>2</v>
       </c>
       <c r="I32" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J32" s="40">
         <v>81041</v>
       </c>
       <c r="K32" s="18" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="L32" s="38">
         <v>0.31</v>
@@ -2312,11 +2595,13 @@
         <v>3</v>
       </c>
       <c r="P32" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q32" s="14"/>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="Q32" s="18"/>
+      <c r="R32" s="18"/>
+      <c r="S32" s="14"/>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B33" s="10"/>
       <c r="C33" s="11"/>
       <c r="D33" s="11"/>
@@ -2334,11 +2619,19 @@
         <v>3</v>
       </c>
       <c r="P33" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q33" s="12"/>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+      <c r="Q33" s="41">
+        <v>2835</v>
+      </c>
+      <c r="R33" s="19" t="s">
+        <v>268</v>
+      </c>
+      <c r="S33" s="39">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B34" s="10"/>
       <c r="C34" s="11"/>
       <c r="D34" s="11"/>
@@ -2356,11 +2649,19 @@
         <v>3</v>
       </c>
       <c r="P34" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q34" s="12"/>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+      <c r="Q34" s="41">
+        <v>2228</v>
+      </c>
+      <c r="R34" s="19" t="s">
+        <v>269</v>
+      </c>
+      <c r="S34" s="39">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B35" s="10"/>
       <c r="C35" s="11"/>
       <c r="D35" s="11"/>
@@ -2378,11 +2679,19 @@
         <v>3</v>
       </c>
       <c r="P35" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q35" s="12"/>
-    </row>
-    <row r="36" spans="2:17" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+      <c r="Q35" s="41">
+        <v>1947</v>
+      </c>
+      <c r="R35" s="19" t="s">
+        <v>270</v>
+      </c>
+      <c r="S35" s="12">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="36" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B36" s="10"/>
       <c r="C36" s="11"/>
       <c r="D36" s="11"/>
@@ -2400,11 +2709,19 @@
         <v>3</v>
       </c>
       <c r="P36" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q36" s="12"/>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+      <c r="Q36" s="41">
+        <v>61818</v>
+      </c>
+      <c r="R36" s="19" t="s">
+        <v>271</v>
+      </c>
+      <c r="S36" s="39">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B37" s="10"/>
       <c r="C37" s="11"/>
       <c r="D37" s="11"/>
@@ -2415,13 +2732,13 @@
         <v>2</v>
       </c>
       <c r="I37" s="18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J37" s="40">
         <v>14319</v>
       </c>
       <c r="K37" s="18" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="L37" s="38">
         <v>0.17</v>
@@ -2430,9 +2747,11 @@
       <c r="N37" s="3"/>
       <c r="O37" s="3"/>
       <c r="P37" s="3"/>
-      <c r="Q37" s="14"/>
-    </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q37" s="3"/>
+      <c r="R37" s="3"/>
+      <c r="S37" s="14"/>
+    </row>
+    <row r="38" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B38" s="10"/>
       <c r="C38" s="11"/>
       <c r="D38" s="11"/>
@@ -2443,13 +2762,13 @@
         <v>2</v>
       </c>
       <c r="I38" s="18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J38" s="40">
         <v>2433</v>
       </c>
       <c r="K38" s="18" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="L38" s="38">
         <v>0.26</v>
@@ -2458,9 +2777,11 @@
       <c r="N38" s="3"/>
       <c r="O38" s="3"/>
       <c r="P38" s="3"/>
-      <c r="Q38" s="14"/>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q38" s="3"/>
+      <c r="R38" s="3"/>
+      <c r="S38" s="14"/>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B39" s="10"/>
       <c r="C39" s="11"/>
       <c r="D39" s="11"/>
@@ -2471,13 +2792,13 @@
         <v>2</v>
       </c>
       <c r="I39" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J39" s="40">
         <v>10354</v>
       </c>
       <c r="K39" s="18" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="L39" s="38">
         <v>0.42</v>
@@ -2488,11 +2809,13 @@
         <v>3</v>
       </c>
       <c r="P39" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q39" s="14"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+      <c r="Q39" s="18"/>
+      <c r="R39" s="18"/>
+      <c r="S39" s="14"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B40" s="10"/>
       <c r="C40" s="11"/>
       <c r="D40" s="11"/>
@@ -2510,11 +2833,19 @@
         <v>3</v>
       </c>
       <c r="P40" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q40" s="12"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+      <c r="Q40" s="11">
+        <v>330</v>
+      </c>
+      <c r="R40" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="S40" s="39">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B41" s="10"/>
       <c r="C41" s="11"/>
       <c r="D41" s="11"/>
@@ -2532,11 +2863,19 @@
         <v>3</v>
       </c>
       <c r="P41" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q41" s="12"/>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+      <c r="Q41" s="30">
+        <v>1223</v>
+      </c>
+      <c r="R41" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="S41" s="39">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B42" s="10"/>
       <c r="C42" s="11"/>
       <c r="D42" s="11"/>
@@ -2554,11 +2893,19 @@
         <v>3</v>
       </c>
       <c r="P42" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q42" s="12"/>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Q42" s="11">
+        <v>527</v>
+      </c>
+      <c r="R42" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="S42" s="39">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B43" s="10"/>
       <c r="C43" s="11"/>
       <c r="D43" s="11"/>
@@ -2569,13 +2916,13 @@
         <v>2</v>
       </c>
       <c r="I43" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J43" s="40">
         <v>8534</v>
       </c>
       <c r="K43" s="18" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="L43" s="38">
         <v>0.36</v>
@@ -2584,9 +2931,11 @@
       <c r="N43" s="3"/>
       <c r="O43" s="3"/>
       <c r="P43" s="3"/>
-      <c r="Q43" s="14"/>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3"/>
+      <c r="R43" s="3"/>
+      <c r="S43" s="14"/>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B44" s="10"/>
       <c r="C44" s="11"/>
       <c r="D44" s="11"/>
@@ -2597,13 +2946,13 @@
         <v>2</v>
       </c>
       <c r="I44" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J44" s="40">
         <v>1025</v>
       </c>
       <c r="K44" s="18" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="L44" s="38">
         <v>0.26</v>
@@ -2612,9 +2961,11 @@
       <c r="N44" s="3"/>
       <c r="O44" s="3"/>
       <c r="P44" s="3"/>
-      <c r="Q44" s="14"/>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3"/>
+      <c r="R44" s="3"/>
+      <c r="S44" s="14"/>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B45" s="10"/>
       <c r="C45" s="11"/>
       <c r="D45" s="11"/>
@@ -2625,13 +2976,13 @@
         <v>2</v>
       </c>
       <c r="I45" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J45" s="40">
         <v>16644</v>
       </c>
       <c r="K45" s="18" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="L45" s="38">
         <v>0.23</v>
@@ -2642,11 +2993,13 @@
         <v>3</v>
       </c>
       <c r="P45" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q45" s="14"/>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+      <c r="Q45" s="18"/>
+      <c r="R45" s="18"/>
+      <c r="S45" s="14"/>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B46" s="10"/>
       <c r="C46" s="11"/>
       <c r="D46" s="11"/>
@@ -2664,11 +3017,19 @@
         <v>3</v>
       </c>
       <c r="P46" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q46" s="12"/>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+      <c r="Q46" s="11">
+        <v>556</v>
+      </c>
+      <c r="R46" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="S46" s="39">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B47" s="10"/>
       <c r="C47" s="11"/>
       <c r="D47" s="11"/>
@@ -2686,11 +3047,19 @@
         <v>3</v>
       </c>
       <c r="P47" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q47" s="12"/>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+      <c r="Q47" s="30">
+        <v>9704</v>
+      </c>
+      <c r="R47" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="S47" s="39">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B48" s="10"/>
       <c r="C48" s="11"/>
       <c r="D48" s="11"/>
@@ -2708,11 +3077,19 @@
         <v>3</v>
       </c>
       <c r="P48" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q48" s="12"/>
-    </row>
-    <row r="49" spans="2:17" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+      <c r="Q48" s="30">
+        <v>3118</v>
+      </c>
+      <c r="R48" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="S48" s="39">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="49" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B49" s="10"/>
       <c r="C49" s="11"/>
       <c r="D49" s="11"/>
@@ -2730,11 +3107,19 @@
         <v>3</v>
       </c>
       <c r="P49" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q49" s="12"/>
-    </row>
-    <row r="50" spans="2:17" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+      <c r="Q49" s="11">
+        <v>744</v>
+      </c>
+      <c r="R49" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="S49" s="39">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="50" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B50" s="10"/>
       <c r="C50" s="11"/>
       <c r="D50" s="11"/>
@@ -2745,13 +3130,13 @@
         <v>2</v>
       </c>
       <c r="I50" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J50" s="40">
         <v>25218</v>
       </c>
       <c r="K50" s="18" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="L50" s="38">
         <v>0.69</v>
@@ -2760,9 +3145,11 @@
       <c r="N50" s="3"/>
       <c r="O50" s="3"/>
       <c r="P50" s="3"/>
-      <c r="Q50" s="14"/>
-    </row>
-    <row r="51" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3"/>
+      <c r="R50" s="3"/>
+      <c r="S50" s="14"/>
+    </row>
+    <row r="51" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B51" s="10"/>
       <c r="C51" s="11"/>
       <c r="D51" s="11"/>
@@ -2773,13 +3160,13 @@
         <v>2</v>
       </c>
       <c r="I51" s="18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J51" s="40">
         <v>15135</v>
       </c>
       <c r="K51" s="18" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="L51" s="38">
         <v>0.32</v>
@@ -2790,11 +3177,13 @@
         <v>3</v>
       </c>
       <c r="P51" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q51" s="14"/>
-    </row>
-    <row r="52" spans="2:17" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="Q51" s="18"/>
+      <c r="R51" s="18"/>
+      <c r="S51" s="14"/>
+    </row>
+    <row r="52" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B52" s="10"/>
       <c r="C52" s="11"/>
       <c r="D52" s="11"/>
@@ -2812,11 +3201,19 @@
         <v>3</v>
       </c>
       <c r="P52" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q52" s="12"/>
-    </row>
-    <row r="53" spans="2:17" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+      <c r="Q52" s="41">
+        <v>3481</v>
+      </c>
+      <c r="R52" s="19" t="s">
+        <v>278</v>
+      </c>
+      <c r="S52" s="39">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="53" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B53" s="10"/>
       <c r="C53" s="11"/>
       <c r="D53" s="11"/>
@@ -2834,11 +3231,19 @@
         <v>3</v>
       </c>
       <c r="P53" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q53" s="12"/>
-    </row>
-    <row r="54" spans="2:17" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+      <c r="Q53" s="19">
+        <v>201</v>
+      </c>
+      <c r="R53" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="S53" s="39">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="54" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B54" s="10"/>
       <c r="C54" s="11"/>
       <c r="D54" s="11"/>
@@ -2856,11 +3261,19 @@
         <v>3</v>
       </c>
       <c r="P54" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q54" s="12"/>
-    </row>
-    <row r="55" spans="2:17" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+      <c r="Q54" s="41">
+        <v>2596</v>
+      </c>
+      <c r="R54" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="S54" s="39">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="55" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B55" s="10"/>
       <c r="C55" s="11"/>
       <c r="D55" s="11"/>
@@ -2871,13 +3284,13 @@
         <v>2</v>
       </c>
       <c r="I55" s="18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J55" s="40">
         <v>21293</v>
       </c>
       <c r="K55" s="18" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="L55" s="38">
         <v>0.28999999999999998</v>
@@ -2888,11 +3301,13 @@
         <v>3</v>
       </c>
       <c r="P55" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q55" s="14"/>
-    </row>
-    <row r="56" spans="2:17" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="Q55" s="18"/>
+      <c r="R55" s="18"/>
+      <c r="S55" s="14"/>
+    </row>
+    <row r="56" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B56" s="10"/>
       <c r="C56" s="11"/>
       <c r="D56" s="11"/>
@@ -2910,11 +3325,19 @@
         <v>3</v>
       </c>
       <c r="P56" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q56" s="12"/>
-    </row>
-    <row r="57" spans="2:17" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+      <c r="Q56" s="19">
+        <v>956</v>
+      </c>
+      <c r="R56" s="19" t="s">
+        <v>243</v>
+      </c>
+      <c r="S56" s="39">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="57" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B57" s="10"/>
       <c r="C57" s="11"/>
       <c r="D57" s="11"/>
@@ -2932,11 +3355,19 @@
         <v>3</v>
       </c>
       <c r="P57" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q57" s="12"/>
-    </row>
-    <row r="58" spans="2:17" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+      <c r="Q57" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="R57" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="S57" s="12" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="58" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B58" s="10"/>
       <c r="C58" s="11"/>
       <c r="D58" s="11"/>
@@ -2954,11 +3385,19 @@
         <v>3</v>
       </c>
       <c r="P58" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q58" s="12"/>
-    </row>
-    <row r="59" spans="2:17" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+      <c r="Q58" s="41">
+        <v>4537</v>
+      </c>
+      <c r="R58" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="S58" s="39">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="59" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B59" s="10"/>
       <c r="C59" s="11"/>
       <c r="D59" s="11"/>
@@ -2969,13 +3408,13 @@
         <v>2</v>
       </c>
       <c r="I59" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J59" s="40">
         <v>22193</v>
       </c>
       <c r="K59" s="18" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="L59" s="38">
         <v>0.39</v>
@@ -2986,11 +3425,13 @@
         <v>3</v>
       </c>
       <c r="P59" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q59" s="14"/>
-    </row>
-    <row r="60" spans="2:17" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+      <c r="Q59" s="18"/>
+      <c r="R59" s="18"/>
+      <c r="S59" s="14"/>
+    </row>
+    <row r="60" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B60" s="10"/>
       <c r="C60" s="11"/>
       <c r="D60" s="11"/>
@@ -3008,11 +3449,19 @@
         <v>3</v>
       </c>
       <c r="P60" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q60" s="12"/>
-    </row>
-    <row r="61" spans="2:17" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+      <c r="Q60" s="19">
+        <v>504</v>
+      </c>
+      <c r="R60" s="19" t="s">
+        <v>280</v>
+      </c>
+      <c r="S60" s="39">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="61" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B61" s="10"/>
       <c r="C61" s="11"/>
       <c r="D61" s="11"/>
@@ -3030,11 +3479,19 @@
         <v>3</v>
       </c>
       <c r="P61" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q61" s="12"/>
-    </row>
-    <row r="62" spans="2:17" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+      <c r="Q61" s="41">
+        <v>1192</v>
+      </c>
+      <c r="R61" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="S61" s="39">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="62" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B62" s="10"/>
       <c r="C62" s="11"/>
       <c r="D62" s="11"/>
@@ -3052,11 +3509,19 @@
         <v>3</v>
       </c>
       <c r="P62" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q62" s="12"/>
-    </row>
-    <row r="63" spans="2:17" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+      <c r="Q62" s="41">
+        <v>1497</v>
+      </c>
+      <c r="R62" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="S62" s="39">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="63" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B63" s="10"/>
       <c r="C63" s="11"/>
       <c r="D63" s="11"/>
@@ -3067,13 +3532,13 @@
         <v>2</v>
       </c>
       <c r="I63" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J63" s="40">
         <v>26926</v>
       </c>
       <c r="K63" s="18" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="L63" s="38">
         <v>0.34</v>
@@ -3084,11 +3549,13 @@
         <v>3</v>
       </c>
       <c r="P63" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q63" s="14"/>
-    </row>
-    <row r="64" spans="2:17" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="Q63" s="18"/>
+      <c r="R63" s="18"/>
+      <c r="S63" s="14"/>
+    </row>
+    <row r="64" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B64" s="10"/>
       <c r="C64" s="11"/>
       <c r="D64" s="11"/>
@@ -3106,11 +3573,19 @@
         <v>3</v>
       </c>
       <c r="P64" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q64" s="12"/>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+      <c r="Q64" s="41">
+        <v>2875</v>
+      </c>
+      <c r="R64" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="S64" s="39">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="65" spans="2:55" x14ac:dyDescent="0.3">
       <c r="B65" s="10"/>
       <c r="C65" s="11"/>
       <c r="D65" s="11"/>
@@ -3128,11 +3603,19 @@
         <v>3</v>
       </c>
       <c r="P65" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q65" s="12"/>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+      <c r="Q65" s="41">
+        <v>6318</v>
+      </c>
+      <c r="R65" s="19" t="s">
+        <v>281</v>
+      </c>
+      <c r="S65" s="39">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="66" spans="2:55" x14ac:dyDescent="0.3">
       <c r="B66" s="10"/>
       <c r="C66" s="11"/>
       <c r="D66" s="11"/>
@@ -3150,11 +3633,19 @@
         <v>3</v>
       </c>
       <c r="P66" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q66" s="12"/>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+      <c r="Q66" s="41">
+        <v>1984</v>
+      </c>
+      <c r="R66" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="S66" s="39">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="67" spans="2:55" x14ac:dyDescent="0.3">
       <c r="B67" s="10"/>
       <c r="C67" s="11"/>
       <c r="D67" s="11"/>
@@ -3172,11 +3663,19 @@
         <v>3</v>
       </c>
       <c r="P67" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q67" s="12"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+      <c r="Q67" s="19">
+        <v>604</v>
+      </c>
+      <c r="R67" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="S67" s="39">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="68" spans="2:55" x14ac:dyDescent="0.3">
       <c r="B68" s="10"/>
       <c r="C68" s="11"/>
       <c r="D68" s="11"/>
@@ -3194,11 +3693,19 @@
         <v>3</v>
       </c>
       <c r="P68" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q68" s="12"/>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+      <c r="Q68" s="41">
+        <v>1623</v>
+      </c>
+      <c r="R68" s="19" t="s">
+        <v>283</v>
+      </c>
+      <c r="S68" s="39">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="69" spans="2:55" x14ac:dyDescent="0.3">
       <c r="B69" s="10"/>
       <c r="C69" s="11"/>
       <c r="D69" s="11"/>
@@ -3216,11 +3723,19 @@
         <v>3</v>
       </c>
       <c r="P69" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q69" s="12"/>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+      <c r="Q69" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="R69" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="S69" s="47" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="70" spans="2:55" x14ac:dyDescent="0.3">
       <c r="B70" s="10"/>
       <c r="C70" s="11"/>
       <c r="D70" s="11"/>
@@ -3238,11 +3753,19 @@
         <v>3</v>
       </c>
       <c r="P70" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q70" s="12"/>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+      <c r="Q70" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="R70" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="S70" s="48" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="71" spans="2:55" x14ac:dyDescent="0.3">
       <c r="B71" s="10"/>
       <c r="C71" s="11"/>
       <c r="D71" s="11"/>
@@ -3253,13 +3776,13 @@
         <v>2</v>
       </c>
       <c r="I71" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J71" s="40">
         <v>9457</v>
       </c>
       <c r="K71" s="18" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="L71" s="38">
         <v>0.27</v>
@@ -3270,11 +3793,13 @@
         <v>3</v>
       </c>
       <c r="P71" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q71" s="14"/>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+      <c r="Q71" s="18"/>
+      <c r="R71" s="18"/>
+      <c r="S71" s="14"/>
+    </row>
+    <row r="72" spans="2:55" x14ac:dyDescent="0.3">
       <c r="B72" s="10"/>
       <c r="C72" s="11"/>
       <c r="D72" s="11"/>
@@ -3292,22 +3817,30 @@
         <v>3</v>
       </c>
       <c r="P72" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q72" s="12"/>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+      <c r="Q72" s="19">
+        <v>2733</v>
+      </c>
+      <c r="R72" s="19" t="s">
+        <v>284</v>
+      </c>
+      <c r="S72" s="39">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="73" spans="2:55" x14ac:dyDescent="0.3">
       <c r="B73" s="13">
         <v>1</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D73" s="35">
         <v>136766</v>
       </c>
       <c r="E73" s="29" t="s">
-        <v>205</v>
+        <v>315</v>
       </c>
       <c r="F73" s="36">
         <v>0.22</v>
@@ -3322,9 +3855,11 @@
       <c r="N73" s="3"/>
       <c r="O73" s="3"/>
       <c r="P73" s="3"/>
-      <c r="Q73" s="14"/>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3"/>
+      <c r="R73" s="3"/>
+      <c r="S73" s="14"/>
+    </row>
+    <row r="74" spans="2:55" x14ac:dyDescent="0.3">
       <c r="B74" s="10"/>
       <c r="C74" s="11"/>
       <c r="D74" s="11"/>
@@ -3335,13 +3870,13 @@
         <v>2</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J74" s="32">
         <v>3660</v>
       </c>
       <c r="K74" s="3" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="L74" s="38">
         <v>0.13</v>
@@ -3350,9 +3885,11 @@
       <c r="N74" s="3"/>
       <c r="O74" s="3"/>
       <c r="P74" s="3"/>
-      <c r="Q74" s="14"/>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3"/>
+      <c r="R74" s="3"/>
+      <c r="S74" s="14"/>
+    </row>
+    <row r="75" spans="2:55" x14ac:dyDescent="0.3">
       <c r="B75" s="10"/>
       <c r="C75" s="11"/>
       <c r="D75" s="11"/>
@@ -3363,13 +3900,13 @@
         <v>2</v>
       </c>
       <c r="I75" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J75" s="40">
         <v>7724</v>
       </c>
       <c r="K75" s="18" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="L75" s="38">
         <v>0.15</v>
@@ -3378,9 +3915,47 @@
       <c r="N75" s="3"/>
       <c r="O75" s="3"/>
       <c r="P75" s="3"/>
-      <c r="Q75" s="14"/>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3"/>
+      <c r="R75" s="3"/>
+      <c r="S75" s="23"/>
+      <c r="T75" s="2"/>
+      <c r="U75" s="2"/>
+      <c r="V75" s="2"/>
+      <c r="W75" s="2"/>
+      <c r="X75" s="2"/>
+      <c r="Y75" s="2"/>
+      <c r="Z75" s="2"/>
+      <c r="AA75" s="2"/>
+      <c r="AB75" s="2"/>
+      <c r="AC75" s="2"/>
+      <c r="AD75" s="2"/>
+      <c r="AE75" s="2"/>
+      <c r="AF75" s="2"/>
+      <c r="AG75" s="2"/>
+      <c r="AH75" s="2"/>
+      <c r="AI75" s="2"/>
+      <c r="AJ75" s="2"/>
+      <c r="AK75" s="2"/>
+      <c r="AL75" s="2"/>
+      <c r="AM75" s="2"/>
+      <c r="AN75" s="2"/>
+      <c r="AO75" s="2"/>
+      <c r="AP75" s="2"/>
+      <c r="AQ75" s="2"/>
+      <c r="AR75" s="2"/>
+      <c r="AS75" s="2"/>
+      <c r="AT75" s="2"/>
+      <c r="AU75" s="2"/>
+      <c r="AV75" s="2"/>
+      <c r="AW75" s="2"/>
+      <c r="AX75" s="2"/>
+      <c r="AY75" s="2"/>
+      <c r="AZ75" s="2"/>
+      <c r="BA75" s="2"/>
+      <c r="BB75" s="2"/>
+      <c r="BC75" s="2"/>
+    </row>
+    <row r="76" spans="2:55" x14ac:dyDescent="0.3">
       <c r="B76" s="10"/>
       <c r="C76" s="11"/>
       <c r="D76" s="11"/>
@@ -3391,7 +3966,7 @@
         <v>2</v>
       </c>
       <c r="I76" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J76" s="18"/>
       <c r="K76" s="18"/>
@@ -3400,9 +3975,47 @@
       <c r="N76" s="3"/>
       <c r="O76" s="3"/>
       <c r="P76" s="3"/>
-      <c r="Q76" s="14"/>
-    </row>
-    <row r="77" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3"/>
+      <c r="R76" s="3"/>
+      <c r="S76" s="23"/>
+      <c r="T76" s="2"/>
+      <c r="U76" s="2"/>
+      <c r="V76" s="2"/>
+      <c r="W76" s="2"/>
+      <c r="X76" s="2"/>
+      <c r="Y76" s="2"/>
+      <c r="Z76" s="2"/>
+      <c r="AA76" s="2"/>
+      <c r="AB76" s="2"/>
+      <c r="AC76" s="2"/>
+      <c r="AD76" s="2"/>
+      <c r="AE76" s="2"/>
+      <c r="AF76" s="2"/>
+      <c r="AG76" s="2"/>
+      <c r="AH76" s="2"/>
+      <c r="AI76" s="2"/>
+      <c r="AJ76" s="2"/>
+      <c r="AK76" s="2"/>
+      <c r="AL76" s="2"/>
+      <c r="AM76" s="2"/>
+      <c r="AN76" s="2"/>
+      <c r="AO76" s="2"/>
+      <c r="AP76" s="2"/>
+      <c r="AQ76" s="2"/>
+      <c r="AR76" s="2"/>
+      <c r="AS76" s="2"/>
+      <c r="AT76" s="2"/>
+      <c r="AU76" s="2"/>
+      <c r="AV76" s="2"/>
+      <c r="AW76" s="2"/>
+      <c r="AX76" s="2"/>
+      <c r="AY76" s="2"/>
+      <c r="AZ76" s="2"/>
+      <c r="BA76" s="2"/>
+      <c r="BB76" s="2"/>
+      <c r="BC76" s="2"/>
+    </row>
+    <row r="77" spans="2:55" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B77" s="13"/>
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
@@ -3413,13 +4026,13 @@
         <v>2</v>
       </c>
       <c r="I77" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J77" s="40">
         <v>3276</v>
       </c>
       <c r="K77" s="18" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="L77" s="38">
         <v>0.28000000000000003</v>
@@ -3430,11 +4043,49 @@
         <v>3</v>
       </c>
       <c r="P77" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q77" s="14"/>
-    </row>
-    <row r="78" spans="2:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+      <c r="Q77" s="18"/>
+      <c r="R77" s="18"/>
+      <c r="S77" s="14"/>
+      <c r="T77" s="2"/>
+      <c r="U77" s="2"/>
+      <c r="V77" s="2"/>
+      <c r="W77" s="2"/>
+      <c r="X77" s="2"/>
+      <c r="Y77" s="2"/>
+      <c r="Z77" s="2"/>
+      <c r="AA77" s="2"/>
+      <c r="AB77" s="2"/>
+      <c r="AC77" s="2"/>
+      <c r="AD77" s="2"/>
+      <c r="AE77" s="2"/>
+      <c r="AF77" s="2"/>
+      <c r="AG77" s="2"/>
+      <c r="AH77" s="2"/>
+      <c r="AI77" s="2"/>
+      <c r="AJ77" s="2"/>
+      <c r="AK77" s="2"/>
+      <c r="AL77" s="2"/>
+      <c r="AM77" s="2"/>
+      <c r="AN77" s="2"/>
+      <c r="AO77" s="2"/>
+      <c r="AP77" s="2"/>
+      <c r="AQ77" s="2"/>
+      <c r="AR77" s="2"/>
+      <c r="AS77" s="2"/>
+      <c r="AT77" s="2"/>
+      <c r="AU77" s="2"/>
+      <c r="AV77" s="2"/>
+      <c r="AW77" s="2"/>
+      <c r="AX77" s="2"/>
+      <c r="AY77" s="2"/>
+      <c r="AZ77" s="2"/>
+      <c r="BA77" s="2"/>
+      <c r="BB77" s="2"/>
+      <c r="BC77" s="2"/>
+    </row>
+    <row r="78" spans="2:55" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B78" s="10"/>
       <c r="C78" s="11"/>
       <c r="D78" s="11"/>
@@ -3452,11 +4103,19 @@
         <v>3</v>
       </c>
       <c r="P78" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q78" s="12"/>
-    </row>
-    <row r="79" spans="2:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+      <c r="Q78" s="11">
+        <v>185</v>
+      </c>
+      <c r="R78" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="S78" s="39">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="79" spans="2:55" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B79" s="10"/>
       <c r="C79" s="11"/>
       <c r="D79" s="11"/>
@@ -3474,11 +4133,19 @@
         <v>3</v>
       </c>
       <c r="P79" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q79" s="12"/>
-    </row>
-    <row r="80" spans="2:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+      <c r="Q79" s="11">
+        <v>243</v>
+      </c>
+      <c r="R79" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="S79" s="39">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="80" spans="2:55" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B80" s="10"/>
       <c r="C80" s="11"/>
       <c r="D80" s="11"/>
@@ -3496,11 +4163,19 @@
         <v>3</v>
       </c>
       <c r="P80" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q80" s="12"/>
-    </row>
-    <row r="81" spans="2:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="Q80" s="19">
+        <v>719</v>
+      </c>
+      <c r="R80" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="S80" s="39">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="81" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B81" s="10"/>
       <c r="C81" s="11"/>
       <c r="D81" s="11"/>
@@ -3518,11 +4193,19 @@
         <v>3</v>
       </c>
       <c r="P81" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q81" s="12"/>
-    </row>
-    <row r="82" spans="2:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+      <c r="Q81" s="19">
+        <v>233</v>
+      </c>
+      <c r="R81" s="19" t="s">
+        <v>287</v>
+      </c>
+      <c r="S81" s="39">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="82" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B82" s="10"/>
       <c r="C82" s="11"/>
       <c r="D82" s="11"/>
@@ -3540,11 +4223,19 @@
         <v>3</v>
       </c>
       <c r="P82" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q82" s="12"/>
-    </row>
-    <row r="83" spans="2:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+      <c r="Q82" s="19">
+        <v>368</v>
+      </c>
+      <c r="R82" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="S82" s="39">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="83" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B83" s="10"/>
       <c r="C83" s="11"/>
       <c r="D83" s="11"/>
@@ -3562,11 +4253,19 @@
         <v>3</v>
       </c>
       <c r="P83" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q83" s="12"/>
-    </row>
-    <row r="84" spans="2:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+      <c r="Q83" s="19">
+        <v>180</v>
+      </c>
+      <c r="R83" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="S83" s="39">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="84" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B84" s="10"/>
       <c r="C84" s="11"/>
       <c r="D84" s="11"/>
@@ -3584,11 +4283,19 @@
         <v>3</v>
       </c>
       <c r="P84" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q84" s="12"/>
-    </row>
-    <row r="85" spans="2:17" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+      <c r="Q84" s="19">
+        <v>254</v>
+      </c>
+      <c r="R84" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="S84" s="39">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="85" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B85" s="10"/>
       <c r="C85" s="11"/>
       <c r="D85" s="11"/>
@@ -3599,24 +4306,26 @@
         <v>2</v>
       </c>
       <c r="I85" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J85" s="18" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="K85" s="18" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="L85" s="14" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="M85" s="3"/>
       <c r="N85" s="3"/>
       <c r="O85" s="3"/>
       <c r="P85" s="3"/>
-      <c r="Q85" s="14"/>
-    </row>
-    <row r="86" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3"/>
+      <c r="R85" s="3"/>
+      <c r="S85" s="14"/>
+    </row>
+    <row r="86" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B86" s="10"/>
       <c r="C86" s="11"/>
       <c r="D86" s="11"/>
@@ -3627,13 +4336,13 @@
         <v>2</v>
       </c>
       <c r="I86" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J86" s="40">
         <v>24603</v>
       </c>
       <c r="K86" s="18" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="L86" s="38">
         <v>0.22</v>
@@ -3644,11 +4353,13 @@
         <v>3</v>
       </c>
       <c r="P86" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q86" s="14"/>
-    </row>
-    <row r="87" spans="2:17" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+      <c r="Q86" s="18"/>
+      <c r="R86" s="18"/>
+      <c r="S86" s="14"/>
+    </row>
+    <row r="87" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B87" s="10"/>
       <c r="C87" s="11"/>
       <c r="D87" s="11"/>
@@ -3666,11 +4377,19 @@
         <v>3</v>
       </c>
       <c r="P87" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q87" s="12"/>
-    </row>
-    <row r="88" spans="2:17" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+      <c r="Q87" s="19">
+        <v>5</v>
+      </c>
+      <c r="R87" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="S87" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B88" s="10"/>
       <c r="C88" s="11"/>
       <c r="D88" s="11"/>
@@ -3688,11 +4407,19 @@
         <v>3</v>
       </c>
       <c r="P88" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q88" s="12"/>
-    </row>
-    <row r="89" spans="2:17" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+      <c r="Q88" s="41">
+        <v>1225</v>
+      </c>
+      <c r="R88" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="S88" s="39">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="89" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B89" s="10"/>
       <c r="C89" s="11"/>
       <c r="D89" s="11"/>
@@ -3710,11 +4437,19 @@
         <v>3</v>
       </c>
       <c r="P89" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q89" s="12"/>
-    </row>
-    <row r="90" spans="2:17" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+      <c r="Q89" s="41">
+        <v>2010</v>
+      </c>
+      <c r="R89" s="19" t="s">
+        <v>289</v>
+      </c>
+      <c r="S89" s="39">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="90" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B90" s="10"/>
       <c r="C90" s="11"/>
       <c r="D90" s="11"/>
@@ -3732,11 +4467,19 @@
         <v>3</v>
       </c>
       <c r="P90" s="19" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q90" s="12"/>
-    </row>
-    <row r="91" spans="2:17" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+      <c r="Q90" s="41">
+        <v>9540</v>
+      </c>
+      <c r="R90" s="19" t="s">
+        <v>250</v>
+      </c>
+      <c r="S90" s="39">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="91" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B91" s="10"/>
       <c r="C91" s="11"/>
       <c r="D91" s="11"/>
@@ -3747,13 +4490,13 @@
         <v>2</v>
       </c>
       <c r="I91" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J91" s="40">
         <v>47040</v>
       </c>
       <c r="K91" s="18" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="L91" s="38">
         <v>0.18</v>
@@ -3764,11 +4507,13 @@
         <v>3</v>
       </c>
       <c r="P91" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q91" s="14"/>
-    </row>
-    <row r="92" spans="2:17" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+      <c r="Q91" s="18"/>
+      <c r="R91" s="18"/>
+      <c r="S91" s="14"/>
+    </row>
+    <row r="92" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B92" s="10"/>
       <c r="C92" s="11"/>
       <c r="D92" s="11"/>
@@ -3786,11 +4531,19 @@
         <v>3</v>
       </c>
       <c r="P92" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q92" s="12"/>
-    </row>
-    <row r="93" spans="2:17" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+      <c r="Q92" s="41">
+        <v>1589</v>
+      </c>
+      <c r="R92" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="S92" s="39">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="93" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B93" s="10"/>
       <c r="C93" s="11"/>
       <c r="D93" s="11"/>
@@ -3808,11 +4561,19 @@
         <v>3</v>
       </c>
       <c r="P93" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q93" s="12"/>
-    </row>
-    <row r="94" spans="2:17" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+      <c r="Q93" s="41">
+        <v>4371</v>
+      </c>
+      <c r="R93" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="S93" s="39">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="94" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B94" s="10"/>
       <c r="C94" s="11"/>
       <c r="D94" s="11"/>
@@ -3830,11 +4591,19 @@
         <v>3</v>
       </c>
       <c r="P94" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q94" s="12"/>
-    </row>
-    <row r="95" spans="2:17" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+      <c r="Q94" s="19">
+        <v>493</v>
+      </c>
+      <c r="R94" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="S94" s="39">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="95" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B95" s="10"/>
       <c r="C95" s="11"/>
       <c r="D95" s="11"/>
@@ -3852,11 +4621,19 @@
         <v>3</v>
       </c>
       <c r="P95" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q95" s="12"/>
-    </row>
-    <row r="96" spans="2:17" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+      <c r="Q95" s="19">
+        <v>390</v>
+      </c>
+      <c r="R95" s="19" t="s">
+        <v>250</v>
+      </c>
+      <c r="S95" s="39">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="96" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B96" s="10"/>
       <c r="C96" s="11"/>
       <c r="D96" s="11"/>
@@ -3874,11 +4651,19 @@
         <v>3</v>
       </c>
       <c r="P96" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q96" s="12"/>
-    </row>
-    <row r="97" spans="2:17" x14ac:dyDescent="0.2">
+        <v>129</v>
+      </c>
+      <c r="Q96" s="19">
+        <v>556</v>
+      </c>
+      <c r="R96" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="S96" s="39">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B97" s="10"/>
       <c r="C97" s="11"/>
       <c r="D97" s="11"/>
@@ -3889,13 +4674,13 @@
         <v>2</v>
       </c>
       <c r="I97" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J97" s="40">
         <v>2992</v>
       </c>
       <c r="K97" s="18" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="L97" s="38">
         <v>0.37</v>
@@ -3906,11 +4691,13 @@
         <v>3</v>
       </c>
       <c r="P97" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q97" s="14"/>
-    </row>
-    <row r="98" spans="2:17" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="Q97" s="18"/>
+      <c r="R97" s="18"/>
+      <c r="S97" s="14"/>
+    </row>
+    <row r="98" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B98" s="10"/>
       <c r="C98" s="11"/>
       <c r="D98" s="11"/>
@@ -3928,11 +4715,19 @@
         <v>3</v>
       </c>
       <c r="P98" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q98" s="12"/>
-    </row>
-    <row r="99" spans="2:17" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+      <c r="Q98" s="19">
+        <v>111</v>
+      </c>
+      <c r="R98" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="S98" s="39">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="99" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B99" s="10"/>
       <c r="C99" s="11"/>
       <c r="D99" s="11"/>
@@ -3950,11 +4745,19 @@
         <v>3</v>
       </c>
       <c r="P99" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q99" s="12"/>
-    </row>
-    <row r="100" spans="2:17" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+      <c r="Q99" s="19">
+        <v>361</v>
+      </c>
+      <c r="R99" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="S99" s="39">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="100" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B100" s="10"/>
       <c r="C100" s="11"/>
       <c r="D100" s="11"/>
@@ -3972,11 +4775,19 @@
         <v>3</v>
       </c>
       <c r="P100" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q100" s="12"/>
-    </row>
-    <row r="101" spans="2:17" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+      <c r="Q100" s="41">
+        <v>1337</v>
+      </c>
+      <c r="R100" s="19" t="s">
+        <v>291</v>
+      </c>
+      <c r="S100" s="39">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="101" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B101" s="10"/>
       <c r="C101" s="11"/>
       <c r="D101" s="11"/>
@@ -3994,11 +4805,19 @@
         <v>3</v>
       </c>
       <c r="P101" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q101" s="12"/>
-    </row>
-    <row r="102" spans="2:17" x14ac:dyDescent="0.2">
+        <v>132</v>
+      </c>
+      <c r="Q101" s="19">
+        <v>157</v>
+      </c>
+      <c r="R101" s="19" t="s">
+        <v>262</v>
+      </c>
+      <c r="S101" s="39">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="102" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B102" s="10"/>
       <c r="C102" s="11"/>
       <c r="D102" s="11"/>
@@ -4016,11 +4835,19 @@
         <v>3</v>
       </c>
       <c r="P102" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q102" s="12"/>
-    </row>
-    <row r="103" spans="2:17" x14ac:dyDescent="0.2">
+        <v>133</v>
+      </c>
+      <c r="Q102" s="19">
+        <v>146</v>
+      </c>
+      <c r="R102" s="19" t="s">
+        <v>289</v>
+      </c>
+      <c r="S102" s="39">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="103" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B103" s="10"/>
       <c r="C103" s="11"/>
       <c r="D103" s="11"/>
@@ -4038,11 +4865,19 @@
         <v>3</v>
       </c>
       <c r="P103" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q103" s="12"/>
-    </row>
-    <row r="104" spans="2:17" x14ac:dyDescent="0.2">
+        <v>134</v>
+      </c>
+      <c r="Q103" s="19">
+        <v>94</v>
+      </c>
+      <c r="R103" s="19" t="s">
+        <v>292</v>
+      </c>
+      <c r="S103" s="39">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="104" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B104" s="10"/>
       <c r="C104" s="11"/>
       <c r="D104" s="11"/>
@@ -4060,11 +4895,19 @@
         <v>3</v>
       </c>
       <c r="P104" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q104" s="12"/>
-    </row>
-    <row r="105" spans="2:17" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="Q104" s="11">
+        <v>66</v>
+      </c>
+      <c r="R104" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="S104" s="39">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="105" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B105" s="10"/>
       <c r="C105" s="11"/>
       <c r="D105" s="11"/>
@@ -4075,13 +4918,13 @@
         <v>2</v>
       </c>
       <c r="I105" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J105" s="40">
         <v>1663</v>
       </c>
       <c r="K105" s="18" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="L105" s="38">
         <v>0.39</v>
@@ -4090,9 +4933,11 @@
       <c r="N105" s="3"/>
       <c r="O105" s="3"/>
       <c r="P105" s="3"/>
-      <c r="Q105" s="14"/>
-    </row>
-    <row r="106" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q105" s="3"/>
+      <c r="R105" s="3"/>
+      <c r="S105" s="14"/>
+    </row>
+    <row r="106" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B106" s="10"/>
       <c r="C106" s="11"/>
       <c r="D106" s="11"/>
@@ -4103,35 +4948,37 @@
         <v>2</v>
       </c>
       <c r="I106" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J106" s="18" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="K106" s="18" t="s">
-        <v>214</v>
-      </c>
-      <c r="L106" s="18" t="s">
-        <v>214</v>
+        <v>207</v>
+      </c>
+      <c r="L106" s="49" t="s">
+        <v>207</v>
       </c>
       <c r="M106" s="3"/>
       <c r="N106" s="3"/>
       <c r="O106" s="3"/>
       <c r="P106" s="3"/>
-      <c r="Q106" s="14"/>
-    </row>
-    <row r="107" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q106" s="3"/>
+      <c r="R106" s="3"/>
+      <c r="S106" s="14"/>
+    </row>
+    <row r="107" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B107" s="13">
         <v>1</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D107" s="32">
         <v>37543</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="F107" s="33">
         <v>0.25</v>
@@ -4146,9 +4993,11 @@
       <c r="N107" s="3"/>
       <c r="O107" s="3"/>
       <c r="P107" s="3"/>
-      <c r="Q107" s="14"/>
-    </row>
-    <row r="108" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q107" s="3"/>
+      <c r="R107" s="3"/>
+      <c r="S107" s="14"/>
+    </row>
+    <row r="108" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B108" s="10"/>
       <c r="C108" s="11"/>
       <c r="D108" s="11"/>
@@ -4159,24 +5008,26 @@
         <v>2</v>
       </c>
       <c r="I108" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J108" s="18" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="K108" s="18" t="s">
-        <v>214</v>
-      </c>
-      <c r="L108" s="18" t="s">
-        <v>214</v>
+        <v>207</v>
+      </c>
+      <c r="L108" s="49" t="s">
+        <v>207</v>
       </c>
       <c r="M108" s="3"/>
       <c r="N108" s="3"/>
       <c r="O108" s="3"/>
       <c r="P108" s="3"/>
-      <c r="Q108" s="14"/>
-    </row>
-    <row r="109" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q108" s="3"/>
+      <c r="R108" s="3"/>
+      <c r="S108" s="14"/>
+    </row>
+    <row r="109" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B109" s="10"/>
       <c r="C109" s="11"/>
       <c r="D109" s="11"/>
@@ -4187,13 +5038,13 @@
         <v>2</v>
       </c>
       <c r="I109" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J109" s="40">
         <v>20312</v>
       </c>
       <c r="K109" s="18" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="L109" s="38">
         <v>0.28999999999999998</v>
@@ -4204,11 +5055,13 @@
         <v>3</v>
       </c>
       <c r="P109" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q109" s="14"/>
-    </row>
-    <row r="110" spans="2:17" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+      <c r="Q109" s="18"/>
+      <c r="R109" s="18"/>
+      <c r="S109" s="14"/>
+    </row>
+    <row r="110" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B110" s="10"/>
       <c r="C110" s="11"/>
       <c r="D110" s="11"/>
@@ -4226,11 +5079,19 @@
         <v>3</v>
       </c>
       <c r="P110" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q110" s="12"/>
-    </row>
-    <row r="111" spans="2:17" x14ac:dyDescent="0.2">
+        <v>136</v>
+      </c>
+      <c r="Q110" s="30">
+        <v>2333</v>
+      </c>
+      <c r="R110" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="S110" s="39">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="111" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B111" s="10"/>
       <c r="C111" s="11"/>
       <c r="D111" s="11"/>
@@ -4248,11 +5109,19 @@
         <v>3</v>
       </c>
       <c r="P111" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q111" s="12"/>
-    </row>
-    <row r="112" spans="2:17" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+      <c r="Q111" s="30">
+        <v>2338</v>
+      </c>
+      <c r="R111" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="S111" s="39">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="112" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B112" s="10"/>
       <c r="C112" s="11"/>
       <c r="D112" s="11"/>
@@ -4270,11 +5139,19 @@
         <v>3</v>
       </c>
       <c r="P112" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q112" s="12"/>
-    </row>
-    <row r="113" spans="2:17" x14ac:dyDescent="0.2">
+        <v>138</v>
+      </c>
+      <c r="Q112" s="41">
+        <v>1346</v>
+      </c>
+      <c r="R112" s="19" t="s">
+        <v>295</v>
+      </c>
+      <c r="S112" s="39">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="113" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B113" s="10"/>
       <c r="C113" s="11"/>
       <c r="D113" s="11"/>
@@ -4292,11 +5169,19 @@
         <v>3</v>
       </c>
       <c r="P113" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q113" s="12"/>
-    </row>
-    <row r="114" spans="2:17" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+      <c r="Q113" s="41">
+        <v>1661</v>
+      </c>
+      <c r="R113" s="19" t="s">
+        <v>296</v>
+      </c>
+      <c r="S113" s="39">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="114" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B114" s="10"/>
       <c r="C114" s="11"/>
       <c r="D114" s="11"/>
@@ -4314,11 +5199,19 @@
         <v>3</v>
       </c>
       <c r="P114" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q114" s="12"/>
-    </row>
-    <row r="115" spans="2:17" x14ac:dyDescent="0.2">
+        <v>140</v>
+      </c>
+      <c r="Q114" s="41">
+        <v>1496</v>
+      </c>
+      <c r="R114" s="19" t="s">
+        <v>281</v>
+      </c>
+      <c r="S114" s="39">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="115" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B115" s="10"/>
       <c r="C115" s="11"/>
       <c r="D115" s="11"/>
@@ -4336,11 +5229,19 @@
         <v>3</v>
       </c>
       <c r="P115" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q115" s="12"/>
-    </row>
-    <row r="116" spans="2:17" x14ac:dyDescent="0.2">
+        <v>141</v>
+      </c>
+      <c r="Q115" s="19">
+        <v>491</v>
+      </c>
+      <c r="R115" s="19" t="s">
+        <v>297</v>
+      </c>
+      <c r="S115" s="39">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="116" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B116" s="10"/>
       <c r="C116" s="11"/>
       <c r="D116" s="11"/>
@@ -4351,13 +5252,13 @@
         <v>2</v>
       </c>
       <c r="I116" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J116" s="18">
         <v>681</v>
       </c>
       <c r="K116" s="18" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="L116" s="38">
         <v>0.14000000000000001</v>
@@ -4366,9 +5267,11 @@
       <c r="N116" s="3"/>
       <c r="O116" s="3"/>
       <c r="P116" s="3"/>
-      <c r="Q116" s="14"/>
-    </row>
-    <row r="117" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q116" s="3"/>
+      <c r="R116" s="3"/>
+      <c r="S116" s="14"/>
+    </row>
+    <row r="117" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B117" s="10"/>
       <c r="C117" s="11"/>
       <c r="D117" s="11"/>
@@ -4379,13 +5282,13 @@
         <v>2</v>
       </c>
       <c r="I117" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J117" s="40">
         <v>1086</v>
       </c>
       <c r="K117" s="18" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="L117" s="38">
         <v>0.3</v>
@@ -4394,9 +5297,11 @@
       <c r="N117" s="3"/>
       <c r="O117" s="3"/>
       <c r="P117" s="3"/>
-      <c r="Q117" s="14"/>
-    </row>
-    <row r="118" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q117" s="3"/>
+      <c r="R117" s="3"/>
+      <c r="S117" s="14"/>
+    </row>
+    <row r="118" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B118" s="10"/>
       <c r="C118" s="11"/>
       <c r="D118" s="11"/>
@@ -4407,16 +5312,16 @@
         <v>2</v>
       </c>
       <c r="I118" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J118" s="18" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="K118" s="18" t="s">
-        <v>214</v>
-      </c>
-      <c r="L118" s="18" t="s">
-        <v>214</v>
+        <v>207</v>
+      </c>
+      <c r="L118" s="50" t="s">
+        <v>207</v>
       </c>
       <c r="M118" s="3"/>
       <c r="N118" s="3"/>
@@ -4424,11 +5329,13 @@
         <v>3</v>
       </c>
       <c r="P118" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q118" s="14"/>
-    </row>
-    <row r="119" spans="2:17" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="Q118" s="18"/>
+      <c r="R118" s="18"/>
+      <c r="S118" s="14"/>
+    </row>
+    <row r="119" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B119" s="10"/>
       <c r="C119" s="11"/>
       <c r="D119" s="11"/>
@@ -4446,11 +5353,19 @@
         <v>3</v>
       </c>
       <c r="P119" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q119" s="12"/>
-    </row>
-    <row r="120" spans="2:17" x14ac:dyDescent="0.2">
+        <v>142</v>
+      </c>
+      <c r="Q119" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="R119" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="S119" s="47" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="120" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B120" s="10"/>
       <c r="C120" s="11"/>
       <c r="D120" s="11"/>
@@ -4468,11 +5383,19 @@
         <v>3</v>
       </c>
       <c r="P120" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q120" s="12"/>
-    </row>
-    <row r="121" spans="2:17" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+      <c r="Q120" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="R120" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="S120" s="48" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="121" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B121" s="10"/>
       <c r="C121" s="11"/>
       <c r="D121" s="11"/>
@@ -4483,13 +5406,13 @@
         <v>2</v>
       </c>
       <c r="I121" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J121" s="18">
         <v>328</v>
       </c>
       <c r="K121" s="18" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="L121" s="38">
         <v>0.15</v>
@@ -4498,20 +5421,22 @@
       <c r="N121" s="3"/>
       <c r="O121" s="3"/>
       <c r="P121" s="3"/>
-      <c r="Q121" s="14"/>
-    </row>
-    <row r="122" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q121" s="3"/>
+      <c r="R121" s="3"/>
+      <c r="S121" s="14"/>
+    </row>
+    <row r="122" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B122" s="13">
         <v>1</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D122" s="32">
         <v>42261</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="F122" s="33">
         <v>0.33</v>
@@ -4526,9 +5451,11 @@
       <c r="N122" s="3"/>
       <c r="O122" s="3"/>
       <c r="P122" s="3"/>
-      <c r="Q122" s="14"/>
-    </row>
-    <row r="123" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q122" s="3"/>
+      <c r="R122" s="3"/>
+      <c r="S122" s="14"/>
+    </row>
+    <row r="123" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B123" s="10"/>
       <c r="C123" s="11"/>
       <c r="D123" s="11"/>
@@ -4539,24 +5466,26 @@
         <v>2</v>
       </c>
       <c r="I123" s="18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J123" s="18" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="K123" s="18" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="L123" s="14" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="M123" s="3"/>
       <c r="N123" s="3"/>
       <c r="O123" s="3"/>
       <c r="P123" s="3"/>
-      <c r="Q123" s="14"/>
-    </row>
-    <row r="124" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q123" s="3"/>
+      <c r="R123" s="3"/>
+      <c r="S123" s="14"/>
+    </row>
+    <row r="124" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B124" s="10"/>
       <c r="C124" s="11"/>
       <c r="D124" s="11"/>
@@ -4567,13 +5496,13 @@
         <v>2</v>
       </c>
       <c r="I124" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J124" s="18">
         <v>741</v>
       </c>
       <c r="K124" s="18" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="L124" s="38">
         <v>0.35</v>
@@ -4582,9 +5511,11 @@
       <c r="N124" s="3"/>
       <c r="O124" s="3"/>
       <c r="P124" s="3"/>
-      <c r="Q124" s="14"/>
-    </row>
-    <row r="125" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q124" s="3"/>
+      <c r="R124" s="3"/>
+      <c r="S124" s="14"/>
+    </row>
+    <row r="125" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B125" s="10"/>
       <c r="C125" s="11"/>
       <c r="D125" s="11"/>
@@ -4595,13 +5526,13 @@
         <v>2</v>
       </c>
       <c r="I125" s="18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J125" s="40">
         <v>5572</v>
       </c>
       <c r="K125" s="18" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="L125" s="38">
         <v>0.46</v>
@@ -4610,9 +5541,11 @@
       <c r="N125" s="3"/>
       <c r="O125" s="3"/>
       <c r="P125" s="3"/>
-      <c r="Q125" s="14"/>
-    </row>
-    <row r="126" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q125" s="3"/>
+      <c r="R125" s="3"/>
+      <c r="S125" s="14"/>
+    </row>
+    <row r="126" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B126" s="10"/>
       <c r="C126" s="11"/>
       <c r="D126" s="11"/>
@@ -4623,13 +5556,13 @@
         <v>2</v>
       </c>
       <c r="I126" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J126" s="40">
         <v>2575</v>
       </c>
       <c r="K126" s="18" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="L126" s="38">
         <v>0.34</v>
@@ -4638,9 +5571,11 @@
       <c r="N126" s="3"/>
       <c r="O126" s="3"/>
       <c r="P126" s="3"/>
-      <c r="Q126" s="14"/>
-    </row>
-    <row r="127" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q126" s="3"/>
+      <c r="R126" s="3"/>
+      <c r="S126" s="14"/>
+    </row>
+    <row r="127" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B127" s="10"/>
       <c r="C127" s="11"/>
       <c r="D127" s="11"/>
@@ -4651,13 +5586,13 @@
         <v>2</v>
       </c>
       <c r="I127" s="18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J127" s="18">
         <v>757</v>
       </c>
       <c r="K127" s="18" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="L127" s="38">
         <v>0.23</v>
@@ -4666,9 +5601,11 @@
       <c r="N127" s="3"/>
       <c r="O127" s="3"/>
       <c r="P127" s="3"/>
-      <c r="Q127" s="14"/>
-    </row>
-    <row r="128" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q127" s="3"/>
+      <c r="R127" s="3"/>
+      <c r="S127" s="14"/>
+    </row>
+    <row r="128" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B128" s="10"/>
       <c r="C128" s="11"/>
       <c r="D128" s="11"/>
@@ -4679,13 +5616,13 @@
         <v>2</v>
       </c>
       <c r="I128" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J128" s="42">
         <v>23290</v>
       </c>
       <c r="K128" s="18" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="L128" s="38">
         <v>0.38</v>
@@ -4696,11 +5633,13 @@
         <v>3</v>
       </c>
       <c r="P128" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q128" s="14"/>
-    </row>
-    <row r="129" spans="2:17" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+      <c r="Q128" s="18"/>
+      <c r="R128" s="18"/>
+      <c r="S128" s="14"/>
+    </row>
+    <row r="129" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B129" s="10"/>
       <c r="C129" s="11"/>
       <c r="D129" s="11"/>
@@ -4718,11 +5657,19 @@
         <v>3</v>
       </c>
       <c r="P129" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q129" s="12"/>
-    </row>
-    <row r="130" spans="2:17" x14ac:dyDescent="0.2">
+        <v>144</v>
+      </c>
+      <c r="Q129" s="30">
+        <v>4867</v>
+      </c>
+      <c r="R129" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="S129" s="39">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="130" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B130" s="10"/>
       <c r="C130" s="11"/>
       <c r="D130" s="11"/>
@@ -4740,11 +5687,19 @@
         <v>3</v>
       </c>
       <c r="P130" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q130" s="12"/>
-    </row>
-    <row r="131" spans="2:17" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+      <c r="Q130" s="30">
+        <v>1908</v>
+      </c>
+      <c r="R130" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="S130" s="39">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="131" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B131" s="10"/>
       <c r="C131" s="11"/>
       <c r="D131" s="11"/>
@@ -4762,11 +5717,19 @@
         <v>3</v>
       </c>
       <c r="P131" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q131" s="12"/>
-    </row>
-    <row r="132" spans="2:17" x14ac:dyDescent="0.2">
+        <v>146</v>
+      </c>
+      <c r="Q131" s="41">
+        <v>3702</v>
+      </c>
+      <c r="R131" s="19" t="s">
+        <v>299</v>
+      </c>
+      <c r="S131" s="39">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="132" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B132" s="10"/>
       <c r="C132" s="11"/>
       <c r="D132" s="11"/>
@@ -4784,11 +5747,19 @@
         <v>3</v>
       </c>
       <c r="P132" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q132" s="12"/>
-    </row>
-    <row r="133" spans="2:17" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+      <c r="Q132" s="41">
+        <v>1232</v>
+      </c>
+      <c r="R132" s="19" t="s">
+        <v>300</v>
+      </c>
+      <c r="S132" s="39">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="133" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B133" s="10"/>
       <c r="C133" s="11"/>
       <c r="D133" s="11"/>
@@ -4799,13 +5770,13 @@
         <v>2</v>
       </c>
       <c r="I133" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J133" s="18">
         <v>938</v>
       </c>
       <c r="K133" s="18" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="L133" s="38">
         <v>0.28000000000000003</v>
@@ -4814,9 +5785,11 @@
       <c r="N133" s="3"/>
       <c r="O133" s="3"/>
       <c r="P133" s="3"/>
-      <c r="Q133" s="14"/>
-    </row>
-    <row r="134" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q133" s="3"/>
+      <c r="R133" s="3"/>
+      <c r="S133" s="14"/>
+    </row>
+    <row r="134" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B134" s="10"/>
       <c r="C134" s="11"/>
       <c r="D134" s="11"/>
@@ -4827,13 +5800,13 @@
         <v>2</v>
       </c>
       <c r="I134" s="18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J134" s="18">
         <v>409</v>
       </c>
       <c r="K134" s="18" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="L134" s="38">
         <v>0.36</v>
@@ -4842,20 +5815,22 @@
       <c r="N134" s="3"/>
       <c r="O134" s="3"/>
       <c r="P134" s="3"/>
-      <c r="Q134" s="14"/>
-    </row>
-    <row r="135" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q134" s="3"/>
+      <c r="R134" s="3"/>
+      <c r="S134" s="14"/>
+    </row>
+    <row r="135" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B135" s="13">
         <v>1</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D135" s="32">
         <v>153327</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="F135" s="33">
         <v>0.38</v>
@@ -4870,9 +5845,11 @@
       <c r="N135" s="3"/>
       <c r="O135" s="3"/>
       <c r="P135" s="3"/>
-      <c r="Q135" s="14"/>
-    </row>
-    <row r="136" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q135" s="3"/>
+      <c r="R135" s="3"/>
+      <c r="S135" s="14"/>
+    </row>
+    <row r="136" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B136" s="10"/>
       <c r="C136" s="11"/>
       <c r="D136" s="11"/>
@@ -4883,13 +5860,13 @@
         <v>2</v>
       </c>
       <c r="I136" s="18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J136" s="18">
         <v>9789</v>
       </c>
       <c r="K136" s="18" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="L136" s="38">
         <v>0.45</v>
@@ -4900,11 +5877,13 @@
         <v>3</v>
       </c>
       <c r="P136" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q136" s="14"/>
-    </row>
-    <row r="137" spans="2:17" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+      <c r="Q136" s="18"/>
+      <c r="R136" s="18"/>
+      <c r="S136" s="14"/>
+    </row>
+    <row r="137" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B137" s="10"/>
       <c r="C137" s="11"/>
       <c r="D137" s="11"/>
@@ -4922,11 +5901,19 @@
         <v>3</v>
       </c>
       <c r="P137" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q137" s="12"/>
-    </row>
-    <row r="138" spans="2:17" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+      <c r="Q137" s="30">
+        <v>1875</v>
+      </c>
+      <c r="R137" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="S137" s="39">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="138" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B138" s="10"/>
       <c r="C138" s="11"/>
       <c r="D138" s="11"/>
@@ -4944,11 +5931,19 @@
         <v>3</v>
       </c>
       <c r="P138" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q138" s="12"/>
-    </row>
-    <row r="139" spans="2:17" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+      <c r="Q138" s="30">
+        <v>1258</v>
+      </c>
+      <c r="R138" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="S138" s="39">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="139" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B139" s="10"/>
       <c r="C139" s="11"/>
       <c r="D139" s="11"/>
@@ -4966,11 +5961,19 @@
         <v>3</v>
       </c>
       <c r="P139" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q139" s="12"/>
-    </row>
-    <row r="140" spans="2:17" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+      <c r="Q139" s="19">
+        <v>321</v>
+      </c>
+      <c r="R139" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="S139" s="39">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="140" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B140" s="10"/>
       <c r="C140" s="11"/>
       <c r="D140" s="11"/>
@@ -4988,11 +5991,19 @@
         <v>3</v>
       </c>
       <c r="P140" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q140" s="12"/>
-    </row>
-    <row r="141" spans="2:17" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+      <c r="Q140" s="19">
+        <v>891</v>
+      </c>
+      <c r="R140" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="S140" s="39">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="141" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B141" s="10"/>
       <c r="C141" s="11"/>
       <c r="D141" s="11"/>
@@ -5010,11 +6021,19 @@
         <v>3</v>
       </c>
       <c r="P141" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q141" s="12"/>
-    </row>
-    <row r="142" spans="2:17" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="Q141" s="19">
+        <v>327</v>
+      </c>
+      <c r="R141" s="19" t="s">
+        <v>285</v>
+      </c>
+      <c r="S141" s="39">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="142" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B142" s="10"/>
       <c r="C142" s="11"/>
       <c r="D142" s="11"/>
@@ -5032,11 +6051,19 @@
         <v>3</v>
       </c>
       <c r="P142" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q142" s="12"/>
-    </row>
-    <row r="143" spans="2:17" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+      <c r="Q142" s="19">
+        <v>160</v>
+      </c>
+      <c r="R142" s="19" t="s">
+        <v>280</v>
+      </c>
+      <c r="S142" s="39">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="143" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B143" s="10"/>
       <c r="C143" s="11"/>
       <c r="D143" s="11"/>
@@ -5047,13 +6074,13 @@
         <v>2</v>
       </c>
       <c r="I143" s="18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J143" s="40">
         <v>22076</v>
       </c>
       <c r="K143" s="18" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="L143" s="38">
         <v>0.37</v>
@@ -5064,11 +6091,13 @@
         <v>3</v>
       </c>
       <c r="P143" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q143" s="14"/>
-    </row>
-    <row r="144" spans="2:17" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+      <c r="Q143" s="18"/>
+      <c r="R143" s="18"/>
+      <c r="S143" s="14"/>
+    </row>
+    <row r="144" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B144" s="10"/>
       <c r="C144" s="11"/>
       <c r="D144" s="11"/>
@@ -5086,11 +6115,19 @@
         <v>3</v>
       </c>
       <c r="P144" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q144" s="12"/>
-    </row>
-    <row r="145" spans="2:17" x14ac:dyDescent="0.2">
+        <v>154</v>
+      </c>
+      <c r="Q144" s="41">
+        <v>2314</v>
+      </c>
+      <c r="R144" s="19" t="s">
+        <v>301</v>
+      </c>
+      <c r="S144" s="39">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="145" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B145" s="10"/>
       <c r="C145" s="11"/>
       <c r="D145" s="11"/>
@@ -5108,11 +6145,19 @@
         <v>3</v>
       </c>
       <c r="P145" s="19" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q145" s="12"/>
-    </row>
-    <row r="146" spans="2:17" x14ac:dyDescent="0.2">
+        <v>155</v>
+      </c>
+      <c r="Q145" s="41">
+        <v>4829</v>
+      </c>
+      <c r="R145" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="S145" s="39">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="146" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B146" s="10"/>
       <c r="C146" s="11"/>
       <c r="D146" s="11"/>
@@ -5130,11 +6175,19 @@
         <v>3</v>
       </c>
       <c r="P146" s="19" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q146" s="12"/>
-    </row>
-    <row r="147" spans="2:17" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+      <c r="Q146" s="19">
+        <v>617</v>
+      </c>
+      <c r="R146" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="S146" s="39">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="147" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B147" s="10"/>
       <c r="C147" s="11"/>
       <c r="D147" s="11"/>
@@ -5152,11 +6205,19 @@
         <v>3</v>
       </c>
       <c r="P147" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q147" s="12"/>
-    </row>
-    <row r="148" spans="2:17" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+      <c r="Q147" s="41">
+        <v>11494</v>
+      </c>
+      <c r="R147" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="S147" s="39">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="148" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B148" s="10"/>
       <c r="C148" s="11"/>
       <c r="D148" s="11"/>
@@ -5174,11 +6235,19 @@
         <v>3</v>
       </c>
       <c r="P148" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q148" s="12"/>
-    </row>
-    <row r="149" spans="2:17" x14ac:dyDescent="0.2">
+        <v>157</v>
+      </c>
+      <c r="Q148" s="19">
+        <v>69</v>
+      </c>
+      <c r="R148" s="19" t="s">
+        <v>302</v>
+      </c>
+      <c r="S148" s="39">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="149" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B149" s="10"/>
       <c r="C149" s="11"/>
       <c r="D149" s="11"/>
@@ -5189,13 +6258,13 @@
         <v>2</v>
       </c>
       <c r="I149" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J149" s="40">
         <v>4215</v>
       </c>
       <c r="K149" s="18" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="L149" s="38">
         <v>0.33</v>
@@ -5206,11 +6275,13 @@
         <v>3</v>
       </c>
       <c r="P149" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q149" s="14"/>
-    </row>
-    <row r="150" spans="2:17" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+      <c r="Q149" s="18"/>
+      <c r="R149" s="18"/>
+      <c r="S149" s="14"/>
+    </row>
+    <row r="150" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B150" s="10"/>
       <c r="C150" s="11"/>
       <c r="D150" s="11"/>
@@ -5228,11 +6299,17 @@
         <v>3</v>
       </c>
       <c r="P150" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q150" s="12"/>
-    </row>
-    <row r="151" spans="2:17" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+      <c r="Q150" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="R150" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="S150" s="12"/>
+    </row>
+    <row r="151" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B151" s="10"/>
       <c r="C151" s="11"/>
       <c r="D151" s="11"/>
@@ -5250,11 +6327,17 @@
         <v>3</v>
       </c>
       <c r="P151" s="19" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q151" s="12"/>
-    </row>
-    <row r="152" spans="2:17" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+      <c r="Q151" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="R151" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="S151" s="12"/>
+    </row>
+    <row r="152" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B152" s="10"/>
       <c r="C152" s="11"/>
       <c r="D152" s="11"/>
@@ -5272,11 +6355,17 @@
         <v>3</v>
       </c>
       <c r="P152" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q152" s="12"/>
-    </row>
-    <row r="153" spans="2:17" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="Q152" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="R152" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="S152" s="12"/>
+    </row>
+    <row r="153" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B153" s="10"/>
       <c r="C153" s="11"/>
       <c r="D153" s="11"/>
@@ -5294,11 +6383,17 @@
         <v>3</v>
       </c>
       <c r="P153" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q153" s="12"/>
-    </row>
-    <row r="154" spans="2:17" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+      <c r="Q153" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="R153" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="S153" s="12"/>
+    </row>
+    <row r="154" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B154" s="10"/>
       <c r="C154" s="11"/>
       <c r="D154" s="11"/>
@@ -5316,11 +6411,17 @@
         <v>3</v>
       </c>
       <c r="P154" s="19" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q154" s="12"/>
-    </row>
-    <row r="155" spans="2:17" x14ac:dyDescent="0.2">
+        <v>160</v>
+      </c>
+      <c r="Q154" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="R154" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="S154" s="12"/>
+    </row>
+    <row r="155" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B155" s="10"/>
       <c r="C155" s="11"/>
       <c r="D155" s="11"/>
@@ -5338,11 +6439,17 @@
         <v>3</v>
       </c>
       <c r="P155" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q155" s="12"/>
-    </row>
-    <row r="156" spans="2:17" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="Q155" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="R155" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="S155" s="12"/>
+    </row>
+    <row r="156" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B156" s="10"/>
       <c r="C156" s="11"/>
       <c r="D156" s="11"/>
@@ -5360,9 +6467,11 @@
         <v>3</v>
       </c>
       <c r="P156" s="11"/>
-      <c r="Q156" s="12"/>
-    </row>
-    <row r="157" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q156" s="11"/>
+      <c r="R156" s="11"/>
+      <c r="S156" s="12"/>
+    </row>
+    <row r="157" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B157" s="10"/>
       <c r="C157" s="11"/>
       <c r="D157" s="11"/>
@@ -5373,13 +6482,13 @@
         <v>2</v>
       </c>
       <c r="I157" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J157" s="40">
         <v>1203</v>
       </c>
       <c r="K157" s="18" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="L157" s="38">
         <v>0.41</v>
@@ -5388,9 +6497,11 @@
       <c r="N157" s="3"/>
       <c r="O157" s="3"/>
       <c r="P157" s="3"/>
-      <c r="Q157" s="14"/>
-    </row>
-    <row r="158" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q157" s="3"/>
+      <c r="R157" s="3"/>
+      <c r="S157" s="14"/>
+    </row>
+    <row r="158" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B158" s="10"/>
       <c r="C158" s="11"/>
       <c r="D158" s="11"/>
@@ -5401,13 +6512,13 @@
         <v>2</v>
       </c>
       <c r="I158" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J158" s="40">
         <v>12554</v>
       </c>
       <c r="K158" s="18" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="L158" s="38">
         <v>0.19</v>
@@ -5418,11 +6529,13 @@
         <v>3</v>
       </c>
       <c r="P158" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q158" s="14"/>
-    </row>
-    <row r="159" spans="2:17" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+      <c r="Q158" s="18"/>
+      <c r="R158" s="18"/>
+      <c r="S158" s="14"/>
+    </row>
+    <row r="159" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B159" s="10"/>
       <c r="C159" s="11"/>
       <c r="D159" s="11"/>
@@ -5440,11 +6553,19 @@
         <v>3</v>
       </c>
       <c r="P159" s="19" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q159" s="12"/>
-    </row>
-    <row r="160" spans="2:17" x14ac:dyDescent="0.2">
+        <v>162</v>
+      </c>
+      <c r="Q159" s="41">
+        <v>1205</v>
+      </c>
+      <c r="R159" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="S159" s="39">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="160" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B160" s="10"/>
       <c r="C160" s="11"/>
       <c r="D160" s="11"/>
@@ -5462,11 +6583,19 @@
         <v>3</v>
       </c>
       <c r="P160" s="19" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q160" s="12"/>
-    </row>
-    <row r="161" spans="2:17" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+      <c r="Q160" s="41">
+        <v>1937</v>
+      </c>
+      <c r="R160" s="19" t="s">
+        <v>256</v>
+      </c>
+      <c r="S160" s="39">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="161" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B161" s="10"/>
       <c r="C161" s="11"/>
       <c r="D161" s="11"/>
@@ -5484,11 +6613,19 @@
         <v>3</v>
       </c>
       <c r="P161" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q161" s="12"/>
-    </row>
-    <row r="162" spans="2:17" x14ac:dyDescent="0.2">
+        <v>164</v>
+      </c>
+      <c r="Q161" s="19">
+        <v>739</v>
+      </c>
+      <c r="R161" s="19" t="s">
+        <v>304</v>
+      </c>
+      <c r="S161" s="39">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="162" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B162" s="10"/>
       <c r="C162" s="11"/>
       <c r="D162" s="11"/>
@@ -5499,13 +6636,13 @@
         <v>2</v>
       </c>
       <c r="I162" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J162" s="40">
         <v>24358</v>
       </c>
       <c r="K162" s="18" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="L162" s="38">
         <v>0.22</v>
@@ -5516,11 +6653,13 @@
         <v>3</v>
       </c>
       <c r="P162" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q162" s="14"/>
-    </row>
-    <row r="163" spans="2:17" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="Q162" s="18"/>
+      <c r="R162" s="18"/>
+      <c r="S162" s="14"/>
+    </row>
+    <row r="163" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B163" s="10"/>
       <c r="C163" s="11"/>
       <c r="D163" s="11"/>
@@ -5538,11 +6677,19 @@
         <v>3</v>
       </c>
       <c r="P163" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q163" s="12"/>
-    </row>
-    <row r="164" spans="2:17" x14ac:dyDescent="0.2">
+        <v>165</v>
+      </c>
+      <c r="Q163" s="19">
+        <v>754</v>
+      </c>
+      <c r="R163" s="19" t="s">
+        <v>305</v>
+      </c>
+      <c r="S163" s="39">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="164" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B164" s="10"/>
       <c r="C164" s="11"/>
       <c r="D164" s="11"/>
@@ -5560,11 +6707,19 @@
         <v>3</v>
       </c>
       <c r="P164" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q164" s="12"/>
-    </row>
-    <row r="165" spans="2:17" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+      <c r="Q164" s="19">
+        <v>389</v>
+      </c>
+      <c r="R164" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="S164" s="39">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="165" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B165" s="10"/>
       <c r="C165" s="11"/>
       <c r="D165" s="11"/>
@@ -5582,11 +6737,19 @@
         <v>3</v>
       </c>
       <c r="P165" s="19" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q165" s="12"/>
-    </row>
-    <row r="166" spans="2:17" x14ac:dyDescent="0.2">
+        <v>167</v>
+      </c>
+      <c r="Q165" s="19">
+        <v>359</v>
+      </c>
+      <c r="R165" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="S165" s="39">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="166" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B166" s="10"/>
       <c r="C166" s="11"/>
       <c r="D166" s="11"/>
@@ -5604,11 +6767,19 @@
         <v>3</v>
       </c>
       <c r="P166" s="19" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q166" s="12"/>
-    </row>
-    <row r="167" spans="2:17" x14ac:dyDescent="0.2">
+        <v>168</v>
+      </c>
+      <c r="Q166" s="19">
+        <v>50</v>
+      </c>
+      <c r="R166" s="19" t="s">
+        <v>306</v>
+      </c>
+      <c r="S166" s="39">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="167" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B167" s="10"/>
       <c r="C167" s="11"/>
       <c r="D167" s="11"/>
@@ -5619,13 +6790,13 @@
         <v>2</v>
       </c>
       <c r="I167" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J167" s="40">
         <v>15758</v>
       </c>
       <c r="K167" s="18" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="L167" s="38">
         <v>0.28000000000000003</v>
@@ -5634,9 +6805,11 @@
       <c r="N167" s="3"/>
       <c r="O167" s="3"/>
       <c r="P167" s="3"/>
-      <c r="Q167" s="14"/>
-    </row>
-    <row r="168" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q167" s="3"/>
+      <c r="R167" s="3"/>
+      <c r="S167" s="14"/>
+    </row>
+    <row r="168" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B168" s="10"/>
       <c r="C168" s="11"/>
       <c r="D168" s="11"/>
@@ -5647,13 +6820,13 @@
         <v>2</v>
       </c>
       <c r="I168" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J168" s="18">
         <v>361</v>
       </c>
       <c r="K168" s="18" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="L168" s="38">
         <v>0.42</v>
@@ -5662,9 +6835,11 @@
       <c r="N168" s="3"/>
       <c r="O168" s="3"/>
       <c r="P168" s="3"/>
-      <c r="Q168" s="14"/>
-    </row>
-    <row r="169" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q168" s="3"/>
+      <c r="R168" s="3"/>
+      <c r="S168" s="14"/>
+    </row>
+    <row r="169" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B169" s="10"/>
       <c r="C169" s="11"/>
       <c r="D169" s="11"/>
@@ -5675,13 +6850,13 @@
         <v>2</v>
       </c>
       <c r="I169" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J169" s="18">
         <v>875</v>
       </c>
       <c r="K169" s="18" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="L169" s="38">
         <v>0.59</v>
@@ -5690,9 +6865,11 @@
       <c r="N169" s="3"/>
       <c r="O169" s="3"/>
       <c r="P169" s="3"/>
-      <c r="Q169" s="14"/>
-    </row>
-    <row r="170" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q169" s="3"/>
+      <c r="R169" s="3"/>
+      <c r="S169" s="14"/>
+    </row>
+    <row r="170" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B170" s="10"/>
       <c r="C170" s="11"/>
       <c r="D170" s="11"/>
@@ -5703,13 +6880,13 @@
         <v>2</v>
       </c>
       <c r="I170" s="18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J170" s="18">
         <v>512</v>
       </c>
       <c r="K170" s="18" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="L170" s="38">
         <v>0.24</v>
@@ -5718,9 +6895,11 @@
       <c r="N170" s="3"/>
       <c r="O170" s="3"/>
       <c r="P170" s="3"/>
-      <c r="Q170" s="14"/>
-    </row>
-    <row r="171" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q170" s="3"/>
+      <c r="R170" s="3"/>
+      <c r="S170" s="14"/>
+    </row>
+    <row r="171" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B171" s="10"/>
       <c r="C171" s="11"/>
       <c r="D171" s="11"/>
@@ -5731,13 +6910,13 @@
         <v>2</v>
       </c>
       <c r="I171" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J171" s="40">
         <v>21202</v>
       </c>
       <c r="K171" s="18" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="L171" s="38">
         <v>0.91</v>
@@ -5746,9 +6925,11 @@
       <c r="N171" s="3"/>
       <c r="O171" s="3"/>
       <c r="P171" s="3"/>
-      <c r="Q171" s="14"/>
-    </row>
-    <row r="172" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q171" s="3"/>
+      <c r="R171" s="3"/>
+      <c r="S171" s="14"/>
+    </row>
+    <row r="172" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B172" s="10"/>
       <c r="C172" s="11"/>
       <c r="D172" s="11"/>
@@ -5759,13 +6940,13 @@
         <v>2</v>
       </c>
       <c r="I172" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J172" s="18">
         <v>618</v>
       </c>
       <c r="K172" s="18" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="L172" s="38">
         <v>0.28999999999999998</v>
@@ -5774,9 +6955,11 @@
       <c r="N172" s="3"/>
       <c r="O172" s="3"/>
       <c r="P172" s="3"/>
-      <c r="Q172" s="14"/>
-    </row>
-    <row r="173" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q172" s="3"/>
+      <c r="R172" s="3"/>
+      <c r="S172" s="14"/>
+    </row>
+    <row r="173" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B173" s="10"/>
       <c r="C173" s="11"/>
       <c r="D173" s="11"/>
@@ -5787,13 +6970,13 @@
         <v>2</v>
       </c>
       <c r="I173" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J173" s="18">
         <v>449</v>
       </c>
       <c r="K173" s="18" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="L173" s="38">
         <v>0.59</v>
@@ -5804,11 +6987,13 @@
         <v>3</v>
       </c>
       <c r="P173" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q173" s="14"/>
-    </row>
-    <row r="174" spans="2:17" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+      <c r="Q173" s="18"/>
+      <c r="R173" s="18"/>
+      <c r="S173" s="14"/>
+    </row>
+    <row r="174" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B174" s="10"/>
       <c r="C174" s="11"/>
       <c r="D174" s="11"/>
@@ -5826,11 +7011,19 @@
         <v>3</v>
       </c>
       <c r="P174" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q174" s="12"/>
-    </row>
-    <row r="175" spans="2:17" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+      <c r="Q174" s="11">
+        <v>15</v>
+      </c>
+      <c r="R174" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="S174" s="39">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="175" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B175" s="10"/>
       <c r="C175" s="11"/>
       <c r="D175" s="11"/>
@@ -5841,13 +7034,13 @@
         <v>2</v>
       </c>
       <c r="I175" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J175" s="18">
         <v>2011</v>
       </c>
       <c r="K175" s="18" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="L175" s="38">
         <v>0.54</v>
@@ -5856,9 +7049,11 @@
       <c r="N175" s="3"/>
       <c r="O175" s="3"/>
       <c r="P175" s="3"/>
-      <c r="Q175" s="14"/>
-    </row>
-    <row r="176" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q175" s="3"/>
+      <c r="R175" s="3"/>
+      <c r="S175" s="14"/>
+    </row>
+    <row r="176" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B176" s="10"/>
       <c r="C176" s="11"/>
       <c r="D176" s="11"/>
@@ -5869,13 +7064,13 @@
         <v>2</v>
       </c>
       <c r="I176" s="18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J176" s="18">
         <v>550</v>
       </c>
       <c r="K176" s="18" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="L176" s="38">
         <v>0.52</v>
@@ -5884,9 +7079,11 @@
       <c r="N176" s="3"/>
       <c r="O176" s="3"/>
       <c r="P176" s="3"/>
-      <c r="Q176" s="14"/>
-    </row>
-    <row r="177" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q176" s="3"/>
+      <c r="R176" s="3"/>
+      <c r="S176" s="14"/>
+    </row>
+    <row r="177" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B177" s="10"/>
       <c r="C177" s="11"/>
       <c r="D177" s="11"/>
@@ -5897,13 +7094,13 @@
         <v>2</v>
       </c>
       <c r="I177" s="18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J177" s="18">
         <v>6250</v>
       </c>
       <c r="K177" s="18" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="L177" s="38">
         <v>0.27</v>
@@ -5914,11 +7111,13 @@
         <v>3</v>
       </c>
       <c r="P177" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q177" s="14"/>
-    </row>
-    <row r="178" spans="2:17" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+      <c r="Q177" s="18"/>
+      <c r="R177" s="18"/>
+      <c r="S177" s="14"/>
+    </row>
+    <row r="178" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B178" s="10"/>
       <c r="C178" s="11"/>
       <c r="D178" s="11"/>
@@ -5936,11 +7135,19 @@
         <v>3</v>
       </c>
       <c r="P178" s="19" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q178" s="12"/>
-    </row>
-    <row r="179" spans="2:17" x14ac:dyDescent="0.2">
+        <v>170</v>
+      </c>
+      <c r="Q178" s="19">
+        <v>60</v>
+      </c>
+      <c r="R178" s="19" t="s">
+        <v>245</v>
+      </c>
+      <c r="S178" s="39">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="179" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B179" s="10"/>
       <c r="C179" s="11"/>
       <c r="D179" s="11"/>
@@ -5958,11 +7165,19 @@
         <v>3</v>
       </c>
       <c r="P179" s="19" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q179" s="12"/>
-    </row>
-    <row r="180" spans="2:17" x14ac:dyDescent="0.2">
+        <v>171</v>
+      </c>
+      <c r="Q179" s="19">
+        <v>333</v>
+      </c>
+      <c r="R179" s="19" t="s">
+        <v>305</v>
+      </c>
+      <c r="S179" s="39">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="180" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B180" s="10"/>
       <c r="C180" s="11"/>
       <c r="D180" s="11"/>
@@ -5980,11 +7195,19 @@
         <v>3</v>
       </c>
       <c r="P180" s="19" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q180" s="12"/>
-    </row>
-    <row r="181" spans="2:17" x14ac:dyDescent="0.2">
+        <v>172</v>
+      </c>
+      <c r="Q180" s="19">
+        <v>694</v>
+      </c>
+      <c r="R180" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="S180" s="39">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="181" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B181" s="10"/>
       <c r="C181" s="11"/>
       <c r="D181" s="11"/>
@@ -6002,11 +7225,19 @@
         <v>3</v>
       </c>
       <c r="P181" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q181" s="12"/>
-    </row>
-    <row r="182" spans="2:17" x14ac:dyDescent="0.2">
+        <v>173</v>
+      </c>
+      <c r="Q181" s="19">
+        <v>603</v>
+      </c>
+      <c r="R181" s="19" t="s">
+        <v>308</v>
+      </c>
+      <c r="S181" s="39">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="182" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B182" s="10"/>
       <c r="C182" s="11"/>
       <c r="D182" s="11"/>
@@ -6024,11 +7255,19 @@
         <v>3</v>
       </c>
       <c r="P182" s="19" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q182" s="12"/>
-    </row>
-    <row r="183" spans="2:17" x14ac:dyDescent="0.2">
+        <v>155</v>
+      </c>
+      <c r="Q182" s="19">
+        <v>544</v>
+      </c>
+      <c r="R182" s="19" t="s">
+        <v>256</v>
+      </c>
+      <c r="S182" s="39">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="183" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B183" s="10"/>
       <c r="C183" s="11"/>
       <c r="D183" s="11"/>
@@ -6046,11 +7285,19 @@
         <v>3</v>
       </c>
       <c r="P183" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q183" s="12"/>
-    </row>
-    <row r="184" spans="2:17" x14ac:dyDescent="0.2">
+        <v>174</v>
+      </c>
+      <c r="Q183" s="19">
+        <v>909</v>
+      </c>
+      <c r="R183" s="19" t="s">
+        <v>309</v>
+      </c>
+      <c r="S183" s="39">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="184" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B184" s="10"/>
       <c r="C184" s="11"/>
       <c r="D184" s="11"/>
@@ -6068,11 +7315,19 @@
         <v>3</v>
       </c>
       <c r="P184" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q184" s="12"/>
-    </row>
-    <row r="185" spans="2:17" x14ac:dyDescent="0.2">
+        <v>175</v>
+      </c>
+      <c r="Q184" s="19">
+        <v>45</v>
+      </c>
+      <c r="R184" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="S184" s="39">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="185" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B185" s="10"/>
       <c r="C185" s="11"/>
       <c r="D185" s="11"/>
@@ -6083,13 +7338,13 @@
         <v>2</v>
       </c>
       <c r="I185" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J185" s="18">
         <v>501</v>
       </c>
       <c r="K185" s="18" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="L185" s="38">
         <v>0.41</v>
@@ -6098,9 +7353,11 @@
       <c r="N185" s="3"/>
       <c r="O185" s="3"/>
       <c r="P185" s="3"/>
-      <c r="Q185" s="14"/>
-    </row>
-    <row r="186" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q185" s="3"/>
+      <c r="R185" s="3"/>
+      <c r="S185" s="14"/>
+    </row>
+    <row r="186" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B186" s="10"/>
       <c r="C186" s="11"/>
       <c r="D186" s="11"/>
@@ -6111,24 +7368,26 @@
         <v>2</v>
       </c>
       <c r="I186" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J186" s="18" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="K186" s="18" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="L186" s="14" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="M186" s="3"/>
       <c r="N186" s="3"/>
       <c r="O186" s="3"/>
       <c r="P186" s="3"/>
-      <c r="Q186" s="14"/>
-    </row>
-    <row r="187" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q186" s="3"/>
+      <c r="R186" s="3"/>
+      <c r="S186" s="14"/>
+    </row>
+    <row r="187" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B187" s="10"/>
       <c r="C187" s="11"/>
       <c r="D187" s="11"/>
@@ -6139,13 +7398,13 @@
         <v>2</v>
       </c>
       <c r="I187" s="18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J187" s="18">
         <v>664</v>
       </c>
       <c r="K187" s="18" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="L187" s="38">
         <v>0.26</v>
@@ -6156,11 +7415,13 @@
         <v>3</v>
       </c>
       <c r="P187" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q187" s="14"/>
-    </row>
-    <row r="188" spans="2:17" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+      <c r="Q187" s="18"/>
+      <c r="R187" s="18"/>
+      <c r="S187" s="14"/>
+    </row>
+    <row r="188" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B188" s="10"/>
       <c r="C188" s="11"/>
       <c r="D188" s="11"/>
@@ -6178,11 +7439,19 @@
         <v>3</v>
       </c>
       <c r="P188" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q188" s="12"/>
-    </row>
-    <row r="189" spans="2:17" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+      <c r="Q188" s="19">
+        <v>261</v>
+      </c>
+      <c r="R188" s="19" t="s">
+        <v>310</v>
+      </c>
+      <c r="S188" s="39">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="189" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B189" s="10"/>
       <c r="C189" s="11"/>
       <c r="D189" s="11"/>
@@ -6200,11 +7469,19 @@
         <v>3</v>
       </c>
       <c r="P189" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q189" s="12"/>
-    </row>
-    <row r="190" spans="2:17" x14ac:dyDescent="0.2">
+        <v>176</v>
+      </c>
+      <c r="Q189" s="19">
+        <v>84</v>
+      </c>
+      <c r="R189" s="19" t="s">
+        <v>311</v>
+      </c>
+      <c r="S189" s="39">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="190" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B190" s="10"/>
       <c r="C190" s="11"/>
       <c r="D190" s="11"/>
@@ -6215,13 +7492,13 @@
         <v>2</v>
       </c>
       <c r="I190" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J190" s="18">
         <v>37</v>
       </c>
       <c r="K190" s="18" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="L190" s="38">
         <v>0.11</v>
@@ -6232,11 +7509,13 @@
         <v>3</v>
       </c>
       <c r="P190" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q190" s="14"/>
-    </row>
-    <row r="191" spans="2:17" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+      <c r="Q190" s="18"/>
+      <c r="R190" s="18"/>
+      <c r="S190" s="14"/>
+    </row>
+    <row r="191" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B191" s="10"/>
       <c r="C191" s="11"/>
       <c r="D191" s="11"/>
@@ -6254,22 +7533,30 @@
         <v>3</v>
       </c>
       <c r="P191" s="19" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q191" s="12"/>
-    </row>
-    <row r="192" spans="2:17" x14ac:dyDescent="0.2">
+        <v>177</v>
+      </c>
+      <c r="Q191" s="19">
+        <v>11</v>
+      </c>
+      <c r="R191" s="19" t="s">
+        <v>276</v>
+      </c>
+      <c r="S191" s="39">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="192" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B192" s="13">
         <v>1</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D192" s="32">
         <v>58523</v>
       </c>
       <c r="E192" s="3" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="F192" s="33">
         <v>0.43</v>
@@ -6284,9 +7571,11 @@
       <c r="N192" s="3"/>
       <c r="O192" s="3"/>
       <c r="P192" s="3"/>
-      <c r="Q192" s="14"/>
-    </row>
-    <row r="193" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q192" s="3"/>
+      <c r="R192" s="3"/>
+      <c r="S192" s="14"/>
+    </row>
+    <row r="193" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B193" s="10"/>
       <c r="C193" s="11"/>
       <c r="D193" s="11"/>
@@ -6297,13 +7586,13 @@
         <v>2</v>
       </c>
       <c r="I193" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J193" s="40">
         <v>9948</v>
       </c>
       <c r="K193" s="18" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="L193" s="38">
         <v>0.43</v>
@@ -6312,9 +7601,11 @@
       <c r="N193" s="3"/>
       <c r="O193" s="3"/>
       <c r="P193" s="3"/>
-      <c r="Q193" s="14"/>
-    </row>
-    <row r="194" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q193" s="3"/>
+      <c r="R193" s="3"/>
+      <c r="S193" s="14"/>
+    </row>
+    <row r="194" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B194" s="10"/>
       <c r="C194" s="11"/>
       <c r="D194" s="11"/>
@@ -6325,13 +7616,13 @@
         <v>2</v>
       </c>
       <c r="I194" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J194" s="18">
         <v>731</v>
       </c>
       <c r="K194" s="18" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="L194" s="38">
         <v>0.25</v>
@@ -6342,11 +7633,13 @@
         <v>3</v>
       </c>
       <c r="P194" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q194" s="14"/>
-    </row>
-    <row r="195" spans="2:17" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+      <c r="Q194" s="18"/>
+      <c r="R194" s="18"/>
+      <c r="S194" s="14"/>
+    </row>
+    <row r="195" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B195" s="10"/>
       <c r="C195" s="11"/>
       <c r="D195" s="11"/>
@@ -6364,11 +7657,19 @@
         <v>3</v>
       </c>
       <c r="P195" s="19" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q195" s="12"/>
-    </row>
-    <row r="196" spans="2:17" x14ac:dyDescent="0.2">
+        <v>178</v>
+      </c>
+      <c r="Q195" s="19">
+        <v>66</v>
+      </c>
+      <c r="R195" s="19" t="s">
+        <v>312</v>
+      </c>
+      <c r="S195" s="39">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="196" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B196" s="10"/>
       <c r="C196" s="11"/>
       <c r="D196" s="11"/>
@@ -6386,11 +7687,19 @@
         <v>3</v>
       </c>
       <c r="P196" s="19" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q196" s="12"/>
-    </row>
-    <row r="197" spans="2:17" x14ac:dyDescent="0.2">
+        <v>179</v>
+      </c>
+      <c r="Q196" s="19">
+        <v>79</v>
+      </c>
+      <c r="R196" s="19" t="s">
+        <v>297</v>
+      </c>
+      <c r="S196" s="39">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="197" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B197" s="10"/>
       <c r="C197" s="11"/>
       <c r="D197" s="11"/>
@@ -6401,13 +7710,13 @@
         <v>2</v>
       </c>
       <c r="I197" s="22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J197" s="43">
         <v>12108</v>
       </c>
       <c r="K197" s="22" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="L197" s="44">
         <v>0.55000000000000004</v>
@@ -6416,9 +7725,11 @@
       <c r="N197" s="24"/>
       <c r="O197" s="24"/>
       <c r="P197" s="24"/>
-      <c r="Q197" s="23"/>
-    </row>
-    <row r="198" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q197" s="24"/>
+      <c r="R197" s="24"/>
+      <c r="S197" s="23"/>
+    </row>
+    <row r="198" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B198" s="10"/>
       <c r="C198" s="11"/>
       <c r="D198" s="11"/>
@@ -6429,13 +7740,13 @@
         <v>2</v>
       </c>
       <c r="I198" s="22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J198" s="43">
         <v>2220</v>
       </c>
       <c r="K198" s="22" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="L198" s="44">
         <v>0.46</v>
@@ -6444,9 +7755,11 @@
       <c r="N198" s="24"/>
       <c r="O198" s="24"/>
       <c r="P198" s="24"/>
-      <c r="Q198" s="23"/>
-    </row>
-    <row r="199" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q198" s="24"/>
+      <c r="R198" s="24"/>
+      <c r="S198" s="23"/>
+    </row>
+    <row r="199" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B199" s="10"/>
       <c r="C199" s="11"/>
       <c r="D199" s="11"/>
@@ -6457,13 +7770,13 @@
         <v>2</v>
       </c>
       <c r="I199" s="22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J199" s="43">
         <v>17696</v>
       </c>
       <c r="K199" s="22" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="L199" s="44">
         <v>0.6</v>
@@ -6472,9 +7785,11 @@
       <c r="N199" s="24"/>
       <c r="O199" s="24"/>
       <c r="P199" s="24"/>
-      <c r="Q199" s="23"/>
-    </row>
-    <row r="200" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q199" s="24"/>
+      <c r="R199" s="24"/>
+      <c r="S199" s="23"/>
+    </row>
+    <row r="200" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B200" s="10"/>
       <c r="C200" s="11"/>
       <c r="D200" s="11"/>
@@ -6485,13 +7800,13 @@
         <v>2</v>
       </c>
       <c r="I200" s="22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J200" s="22">
         <v>287</v>
       </c>
       <c r="K200" s="22" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="L200" s="44">
         <v>0.24</v>
@@ -6500,9 +7815,11 @@
       <c r="N200" s="24"/>
       <c r="O200" s="24"/>
       <c r="P200" s="24"/>
-      <c r="Q200" s="23"/>
-    </row>
-    <row r="201" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q200" s="24"/>
+      <c r="R200" s="24"/>
+      <c r="S200" s="23"/>
+    </row>
+    <row r="201" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B201" s="10"/>
       <c r="C201" s="11"/>
       <c r="D201" s="11"/>
@@ -6513,13 +7830,13 @@
         <v>2</v>
       </c>
       <c r="I201" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J201" s="43">
         <v>2017</v>
       </c>
       <c r="K201" s="22" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="L201" s="44">
         <v>0.56000000000000005</v>
@@ -6528,9 +7845,11 @@
       <c r="N201" s="24"/>
       <c r="O201" s="24"/>
       <c r="P201" s="24"/>
-      <c r="Q201" s="23"/>
-    </row>
-    <row r="202" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q201" s="24"/>
+      <c r="R201" s="24"/>
+      <c r="S201" s="23"/>
+    </row>
+    <row r="202" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B202" s="10"/>
       <c r="C202" s="11"/>
       <c r="D202" s="11"/>
@@ -6541,13 +7860,13 @@
         <v>2</v>
       </c>
       <c r="I202" s="22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J202" s="22">
         <v>139</v>
       </c>
       <c r="K202" s="22" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="L202" s="44">
         <v>0.11</v>
@@ -6556,9 +7875,11 @@
       <c r="N202" s="24"/>
       <c r="O202" s="24"/>
       <c r="P202" s="24"/>
-      <c r="Q202" s="23"/>
-    </row>
-    <row r="203" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q202" s="24"/>
+      <c r="R202" s="24"/>
+      <c r="S202" s="23"/>
+    </row>
+    <row r="203" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B203" s="10"/>
       <c r="C203" s="11"/>
       <c r="D203" s="11"/>
@@ -6569,13 +7890,13 @@
         <v>2</v>
       </c>
       <c r="I203" s="22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J203" s="22">
         <v>134</v>
       </c>
       <c r="K203" s="22" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="L203" s="44">
         <v>0.28000000000000003</v>
@@ -6584,9 +7905,11 @@
       <c r="N203" s="24"/>
       <c r="O203" s="24"/>
       <c r="P203" s="24"/>
-      <c r="Q203" s="23"/>
-    </row>
-    <row r="204" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q203" s="24"/>
+      <c r="R203" s="24"/>
+      <c r="S203" s="23"/>
+    </row>
+    <row r="204" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B204" s="10"/>
       <c r="C204" s="11"/>
       <c r="D204" s="11"/>
@@ -6597,13 +7920,13 @@
         <v>2</v>
       </c>
       <c r="I204" s="22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J204" s="22">
         <v>177</v>
       </c>
       <c r="K204" s="22" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="L204" s="44">
         <v>0.2</v>
@@ -6612,20 +7935,22 @@
       <c r="N204" s="24"/>
       <c r="O204" s="24"/>
       <c r="P204" s="24"/>
-      <c r="Q204" s="23"/>
-    </row>
-    <row r="205" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q204" s="24"/>
+      <c r="R204" s="24"/>
+      <c r="S204" s="23"/>
+    </row>
+    <row r="205" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B205" s="13">
         <v>1</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D205" s="32">
         <v>6839</v>
       </c>
       <c r="E205" s="3" t="s">
-        <v>210</v>
+        <v>316</v>
       </c>
       <c r="F205" s="38">
         <v>0.53</v>
@@ -6640,9 +7965,11 @@
       <c r="N205" s="11"/>
       <c r="O205" s="11"/>
       <c r="P205" s="11"/>
-      <c r="Q205" s="12"/>
-    </row>
-    <row r="206" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q205" s="11"/>
+      <c r="R205" s="11"/>
+      <c r="S205" s="12"/>
+    </row>
+    <row r="206" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B206" s="10"/>
       <c r="C206" s="11"/>
       <c r="D206" s="11"/>
@@ -6653,16 +7980,16 @@
         <v>2</v>
       </c>
       <c r="I206" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J206" s="3" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="K206" s="3" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="L206" s="14" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="M206" s="3"/>
       <c r="N206" s="3"/>
@@ -6670,11 +7997,13 @@
         <v>3</v>
       </c>
       <c r="P206" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q206" s="14"/>
-    </row>
-    <row r="207" spans="2:17" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+      <c r="Q206" s="3"/>
+      <c r="R206" s="3"/>
+      <c r="S206" s="14"/>
+    </row>
+    <row r="207" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B207" s="10"/>
       <c r="C207" s="11"/>
       <c r="D207" s="11"/>
@@ -6692,11 +8021,19 @@
         <v>3</v>
       </c>
       <c r="P207" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q207" s="12"/>
-    </row>
-    <row r="208" spans="2:17" x14ac:dyDescent="0.2">
+        <v>180</v>
+      </c>
+      <c r="Q207" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="R207" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="S207" s="12" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="208" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B208" s="10"/>
       <c r="C208" s="11"/>
       <c r="D208" s="11"/>
@@ -6714,11 +8051,19 @@
         <v>3</v>
       </c>
       <c r="P208" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q208" s="12"/>
-    </row>
-    <row r="209" spans="2:17" x14ac:dyDescent="0.2">
+        <v>181</v>
+      </c>
+      <c r="Q208" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="R208" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="S208" s="12" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="209" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B209" s="10"/>
       <c r="C209" s="11"/>
       <c r="D209" s="11"/>
@@ -6736,11 +8081,19 @@
         <v>3</v>
       </c>
       <c r="P209" s="19" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q209" s="12"/>
-    </row>
-    <row r="210" spans="2:17" x14ac:dyDescent="0.2">
+        <v>182</v>
+      </c>
+      <c r="Q209" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="R209" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="S209" s="12" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="210" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B210" s="10"/>
       <c r="C210" s="11"/>
       <c r="D210" s="11"/>
@@ -6758,11 +8111,19 @@
         <v>3</v>
       </c>
       <c r="P210" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q210" s="12"/>
-    </row>
-    <row r="211" spans="2:17" x14ac:dyDescent="0.2">
+        <v>183</v>
+      </c>
+      <c r="Q210" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="R210" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="S210" s="12" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="211" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B211" s="10"/>
       <c r="C211" s="11"/>
       <c r="D211" s="11"/>
@@ -6780,11 +8141,19 @@
         <v>3</v>
       </c>
       <c r="P211" s="19" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q211" s="12"/>
-    </row>
-    <row r="212" spans="2:17" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+      <c r="Q211" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="R211" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="S211" s="12" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="212" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B212" s="10"/>
       <c r="C212" s="11"/>
       <c r="D212" s="11"/>
@@ -6802,11 +8171,19 @@
         <v>3</v>
       </c>
       <c r="P212" s="19" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q212" s="12"/>
-    </row>
-    <row r="213" spans="2:17" x14ac:dyDescent="0.2">
+        <v>185</v>
+      </c>
+      <c r="Q212" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="R212" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="S212" s="12" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="213" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B213" s="10"/>
       <c r="C213" s="11"/>
       <c r="D213" s="11"/>
@@ -6824,11 +8201,19 @@
         <v>3</v>
       </c>
       <c r="P213" s="19" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q213" s="12"/>
-    </row>
-    <row r="214" spans="2:17" x14ac:dyDescent="0.2">
+        <v>186</v>
+      </c>
+      <c r="Q213" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="R213" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="S213" s="12" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="214" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B214" s="10"/>
       <c r="C214" s="11"/>
       <c r="D214" s="11"/>
@@ -6846,11 +8231,19 @@
         <v>3</v>
       </c>
       <c r="P214" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q214" s="12"/>
-    </row>
-    <row r="215" spans="2:17" x14ac:dyDescent="0.2">
+        <v>187</v>
+      </c>
+      <c r="Q214" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="R214" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="S214" s="12" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="215" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B215" s="10"/>
       <c r="C215" s="11"/>
       <c r="D215" s="11"/>
@@ -6868,11 +8261,19 @@
         <v>3</v>
       </c>
       <c r="P215" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q215" s="12"/>
-    </row>
-    <row r="216" spans="2:17" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+      <c r="Q215" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="R215" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="S215" s="12" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="216" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B216" s="10"/>
       <c r="C216" s="11"/>
       <c r="D216" s="11"/>
@@ -6890,11 +8291,19 @@
         <v>3</v>
       </c>
       <c r="P216" s="19" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q216" s="12"/>
-    </row>
-    <row r="217" spans="2:17" x14ac:dyDescent="0.2">
+        <v>189</v>
+      </c>
+      <c r="Q216" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="R216" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="S216" s="12" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="217" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B217" s="10"/>
       <c r="C217" s="11"/>
       <c r="D217" s="11"/>
@@ -6912,11 +8321,19 @@
         <v>3</v>
       </c>
       <c r="P217" s="19" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q217" s="12"/>
-    </row>
-    <row r="218" spans="2:17" x14ac:dyDescent="0.2">
+        <v>190</v>
+      </c>
+      <c r="Q217" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="R217" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="S217" s="12" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="218" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B218" s="10"/>
       <c r="C218" s="11"/>
       <c r="D218" s="11"/>
@@ -6934,11 +8351,19 @@
         <v>3</v>
       </c>
       <c r="P218" s="19" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q218" s="12"/>
-    </row>
-    <row r="219" spans="2:17" x14ac:dyDescent="0.2">
+        <v>191</v>
+      </c>
+      <c r="Q218" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="R218" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="S218" s="12" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="219" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B219" s="10"/>
       <c r="C219" s="11"/>
       <c r="D219" s="11"/>
@@ -6956,11 +8381,19 @@
         <v>3</v>
       </c>
       <c r="P219" s="19" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q219" s="12"/>
-    </row>
-    <row r="220" spans="2:17" x14ac:dyDescent="0.2">
+        <v>192</v>
+      </c>
+      <c r="Q219" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="R219" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="S219" s="12" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="220" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B220" s="10"/>
       <c r="C220" s="11"/>
       <c r="D220" s="11"/>
@@ -6978,11 +8411,19 @@
         <v>3</v>
       </c>
       <c r="P220" s="19" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q220" s="12"/>
-    </row>
-    <row r="221" spans="2:17" x14ac:dyDescent="0.2">
+        <v>193</v>
+      </c>
+      <c r="Q220" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="R220" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="S220" s="12" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="221" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B221" s="10"/>
       <c r="C221" s="11"/>
       <c r="D221" s="11"/>
@@ -7000,11 +8441,19 @@
         <v>3</v>
       </c>
       <c r="P221" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q221" s="12"/>
-    </row>
-    <row r="222" spans="2:17" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+      <c r="Q221" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="R221" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="S221" s="12" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="222" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B222" s="10"/>
       <c r="C222" s="11"/>
       <c r="D222" s="11"/>
@@ -7022,11 +8471,19 @@
         <v>3</v>
       </c>
       <c r="P222" s="19" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q222" s="12"/>
-    </row>
-    <row r="223" spans="2:17" x14ac:dyDescent="0.2">
+        <v>195</v>
+      </c>
+      <c r="Q222" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="R222" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="S222" s="12" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="223" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B223" s="10"/>
       <c r="C223" s="11"/>
       <c r="D223" s="11"/>
@@ -7044,11 +8501,19 @@
         <v>3</v>
       </c>
       <c r="P223" s="19" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q223" s="12"/>
-    </row>
-    <row r="224" spans="2:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+      <c r="Q223" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="R223" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="S223" s="12" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="224" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B224" s="25"/>
       <c r="C224" s="26"/>
       <c r="D224" s="26"/>
@@ -7066,12 +8531,20 @@
         <v>3</v>
       </c>
       <c r="P224" s="28" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q224" s="27"/>
+        <v>197</v>
+      </c>
+      <c r="Q224" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="R224" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="S224" s="27" t="s">
+        <v>207</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>